--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
   <si>
     <t>SqlClient</t>
   </si>
@@ -315,12 +315,45 @@
   <si>
     <t>LINQ implementation</t>
   </si>
+  <si>
+    <t>18 738</t>
+  </si>
+  <si>
+    <t>10 688</t>
+  </si>
+  <si>
+    <t>15 379</t>
+  </si>
+  <si>
+    <t>16 281</t>
+  </si>
+  <si>
+    <t>13 635</t>
+  </si>
+  <si>
+    <t>21 779</t>
+  </si>
+  <si>
+    <t>64 662</t>
+  </si>
+  <si>
+    <t>24 219</t>
+  </si>
+  <si>
+    <t>29 219</t>
+  </si>
+  <si>
+    <t>15 828</t>
+  </si>
+  <si>
+    <t>1 207 146</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +559,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1048,7 +1089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1202,6 +1243,24 @@
     <xf numFmtId="49" fontId="13" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1248,7 +1307,1651 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="148">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1454,1062 +3157,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2556,7 +3203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2837,25 +3483,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115391872"/>
-        <c:axId val="115823744"/>
+        <c:axId val="115387776"/>
+        <c:axId val="115426432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115391872"/>
+        <c:axId val="115387776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115823744"/>
+        <c:crossAx val="115426432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115823744"/>
+        <c:axId val="115426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2865,20 +3511,19 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115391872"/>
+        <c:crossAx val="115387776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2913,7 +3558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3058,25 +3702,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115857280"/>
-        <c:axId val="115858816"/>
+        <c:axId val="115459968"/>
+        <c:axId val="115461504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115857280"/>
+        <c:axId val="115459968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115858816"/>
+        <c:crossAx val="115461504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115858816"/>
+        <c:axId val="115461504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,20 +3729,19 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115857280"/>
+        <c:crossAx val="115459968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3319,25 +3962,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115450624"/>
-        <c:axId val="115452160"/>
+        <c:axId val="115970816"/>
+        <c:axId val="115972352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115450624"/>
+        <c:axId val="115970816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115452160"/>
+        <c:crossAx val="115972352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115452160"/>
+        <c:axId val="115972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,7 +3989,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115450624"/>
+        <c:crossAx val="115970816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3359,7 +4002,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3394,7 +4037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3471,25 +4113,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115468160"/>
-        <c:axId val="115469696"/>
+        <c:axId val="115984256"/>
+        <c:axId val="115985792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115468160"/>
+        <c:axId val="115984256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115469696"/>
+        <c:crossAx val="115985792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115469696"/>
+        <c:axId val="115985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,20 +4140,19 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115468160"/>
+        <c:crossAx val="115984256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3622,25 +4263,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116153344"/>
-        <c:axId val="116167424"/>
+        <c:axId val="116149248"/>
+        <c:axId val="116163328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116153344"/>
+        <c:axId val="116149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116167424"/>
+        <c:crossAx val="116163328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116167424"/>
+        <c:axId val="116163328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3651,7 +4292,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116153344"/>
+        <c:crossAx val="116149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3664,7 +4305,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3980,25 +4621,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116072448"/>
-        <c:axId val="116073984"/>
+        <c:axId val="116068352"/>
+        <c:axId val="116069888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116072448"/>
+        <c:axId val="116068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116073984"/>
+        <c:crossAx val="116069888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116073984"/>
+        <c:axId val="116069888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4648,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116072448"/>
+        <c:crossAx val="116068352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,7 +4671,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4065,7 +4706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4381,13 +5021,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4609,7 +5248,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K76" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K76" totalsRowShown="0" headerRowDxfId="147">
   <autoFilter ref="A4:K76">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4618,17 +5257,17 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Test name" dataDxfId="9"/>
-    <tableColumn id="14" name="Minimum" dataDxfId="8"/>
-    <tableColumn id="13" name="Maximum" dataDxfId="7"/>
-    <tableColumn id="10" name="SqlClient" dataDxfId="6"/>
-    <tableColumn id="3" name="Entity Framework" dataDxfId="5"/>
-    <tableColumn id="2" name="BLToolkit" dataDxfId="4"/>
-    <tableColumn id="4" name="Lightspeed" dataDxfId="3"/>
-    <tableColumn id="6" name="NHibernate" dataDxfId="2"/>
-    <tableColumn id="7" name="OpenAccess" dataDxfId="1"/>
+    <tableColumn id="1" name="Test name" dataDxfId="146"/>
+    <tableColumn id="14" name="Minimum" dataDxfId="145"/>
+    <tableColumn id="13" name="Maximum" dataDxfId="144"/>
+    <tableColumn id="10" name="SqlClient" dataDxfId="143"/>
+    <tableColumn id="3" name="Entity Framework" dataDxfId="142"/>
+    <tableColumn id="2" name="BLToolkit" dataDxfId="141"/>
+    <tableColumn id="4" name="Lightspeed" dataDxfId="140"/>
+    <tableColumn id="6" name="NHibernate" dataDxfId="139"/>
+    <tableColumn id="7" name="OpenAccess" dataDxfId="138"/>
     <tableColumn id="11" name="Subsonic"/>
-    <tableColumn id="8" name="Unit" dataDxfId="0"/>
+    <tableColumn id="8" name="Unit" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4922,8 +5561,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5024,7 +5663,7 @@
       <c r="C6" s="54">
         <v>5</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="70">
@@ -5059,7 +5698,7 @@
       <c r="C7" s="54">
         <v>6</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="71">
@@ -5094,7 +5733,7 @@
       <c r="C8" s="54">
         <v>6</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="71">
@@ -5129,7 +5768,7 @@
       <c r="C9" s="54">
         <v>9</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="71">
@@ -5164,7 +5803,7 @@
       <c r="C10" s="54">
         <v>12</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="71">
@@ -5199,7 +5838,7 @@
       <c r="C11" s="54">
         <v>10.199999999999999</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="71">
@@ -5234,7 +5873,7 @@
       <c r="C12" s="54">
         <v>4</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="71">
@@ -5269,7 +5908,7 @@
       <c r="C13" s="54">
         <v>8</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="71">
@@ -5304,7 +5943,7 @@
       <c r="C14" s="54">
         <v>13</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="71">
@@ -5339,7 +5978,7 @@
       <c r="C15" s="54">
         <v>4</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="71">
@@ -5374,7 +6013,7 @@
       <c r="C16" s="54">
         <v>9</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="71">
@@ -5409,7 +6048,7 @@
       <c r="C17" s="54">
         <v>21</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="71">
@@ -5444,7 +6083,7 @@
       <c r="C18" s="54">
         <v>5</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="71">
@@ -5479,7 +6118,7 @@
       <c r="C19" s="54">
         <v>5</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="71">
@@ -5571,7 +6210,7 @@
       <c r="C23" s="68">
         <v>117</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="86" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="75">
@@ -5606,7 +6245,7 @@
       <c r="C24" s="54">
         <v>117</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="71">
@@ -5641,7 +6280,7 @@
       <c r="C25" s="54">
         <v>117</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="71">
@@ -5674,9 +6313,9 @@
         <v>0</v>
       </c>
       <c r="C26" s="54">
-        <v>11</v>
-      </c>
-      <c r="D26" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="71">
@@ -5711,7 +6350,7 @@
       <c r="C27" s="45">
         <v>100</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="86" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="22">
@@ -5928,8 +6567,8 @@
         <v>0</v>
       </c>
       <c r="C39" s="44"/>
-      <c r="D39" s="45">
-        <v>18738</v>
+      <c r="D39" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="E39" s="45">
         <v>4819</v>
@@ -5959,7 +6598,7 @@
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
       <c r="G40" s="58"/>
@@ -5976,8 +6615,8 @@
         <v>0</v>
       </c>
       <c r="C41" s="44"/>
-      <c r="D41" s="45">
-        <v>10688</v>
+      <c r="D41" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="E41" s="45">
         <v>4629</v>
@@ -6009,8 +6648,8 @@
         <v>0</v>
       </c>
       <c r="C42" s="44"/>
-      <c r="D42" s="45">
-        <v>15379</v>
+      <c r="D42" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="E42" s="45">
         <v>4407</v>
@@ -6042,8 +6681,8 @@
         <v>0</v>
       </c>
       <c r="C43" s="44"/>
-      <c r="D43" s="45">
-        <v>16281</v>
+      <c r="D43" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="E43" s="45">
         <v>5916</v>
@@ -6075,8 +6714,8 @@
         <v>0</v>
       </c>
       <c r="C44" s="44"/>
-      <c r="D44" s="45">
-        <v>13635</v>
+      <c r="D44" s="51" t="s">
+        <v>94</v>
       </c>
       <c r="E44" s="45">
         <v>4902</v>
@@ -6106,7 +6745,7 @@
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="58"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
@@ -6123,8 +6762,8 @@
         <v>0</v>
       </c>
       <c r="C46" s="44"/>
-      <c r="D46" s="45">
-        <v>21779</v>
+      <c r="D46" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="E46" s="45">
         <v>6097</v>
@@ -6156,8 +6795,8 @@
         <v>0</v>
       </c>
       <c r="C47" s="44"/>
-      <c r="D47" s="45">
-        <v>64662</v>
+      <c r="D47" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="45">
         <v>5954</v>
@@ -6189,8 +6828,8 @@
         <v>0</v>
       </c>
       <c r="C48" s="44"/>
-      <c r="D48" s="45">
-        <v>24219</v>
+      <c r="D48" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="E48" s="45">
         <v>9844</v>
@@ -6222,8 +6861,8 @@
         <v>0</v>
       </c>
       <c r="C49" s="44"/>
-      <c r="D49" s="45">
-        <v>29219</v>
+      <c r="D49" s="51" t="s">
+        <v>98</v>
       </c>
       <c r="E49" s="45">
         <v>6919</v>
@@ -6281,7 +6920,7 @@
       </c>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="56"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="56"/>
       <c r="F52" s="56"/>
       <c r="G52" s="56"/>
@@ -6298,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="44"/>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="45">
@@ -6331,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="44"/>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="45">
@@ -6364,8 +7003,8 @@
         <v>0</v>
       </c>
       <c r="C55" s="44"/>
-      <c r="D55" s="45">
-        <v>15828</v>
+      <c r="D55" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="E55" s="45">
         <v>9737</v>
@@ -6395,7 +7034,7 @@
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="56"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
@@ -6412,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="44"/>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="45">
@@ -6445,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="44"/>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="45">
@@ -6478,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="44"/>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="45">
@@ -6511,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="44"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="45">
@@ -6542,7 +7181,7 @@
       </c>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
-      <c r="D61" s="56"/>
+      <c r="D61" s="82"/>
       <c r="E61" s="56"/>
       <c r="F61" s="56"/>
       <c r="G61" s="56"/>
@@ -6559,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="44"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="45">
@@ -6592,8 +7231,8 @@
         <v>0</v>
       </c>
       <c r="C63" s="68"/>
-      <c r="D63" s="67">
-        <v>1207146</v>
+      <c r="D63" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="E63" s="67">
         <v>465073</v>
@@ -6651,7 +7290,7 @@
       </c>
       <c r="B66" s="27"/>
       <c r="C66" s="57"/>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="13">
@@ -6683,7 +7322,7 @@
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="24">
@@ -6714,7 +7353,7 @@
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="57"/>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="13">
@@ -6941,9 +7580,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="98" priority="1957" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="97" priority="1958" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="96" priority="1959" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="1957" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="135" priority="1958" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="134" priority="1959" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
     <cfRule type="colorScale" priority="1955">
@@ -6966,12 +7605,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="95" priority="1434" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="94" priority="1435" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="93" priority="1436" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="1434" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="132" priority="1435" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="131" priority="1436" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="top10" dxfId="92" priority="1432" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="130" priority="1432" percent="1" rank="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
     <cfRule type="colorScale" priority="1425">
@@ -6982,9 +7621,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="91" priority="1426" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="90" priority="1427" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="89" priority="1428" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="1426" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="128" priority="1427" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="127" priority="1428" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
     <cfRule type="colorScale" priority="1412">
@@ -7022,32 +7661,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="2965">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="88" priority="2966" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="87" priority="2967" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="86" priority="2968" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70:K70">
-    <cfRule type="colorScale" priority="3238">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="85" priority="3239" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="84" priority="3240" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="83" priority="3241" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G70:K70">
     <cfRule type="colorScale" priority="3246">
       <colorScale>
@@ -7072,19 +7685,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:K69">
-    <cfRule type="colorScale" priority="3600">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="82" priority="3601" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="81" priority="3602" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="80" priority="3603" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="colorScale" priority="3822">
       <colorScale>
@@ -7097,8 +7697,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="3823">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="842">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7106,22 +7706,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="79" priority="3824" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="78" priority="3825" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="77" priority="3826" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="842">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="76" priority="843" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="75" priority="844" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="74" priority="845" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="843" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="125" priority="844" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="124" priority="845" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
     <cfRule type="colorScale" priority="841">
@@ -7144,9 +7731,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="73" priority="838" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="72" priority="839" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="71" priority="840" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="838" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="122" priority="839" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="121" priority="840" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
     <cfRule type="colorScale" priority="836">
@@ -7169,9 +7756,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="70" priority="813" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="69" priority="814" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="68" priority="815" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="813" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="119" priority="814" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="118" priority="815" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
     <cfRule type="colorScale" priority="811">
@@ -7194,9 +7781,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="67" priority="807" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="66" priority="808" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="65" priority="809" rank="1"/>
+    <cfRule type="top10" dxfId="117" priority="807" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="116" priority="808" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="115" priority="809" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
     <cfRule type="colorScale" priority="805">
@@ -7211,19 +7798,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="4733">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="64" priority="4734" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="63" priority="4735" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="62" priority="4736" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
     <cfRule type="colorScale" priority="4737">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7236,19 +7810,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="colorScale" priority="4741">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="61" priority="4742" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="60" priority="4743" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="59" priority="4744" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
     <cfRule type="colorScale" priority="4745">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7261,19 +7822,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="4746">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="58" priority="4747" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="57" priority="4748" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="56" priority="4749" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
     <cfRule type="colorScale" priority="4750">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7742,19 +8290,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:K63">
-    <cfRule type="colorScale" priority="5111">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="55" priority="5112" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="54" priority="5113" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="53" priority="5114" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K63">
     <cfRule type="colorScale" priority="5115">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7767,19 +8302,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K19 K64 K39:K49 K52:K59 K22:K30 K35">
-    <cfRule type="colorScale" priority="5173">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="52" priority="5174" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="51" priority="5175" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="50" priority="5176" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K19 K64 K39:K49 K52:K59 K22:K30 K35">
     <cfRule type="colorScale" priority="5193">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7791,32 +8313,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:K64 K6:K19 K39:K49 K52:K59 K22:K30 K35">
-    <cfRule type="colorScale" priority="5199">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="49" priority="5200" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="48" priority="5201" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="47" priority="5202" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K64 K22:K30 K35">
-    <cfRule type="colorScale" priority="5243">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="46" priority="5244" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="45" priority="5245" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="44" priority="5246" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K64 K22:K30 K35">
     <cfRule type="colorScale" priority="5263">
       <colorScale>
@@ -7829,19 +8325,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K61:K64 K22:K30 K35">
-    <cfRule type="colorScale" priority="5268">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="43" priority="5269" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="42" priority="5270" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="41" priority="5271" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B63:J63">
     <cfRule type="colorScale" priority="92">
       <colorScale>
@@ -7959,9 +8442,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="40" priority="47" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="39" priority="48" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="38" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="47" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="113" priority="48" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="112" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="42">
@@ -7972,9 +8455,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="37" priority="43" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="36" priority="44" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="35" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="43" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="110" priority="44" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="109" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:K29">
     <cfRule type="colorScale" priority="38">
@@ -7985,9 +8468,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="34" priority="39" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="33" priority="40" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="32" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="39" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="107" priority="40" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="106" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:K29">
     <cfRule type="colorScale" priority="37">
@@ -8022,9 +8505,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="31" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="30" priority="34" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="29" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="105" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="104" priority="34" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="103" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="28">
@@ -8035,9 +8518,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="27" priority="30" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="26" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="29" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="101" priority="30" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="100" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="27">
@@ -8060,9 +8543,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="25" priority="24" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="24" priority="25" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="23" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="24" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="98" priority="25" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="97" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="22">
@@ -8085,9 +8568,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="22" priority="19" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="21" priority="20" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="96" priority="19" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="95" priority="20" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="94" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
     <cfRule type="colorScale" priority="17">
@@ -8110,9 +8593,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="14" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="18" priority="15" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="17" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="14" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="92" priority="15" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="91" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G29">
     <cfRule type="colorScale" priority="12">
@@ -8135,9 +8618,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="16" priority="9" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="14" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="9" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="89" priority="10" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="88" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="7">
@@ -8174,19 +8657,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:K30">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="13" priority="2" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="12" priority="3" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="11" priority="4" rank="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K59" r:id="rId1" display="Description"/>
@@ -8198,6 +8668,9 @@
     <brk id="77" max="16383" man="1"/>
     <brk id="136" max="16383" man="1"/>
   </rowBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="D39:D63" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>

--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -1089,7 +1089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1131,7 +1131,6 @@
     <xf numFmtId="3" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="37" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1216,7 +1215,6 @@
     <xf numFmtId="3" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="45" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1307,474 +1305,212 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="60">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -2364,800 +2100,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3483,25 +2425,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115387776"/>
-        <c:axId val="115426432"/>
+        <c:axId val="115910912"/>
+        <c:axId val="115920896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115387776"/>
+        <c:axId val="115910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115426432"/>
+        <c:crossAx val="115920896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115426432"/>
+        <c:axId val="115920896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3511,7 +2453,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115387776"/>
+        <c:crossAx val="115910912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,7 +2465,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3702,25 +2644,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115459968"/>
-        <c:axId val="115461504"/>
+        <c:axId val="115491584"/>
+        <c:axId val="115493120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115459968"/>
+        <c:axId val="115491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115461504"/>
+        <c:crossAx val="115493120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115461504"/>
+        <c:axId val="115493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +2671,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115459968"/>
+        <c:crossAx val="115491584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,7 +2683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3775,7 +2717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3962,25 +2903,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115970816"/>
-        <c:axId val="115972352"/>
+        <c:axId val="115522944"/>
+        <c:axId val="116069504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115970816"/>
+        <c:axId val="115522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115972352"/>
+        <c:crossAx val="116069504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115972352"/>
+        <c:axId val="116069504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3989,20 +2930,19 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115970816"/>
+        <c:crossAx val="115522944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4113,25 +3053,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115984256"/>
-        <c:axId val="115985792"/>
+        <c:axId val="116078080"/>
+        <c:axId val="116091136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115984256"/>
+        <c:axId val="116078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115985792"/>
+        <c:crossAx val="116091136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115985792"/>
+        <c:axId val="116091136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +3080,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115984256"/>
+        <c:crossAx val="116078080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,7 +3092,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4263,25 +3203,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116149248"/>
-        <c:axId val="116163328"/>
+        <c:axId val="116115328"/>
+        <c:axId val="116116864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116149248"/>
+        <c:axId val="116115328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116163328"/>
+        <c:crossAx val="116116864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116163328"/>
+        <c:axId val="116116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4292,7 +3232,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116149248"/>
+        <c:crossAx val="116115328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4305,7 +3245,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4340,7 +3280,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4621,25 +3560,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116068352"/>
-        <c:axId val="116069888"/>
+        <c:axId val="116234880"/>
+        <c:axId val="116240768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116068352"/>
+        <c:axId val="116234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116069888"/>
+        <c:crossAx val="116240768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116069888"/>
+        <c:axId val="116240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4648,14 +3587,13 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116068352"/>
+        <c:crossAx val="116234880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4671,7 +3609,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4986,25 +3924,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116107904"/>
-        <c:axId val="116195712"/>
+        <c:axId val="116340224"/>
+        <c:axId val="116341760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116107904"/>
+        <c:axId val="116340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116195712"/>
+        <c:crossAx val="116341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116195712"/>
+        <c:axId val="116341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5014,7 +3952,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116107904"/>
+        <c:crossAx val="116340224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5026,7 +3964,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5248,7 +4186,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K76" totalsRowShown="0" headerRowDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K76" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A4:K76">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -5257,17 +4195,17 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Test name" dataDxfId="146"/>
-    <tableColumn id="14" name="Minimum" dataDxfId="145"/>
-    <tableColumn id="13" name="Maximum" dataDxfId="144"/>
-    <tableColumn id="10" name="SqlClient" dataDxfId="143"/>
-    <tableColumn id="3" name="Entity Framework" dataDxfId="142"/>
-    <tableColumn id="2" name="BLToolkit" dataDxfId="141"/>
-    <tableColumn id="4" name="Lightspeed" dataDxfId="140"/>
-    <tableColumn id="6" name="NHibernate" dataDxfId="139"/>
-    <tableColumn id="7" name="OpenAccess" dataDxfId="138"/>
+    <tableColumn id="1" name="Test name" dataDxfId="9"/>
+    <tableColumn id="14" name="Minimum" dataDxfId="8"/>
+    <tableColumn id="13" name="Maximum" dataDxfId="7"/>
+    <tableColumn id="10" name="SqlClient" dataDxfId="6"/>
+    <tableColumn id="3" name="Entity Framework" dataDxfId="5"/>
+    <tableColumn id="2" name="BLToolkit" dataDxfId="4"/>
+    <tableColumn id="4" name="Lightspeed" dataDxfId="3"/>
+    <tableColumn id="6" name="NHibernate" dataDxfId="2"/>
+    <tableColumn id="7" name="OpenAccess" dataDxfId="1"/>
     <tableColumn id="11" name="Subsonic"/>
-    <tableColumn id="8" name="Unit" dataDxfId="137"/>
+    <tableColumn id="8" name="Unit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5561,18 +4499,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="3" width="4.7109375" style="35" customWidth="1"/>
+    <col min="2" max="3" width="4.7109375" style="34" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
     <col min="6" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="34" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5589,17 +4527,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5646,736 +4584,736 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" s="35" customFormat="1">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" s="34" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>0</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>5</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <v>0</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="53">
         <v>3</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="53">
         <v>3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="53">
         <v>1</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="35" customFormat="1">
+    <row r="7" spans="1:11" s="34" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>0</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>6</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="69">
         <v>3</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="53">
         <v>6</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="53">
         <v>4.2</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="53">
         <v>4</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="35" customFormat="1">
+    <row r="8" spans="1:11" s="34" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>0</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>6</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="69">
         <v>1</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>6</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>6</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="53">
         <v>6</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="35" customFormat="1">
+    <row r="9" spans="1:11" s="34" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>0</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>9</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="69">
         <v>4</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="53">
         <v>6</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>6</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="53">
         <v>5</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="35" customFormat="1">
+    <row r="10" spans="1:11" s="34" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>0</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>12</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="69">
         <v>4.2</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>5.5</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="53">
         <v>6.1</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="53">
         <v>2</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="35" customFormat="1">
+    <row r="11" spans="1:11" s="34" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <v>0</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="53">
         <v>10.199999999999999</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="69">
         <v>1</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="53">
         <v>10</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="53">
         <v>10.199999999999999</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="53">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="35" customFormat="1">
+    <row r="12" spans="1:11" s="34" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <v>0</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <v>4</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="69">
         <v>1</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="53">
         <v>4</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="53">
         <v>4</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="53">
         <v>4</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="35" customFormat="1">
+    <row r="13" spans="1:11" s="34" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>0</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="53">
         <v>8</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="69">
         <v>3.2</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="53">
         <v>6</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="53">
         <v>6</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="35" customFormat="1">
+    <row r="14" spans="1:11" s="34" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>0</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <v>13</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="69">
         <v>2</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <v>6.1</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="53">
         <v>8.1</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="35" customFormat="1">
+    <row r="15" spans="1:11" s="34" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="53">
         <v>0</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="53">
         <v>4</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="69">
         <v>0</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="53">
         <v>4</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="53">
         <v>3</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="53">
         <v>2</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="35" customFormat="1">
+    <row r="16" spans="1:11" s="34" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>0</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="53">
         <v>9</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="69">
         <v>0</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="53">
         <v>6.2</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="53">
         <v>9</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="35" customFormat="1">
+    <row r="17" spans="1:11" s="34" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="53">
         <v>0</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>21</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="69">
         <v>9</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="53">
         <v>8</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="53">
         <v>16</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="53">
         <v>11</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="35" customFormat="1">
+    <row r="18" spans="1:11" s="34" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <v>0</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="53">
         <v>5</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="69">
         <v>1</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="53">
         <v>2.1</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="53">
         <v>2.1</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="53">
         <v>2</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="35" customFormat="1">
+    <row r="19" spans="1:11" s="34" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <v>0</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="53">
         <v>5</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="69">
         <v>1</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="53">
         <v>3.1</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>4</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="53">
         <v>2</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="35" customFormat="1">
+    <row r="20" spans="1:11" s="34" customFormat="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="1:11" s="35" customFormat="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" s="34" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22" spans="1:11" s="35" customFormat="1">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" s="34" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="59">
         <v>0</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="60">
         <v>117</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="74">
+      <c r="D22" s="61"/>
+      <c r="E22" s="72">
         <v>117</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="60">
+      <c r="F22" s="61"/>
+      <c r="G22" s="59">
         <v>117</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="59">
         <v>117</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="59">
         <v>117</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="48" t="s">
+      <c r="J22" s="60"/>
+      <c r="K22" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="35" customFormat="1">
+    <row r="23" spans="1:11" s="34" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="66">
         <v>0</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="66">
         <v>117</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="73">
         <v>87</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="66">
         <v>41</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="66">
         <v>35</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="66">
         <v>50</v>
       </c>
-      <c r="J23" s="67" t="s">
+      <c r="J23" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="35" customFormat="1">
+    <row r="24" spans="1:11" s="34" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="53">
         <v>0</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="53">
         <v>117</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="69">
         <v>30</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="53">
         <v>76</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <v>82</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="53">
         <v>67</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="35" customFormat="1">
+    <row r="25" spans="1:11" s="34" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="53">
         <v>0</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="53">
         <v>117</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="69">
         <v>26</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="53">
         <v>65</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="53">
         <v>73</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="53">
         <v>66</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="35" customFormat="1">
+    <row r="26" spans="1:11" s="34" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="53">
         <v>0</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="53">
         <v>15</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="69">
         <v>4</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="53">
         <v>11</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="53">
         <v>9</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="53">
         <v>1</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="35" customFormat="1">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:11" s="34" customFormat="1">
+      <c r="A27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="43">
         <v>0</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="44">
         <v>100</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="22">
         <v>74.400000000000006</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="43">
         <v>35</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="43">
         <v>29.9</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="43">
         <v>42.7</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="35" customFormat="1">
+    <row r="28" spans="1:11" s="34" customFormat="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6388,26 +5326,26 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="35" customFormat="1">
+    <row r="29" spans="1:11" s="34" customFormat="1">
       <c r="A29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="43" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="37" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="35" customFormat="1">
+    <row r="30" spans="1:11" s="34" customFormat="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6420,7 +5358,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="35" customFormat="1">
+    <row r="31" spans="1:11" s="34" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -6435,116 +5373,116 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="35" customFormat="1">
+    <row r="32" spans="1:11" s="34" customFormat="1">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="K32" s="46"/>
-    </row>
-    <row r="33" spans="1:11" s="35" customFormat="1">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="1:11" s="34" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="K33" s="46"/>
-    </row>
-    <row r="34" spans="1:11" s="35" customFormat="1">
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" s="34" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="K34" s="46"/>
-    </row>
-    <row r="35" spans="1:11" s="35" customFormat="1">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" s="34" customFormat="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" s="39" customFormat="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="40" t="s">
+    <row r="36" spans="1:11" s="38" customFormat="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="35" customFormat="1" ht="87.75">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:11" s="34" customFormat="1" ht="87.75">
+      <c r="A37" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="79" t="s">
+      <c r="H37" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="79" t="s">
+      <c r="I37" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="79" t="s">
+      <c r="J37" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="35" customFormat="1">
+    <row r="38" spans="1:11" s="34" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>47</v>
       </c>
@@ -6559,347 +5497,347 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="35" customFormat="1">
+    <row r="39" spans="1:11" s="34" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>0</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="44">
         <v>4819</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="44">
         <v>15478</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="44">
         <v>10717</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="44">
         <v>7358</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="44">
         <v>6512</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="44">
         <v>8949</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="35" customFormat="1">
+    <row r="40" spans="1:11" s="34" customFormat="1">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" s="35" customFormat="1">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="47"/>
+    </row>
+    <row r="41" spans="1:11" s="34" customFormat="1">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="43">
         <v>0</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="44">
         <v>4629</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="44">
         <v>9590</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="44">
         <v>5063</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="44">
         <v>3695</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="44">
         <v>9923</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="44">
         <v>2920</v>
       </c>
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="35" customFormat="1">
+    <row r="42" spans="1:11" s="34" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>0</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="51" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="44">
         <v>4407</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="44">
         <v>13207</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="44">
         <v>4968</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="44">
         <v>898</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="44">
         <v>9189</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="44">
         <v>4047</v>
       </c>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="35" customFormat="1">
+    <row r="43" spans="1:11" s="34" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>0</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="51" t="s">
+      <c r="C43" s="43"/>
+      <c r="D43" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="44">
         <v>5916</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="44">
         <v>14104</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="44">
         <v>4823</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="44">
         <v>1473</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="44">
         <v>10946</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="44">
         <v>4315</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="35" customFormat="1">
+    <row r="44" spans="1:11" s="34" customFormat="1">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>0</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="51" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="44">
         <v>4902</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="44">
         <v>11957</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="44">
         <v>4949</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="44">
         <v>1454</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="44">
         <v>9968</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="44">
         <v>3652</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="35" customFormat="1">
+    <row r="45" spans="1:11" s="34" customFormat="1">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="1:11" s="35" customFormat="1">
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="47"/>
+    </row>
+    <row r="46" spans="1:11" s="34" customFormat="1">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>0</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="44">
         <v>6097</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="44">
         <v>22605</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="44">
         <v>12600</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="44">
         <v>12433</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="44">
         <v>15898</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="44">
         <v>2699</v>
       </c>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="35" customFormat="1">
+    <row r="47" spans="1:11" s="34" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>0</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="51" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="44">
         <v>5954</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="44">
         <v>63917</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="44">
         <v>28472</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="44">
         <v>16890</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="44">
         <v>15140</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="44">
         <v>4055</v>
       </c>
-      <c r="K47" s="48" t="s">
+      <c r="K47" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="35" customFormat="1">
+    <row r="48" spans="1:11" s="34" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>0</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="44">
         <v>9844</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="44">
         <v>78010</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="44">
         <v>26553</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="44">
         <v>17837</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="44">
         <v>60533</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="44">
         <v>4433</v>
       </c>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="35" customFormat="1">
+    <row r="49" spans="1:11" s="34" customFormat="1">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>0</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="51" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="44">
         <v>6919</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="44">
         <v>41264</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="44">
         <v>19717</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="44">
         <v>15329</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="44">
         <v>20622</v>
       </c>
-      <c r="J49" s="45">
+      <c r="J49" s="44">
         <v>3559</v>
       </c>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="35" customFormat="1">
+    <row r="50" spans="1:11" s="34" customFormat="1">
       <c r="A50" s="5"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" s="35" customFormat="1">
+    <row r="51" spans="1:11" s="34" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
@@ -6914,198 +5852,198 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="35" customFormat="1">
+    <row r="52" spans="1:11" s="34" customFormat="1">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="1:11" s="35" customFormat="1">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="1:11" s="34" customFormat="1">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <v>0</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="51" t="s">
+      <c r="C53" s="43"/>
+      <c r="D53" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="44">
         <v>457</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="44">
         <v>9021</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="44">
         <v>1321</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="44">
         <v>1170</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I53" s="44">
         <v>4164</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="44">
         <v>353</v>
       </c>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="35" customFormat="1">
+    <row r="54" spans="1:11" s="34" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="43">
         <v>0</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="51" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="44">
         <v>5750</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="45" t="s">
+      <c r="G54" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="44">
         <v>4278</v>
       </c>
-      <c r="J54" s="45" t="s">
+      <c r="J54" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="35" customFormat="1">
+    <row r="55" spans="1:11" s="34" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="43">
         <v>0</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="51" t="s">
+      <c r="C55" s="43"/>
+      <c r="D55" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="44">
         <v>9737</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="44">
         <v>17139</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="44">
         <v>10397</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="44">
         <v>5534</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="44">
         <v>6383</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="44">
         <v>7320</v>
       </c>
-      <c r="K55" s="48" t="s">
+      <c r="K55" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="35" customFormat="1">
+    <row r="56" spans="1:11" s="34" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="57" spans="1:11" s="35" customFormat="1">
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="47"/>
+    </row>
+    <row r="57" spans="1:11" s="34" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="43">
         <v>0</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="51" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="44">
         <v>4470</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="44">
         <v>6912</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="44">
         <v>1135</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="44">
         <v>921</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="44">
         <v>3312</v>
       </c>
-      <c r="J57" s="45">
+      <c r="J57" s="44">
         <v>326</v>
       </c>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="35" customFormat="1">
+    <row r="58" spans="1:11" s="34" customFormat="1">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="43">
         <v>0</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="51" t="s">
+      <c r="C58" s="43"/>
+      <c r="D58" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="44">
         <v>3741</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="44">
         <v>6335</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="44">
         <v>1179</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="44">
         <v>733</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="44">
         <v>2839</v>
       </c>
-      <c r="J58" s="45">
+      <c r="J58" s="44">
         <v>302</v>
       </c>
-      <c r="K58" s="48" t="s">
+      <c r="K58" s="47" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7113,32 +6051,32 @@
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="43">
         <v>0</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="51" t="s">
+      <c r="C59" s="43"/>
+      <c r="D59" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="44">
         <v>2445</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="44">
         <v>5046</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="44">
         <v>1075</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="44">
         <v>553</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="44">
         <v>2025</v>
       </c>
-      <c r="J59" s="45">
+      <c r="J59" s="44">
         <v>266</v>
       </c>
-      <c r="K59" s="48" t="s">
+      <c r="K59" s="47" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7146,32 +6084,32 @@
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="43">
         <v>0</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="51" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="44">
         <v>1577</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="44">
         <v>3796</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="44">
         <v>921</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="44">
         <v>363</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="44">
         <v>1400</v>
       </c>
-      <c r="J60" s="45">
+      <c r="J60" s="44">
         <v>212</v>
       </c>
-      <c r="K60" s="48" t="s">
+      <c r="K60" s="47" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7179,47 +6117,47 @@
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="43">
         <v>0</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="51" t="s">
+      <c r="C62" s="43"/>
+      <c r="D62" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="44">
         <v>254939</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="44">
         <v>480122</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="44">
         <v>369467</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="44">
         <v>40131</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="44">
         <v>188068</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="44">
         <v>48628</v>
       </c>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="47" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7227,56 +6165,56 @@
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="68">
+      <c r="B63" s="66">
         <v>0</v>
       </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="83" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="65">
         <v>465073</v>
       </c>
-      <c r="F63" s="67">
+      <c r="F63" s="65">
         <v>751879</v>
       </c>
-      <c r="G63" s="67">
+      <c r="G63" s="65">
         <v>422332</v>
       </c>
-      <c r="H63" s="67">
+      <c r="H63" s="65">
         <v>53329</v>
       </c>
-      <c r="I63" s="67">
+      <c r="I63" s="65">
         <v>234329</v>
       </c>
-      <c r="J63" s="67">
+      <c r="J63" s="65">
         <v>57411</v>
       </c>
-      <c r="K63" s="48" t="s">
+      <c r="K63" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="23"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="22"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="42"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -7288,9 +6226,9 @@
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="84" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="82" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="13">
@@ -7320,30 +6258,30 @@
       <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="84" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="23">
         <v>0</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="23">
         <v>126449</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="23">
         <v>32121</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="23">
         <v>0</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="23">
         <v>0</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J67" s="24">
         <v>124093</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K67" s="24">
         <v>124093</v>
       </c>
     </row>
@@ -7351,9 +6289,9 @@
       <c r="A68" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="84" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="82" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="13">
@@ -7395,22 +6333,22 @@
       <c r="A70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="43" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="37" t="s">
+      <c r="G70" s="35"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="35" customFormat="1">
+    <row r="71" spans="1:11" s="34" customFormat="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -7438,84 +6376,84 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="35" customFormat="1">
+    <row r="73" spans="1:11" s="34" customFormat="1">
       <c r="A73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="K73" s="46"/>
-    </row>
-    <row r="74" spans="1:11" s="35" customFormat="1">
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="1:11" s="34" customFormat="1">
       <c r="A74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="K74" s="46"/>
-    </row>
-    <row r="75" spans="1:11" s="35" customFormat="1">
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="K74" s="45"/>
+    </row>
+    <row r="75" spans="1:11" s="34" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="K75" s="46"/>
-    </row>
-    <row r="76" spans="1:11" s="35" customFormat="1">
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="K75" s="45"/>
+    </row>
+    <row r="76" spans="1:11" s="34" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="76"/>
-    </row>
-    <row r="77" spans="1:11" s="32" customFormat="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="E77" s="39"/>
-      <c r="J77" s="39"/>
-    </row>
-    <row r="78" spans="1:11" s="39" customFormat="1">
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="74"/>
+    </row>
+    <row r="77" spans="1:11" s="31" customFormat="1">
+      <c r="A77" s="30"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="J77" s="38"/>
+    </row>
+    <row r="78" spans="1:11" s="38" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="2" t="s">
@@ -7548,7 +6486,7 @@
       <c r="E115" s="2"/>
       <c r="J115"/>
     </row>
-    <row r="136" spans="1:10" s="35" customFormat="1"/>
+    <row r="136" spans="1:10" s="34" customFormat="1"/>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
         <v>9</v>
@@ -7580,12 +6518,41 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="136" priority="1957" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="135" priority="1958" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="134" priority="1959" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="colorScale" priority="1955">
+    <cfRule type="top10" dxfId="59" priority="1957" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="58" priority="1958" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="57" priority="1959" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="colorScale" priority="1433">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="56" priority="1434" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="55" priority="1435" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="54" priority="1436" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="top10" dxfId="53" priority="1432" percent="1" rank="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="colorScale" priority="1425">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="52" priority="1426" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="51" priority="1427" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="50" priority="1428" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="colorScale" priority="1412">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7596,37 +6563,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1433">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="133" priority="1434" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="132" priority="1435" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="131" priority="1436" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="top10" dxfId="130" priority="1432" percent="1" rank="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1425">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="129" priority="1426" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="128" priority="1427" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="127" priority="1428" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1412">
+    <cfRule type="colorScale" priority="1411">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7637,8 +6575,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1411">
+  <conditionalFormatting sqref="K62">
+    <cfRule type="colorScale" priority="1401">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7649,8 +6587,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="colorScale" priority="1401">
+  <conditionalFormatting sqref="G70:K70">
+    <cfRule type="colorScale" priority="3246">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7661,8 +6599,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:K70">
-    <cfRule type="colorScale" priority="3246">
+  <conditionalFormatting sqref="F69:K69">
+    <cfRule type="colorScale" priority="3598">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7673,8 +6611,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:K69">
-    <cfRule type="colorScale" priority="3598">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="3822">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7685,8 +6623,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="3822">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="842">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="49" priority="843" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="48" priority="844" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="47" priority="845" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="841">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7697,8 +6648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="842">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="colorScale" priority="837">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7706,12 +6657,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="126" priority="843" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="125" priority="844" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="124" priority="845" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="841">
+    <cfRule type="top10" dxfId="46" priority="838" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="45" priority="839" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="44" priority="840" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="colorScale" priority="836">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7722,8 +6673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="837">
+  <conditionalFormatting sqref="C65">
+    <cfRule type="colorScale" priority="812">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7731,12 +6682,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="123" priority="838" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="122" priority="839" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="121" priority="840" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="836">
+    <cfRule type="top10" dxfId="43" priority="813" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="42" priority="814" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="41" priority="815" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="colorScale" priority="811">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7747,8 +6698,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="812">
+  <conditionalFormatting sqref="C70">
+    <cfRule type="colorScale" priority="806">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7756,12 +6707,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="120" priority="813" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="119" priority="814" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="118" priority="815" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="811">
+    <cfRule type="top10" dxfId="40" priority="807" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="39" priority="808" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="38" priority="809" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="colorScale" priority="805">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7772,21 +6723,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="806">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="117" priority="807" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="116" priority="808" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="115" priority="809" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="805">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="colorScale" priority="4737">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7797,8 +6735,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="4737">
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="colorScale" priority="4745">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7809,8 +6747,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
-    <cfRule type="colorScale" priority="4745">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="colorScale" priority="4750">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7821,8 +6759,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="4750">
+  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K22:K30 K35">
+    <cfRule type="colorScale" priority="5088">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7833,8 +6771,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K22:K30 K35">
-    <cfRule type="colorScale" priority="5088">
+  <conditionalFormatting sqref="K52:K59">
+    <cfRule type="colorScale" priority="5093">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7845,8 +6783,200 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59">
-    <cfRule type="colorScale" priority="5093">
+  <conditionalFormatting sqref="B18:J18">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:J19">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:J25">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:J26">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:J6">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:J7">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:J8">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:J9">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:J10">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:J11">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:J12">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:J13">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:J14">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:J15">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:J16">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:J17">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:J23">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7857,8 +6987,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:J18">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="B24:J24">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7869,188 +6999,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:J19">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:J25">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:J26">
+  <conditionalFormatting sqref="B27:J27">
     <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:J6">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:J7">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:J8">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:J11">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:J12">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:J13">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:J14">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J15">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:J16">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:J17">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:J23">
-    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8061,20 +7011,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:J24">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:J27">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="B39:J39">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8085,8 +7023,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:J39">
-    <cfRule type="colorScale" priority="115">
+  <conditionalFormatting sqref="B41:J41">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8097,8 +7035,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:J41">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="B42:J42">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8109,8 +7047,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:J42">
-    <cfRule type="colorScale" priority="118">
+  <conditionalFormatting sqref="B43:J43">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8121,8 +7059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:J43">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="B44:J44">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8133,8 +7071,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:J44">
-    <cfRule type="colorScale" priority="120">
+  <conditionalFormatting sqref="B46:J46">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8145,8 +7083,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:J46">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="B47:J47">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8157,8 +7095,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:J47">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="B48:J48">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8169,8 +7107,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:J48">
-    <cfRule type="colorScale" priority="124">
+  <conditionalFormatting sqref="B49:J49">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8181,8 +7119,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:J49">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="B53:J53">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8193,7 +7131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:J53">
+  <conditionalFormatting sqref="B54:J54">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8205,7 +7143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:J54">
+  <conditionalFormatting sqref="B55:J55">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8217,7 +7155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:J55">
+  <conditionalFormatting sqref="B57:J57">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8229,7 +7167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:J57">
+  <conditionalFormatting sqref="B58:J58">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8241,7 +7179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:J58">
+  <conditionalFormatting sqref="B59:J59">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8253,7 +7191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:J59">
+  <conditionalFormatting sqref="B60:J60">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8265,7 +7203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:J60">
+  <conditionalFormatting sqref="B62:J62">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -8277,8 +7215,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:J62">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="K62:K63">
+    <cfRule type="colorScale" priority="5115">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8289,8 +7227,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K63">
-    <cfRule type="colorScale" priority="5115">
+  <conditionalFormatting sqref="K6:K19 K35 K39:K49 K52:K59 K22:K30">
+    <cfRule type="colorScale" priority="5193">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8301,8 +7239,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K19 K64 K39:K49 K52:K59 K22:K30 K35">
-    <cfRule type="colorScale" priority="5193">
+  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K35 K22:K30">
+    <cfRule type="colorScale" priority="5263">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8313,8 +7251,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K64 K22:K30 K35">
-    <cfRule type="colorScale" priority="5263">
+  <conditionalFormatting sqref="B63:J63">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8325,8 +7263,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:J63">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8337,8 +7275,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="colorScale" priority="261">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8349,8 +7287,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="colorScale" priority="260">
+  <conditionalFormatting sqref="D68">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8361,8 +7299,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="colorScale" priority="259">
+  <conditionalFormatting sqref="C66">
+    <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8373,8 +7311,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="258">
+  <conditionalFormatting sqref="C67">
+    <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8385,8 +7323,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="257">
+  <conditionalFormatting sqref="C68">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8397,8 +7335,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="256">
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="5294">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8409,8 +7347,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="5294">
+  <conditionalFormatting sqref="F71:K71">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8422,7 +7360,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="37" priority="47" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="36" priority="48" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="35" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="34" priority="43" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="33" priority="44" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="32" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:K29">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="31" priority="39" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="30" priority="40" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="29" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:K29">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8433,47 +7410,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="114" priority="47" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="113" priority="48" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="112" priority="49" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="111" priority="43" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="110" priority="44" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="109" priority="45" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="108" priority="39" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="107" priority="40" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="106" priority="41" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="F28:K28">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8485,7 +7423,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="28" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="27" priority="34" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="26" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="25" priority="29" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="24" priority="30" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="23" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8496,8 +7460,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8505,25 +7469,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="105" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="104" priority="34" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="103" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="102" priority="29" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="101" priority="30" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="100" priority="31" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="top10" dxfId="22" priority="24" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="21" priority="25" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="20" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8534,8 +7485,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8543,12 +7494,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="99" priority="24" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="98" priority="25" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="97" priority="26" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="top10" dxfId="19" priority="19" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="18" priority="20" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="17" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8559,8 +7510,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="E29:G29">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8568,12 +7519,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="96" priority="19" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="95" priority="20" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="94" priority="21" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="top10" dxfId="16" priority="14" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="15" priority="15" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:G29">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8584,8 +7535,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8593,34 +7544,9 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="93" priority="14" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="92" priority="15" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="91" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="90" priority="9" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="89" priority="10" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="88" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="9" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="12" priority="10" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="11" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="7">

--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
   <si>
     <t>SqlClient</t>
   </si>
@@ -1089,7 +1089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,9 +1209,6 @@
     <xf numFmtId="49" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1230,7 +1227,6 @@
     <xf numFmtId="49" fontId="13" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2425,25 +2421,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115910912"/>
-        <c:axId val="115920896"/>
+        <c:axId val="115882240"/>
+        <c:axId val="115912704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115910912"/>
+        <c:axId val="115882240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115920896"/>
+        <c:crossAx val="115912704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115920896"/>
+        <c:axId val="115912704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2453,7 +2449,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115910912"/>
+        <c:crossAx val="115882240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2465,7 +2461,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2644,25 +2640,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115491584"/>
-        <c:axId val="115493120"/>
+        <c:axId val="116077312"/>
+        <c:axId val="116078848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115491584"/>
+        <c:axId val="116077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115493120"/>
+        <c:crossAx val="116078848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115493120"/>
+        <c:axId val="116078848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2667,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115491584"/>
+        <c:crossAx val="116077312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2683,7 +2679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2903,25 +2899,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115522944"/>
-        <c:axId val="116069504"/>
+        <c:axId val="116100480"/>
+        <c:axId val="116126848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115522944"/>
+        <c:axId val="116100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116069504"/>
+        <c:crossAx val="116126848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116069504"/>
+        <c:axId val="116126848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2926,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115522944"/>
+        <c:crossAx val="116100480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2942,7 +2938,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3053,25 +3049,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116078080"/>
-        <c:axId val="116091136"/>
+        <c:axId val="115480064"/>
+        <c:axId val="115493120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116078080"/>
+        <c:axId val="115480064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116091136"/>
+        <c:crossAx val="115493120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116091136"/>
+        <c:axId val="115493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3076,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116078080"/>
+        <c:crossAx val="115480064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3092,7 +3088,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3203,25 +3199,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116115328"/>
-        <c:axId val="116116864"/>
+        <c:axId val="115513216"/>
+        <c:axId val="115514752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116115328"/>
+        <c:axId val="115513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116116864"/>
+        <c:crossAx val="115514752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116116864"/>
+        <c:axId val="115514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3232,7 +3228,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116115328"/>
+        <c:crossAx val="115513216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,7 +3241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3560,25 +3556,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116234880"/>
-        <c:axId val="116240768"/>
+        <c:axId val="116226688"/>
+        <c:axId val="116232576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116234880"/>
+        <c:axId val="116226688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116240768"/>
+        <c:crossAx val="116232576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116240768"/>
+        <c:axId val="116232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3583,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116234880"/>
+        <c:crossAx val="116226688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,7 +3605,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3924,25 +3920,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116340224"/>
-        <c:axId val="116341760"/>
+        <c:axId val="116262400"/>
+        <c:axId val="116263936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116340224"/>
+        <c:axId val="116262400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116341760"/>
+        <c:crossAx val="116263936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116341760"/>
+        <c:axId val="116263936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3952,7 +3948,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116340224"/>
+        <c:crossAx val="116262400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3964,7 +3960,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4497,10 +4493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4601,13 +4597,13 @@
       <c r="C6" s="53">
         <v>5</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="65">
         <v>0</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="53">
@@ -4619,7 +4615,7 @@
       <c r="I6" s="53">
         <v>1</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="47" t="s">
@@ -4636,13 +4632,13 @@
       <c r="C7" s="53">
         <v>6</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="66">
         <v>3</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="53">
@@ -4654,7 +4650,7 @@
       <c r="I7" s="53">
         <v>4</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="47" t="s">
@@ -4671,13 +4667,13 @@
       <c r="C8" s="53">
         <v>6</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="66">
         <v>1</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="53">
@@ -4689,7 +4685,7 @@
       <c r="I8" s="53">
         <v>6</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="47" t="s">
@@ -4706,13 +4702,13 @@
       <c r="C9" s="53">
         <v>9</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="66">
         <v>4</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="53">
@@ -4724,7 +4720,7 @@
       <c r="I9" s="53">
         <v>5</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="47" t="s">
@@ -4741,13 +4737,13 @@
       <c r="C10" s="53">
         <v>12</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>4.2</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="53">
@@ -4759,7 +4755,7 @@
       <c r="I10" s="53">
         <v>2</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="47" t="s">
@@ -4776,13 +4772,13 @@
       <c r="C11" s="53">
         <v>10.199999999999999</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="66">
         <v>1</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="53">
@@ -4794,7 +4790,7 @@
       <c r="I11" s="53">
         <v>5</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="47" t="s">
@@ -4811,13 +4807,13 @@
       <c r="C12" s="53">
         <v>4</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="66">
         <v>1</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="53">
@@ -4829,7 +4825,7 @@
       <c r="I12" s="53">
         <v>4</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="47" t="s">
@@ -4846,13 +4842,13 @@
       <c r="C13" s="53">
         <v>8</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="66">
         <v>3.2</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="53">
@@ -4864,7 +4860,7 @@
       <c r="I13" s="53">
         <v>6</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="47" t="s">
@@ -4881,13 +4877,13 @@
       <c r="C14" s="53">
         <v>13</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="66">
         <v>2</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="53">
@@ -4899,7 +4895,7 @@
       <c r="I14" s="53">
         <v>8.1</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="47" t="s">
@@ -4916,13 +4912,13 @@
       <c r="C15" s="53">
         <v>4</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="66">
         <v>0</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="53">
@@ -4934,7 +4930,7 @@
       <c r="I15" s="53">
         <v>2</v>
       </c>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="47" t="s">
@@ -4951,13 +4947,13 @@
       <c r="C16" s="53">
         <v>9</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="66">
         <v>0</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="53">
@@ -4969,7 +4965,7 @@
       <c r="I16" s="53">
         <v>9</v>
       </c>
-      <c r="J16" s="67" t="s">
+      <c r="J16" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="47" t="s">
@@ -4986,13 +4982,13 @@
       <c r="C17" s="53">
         <v>21</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="66">
         <v>9</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="53">
@@ -5004,7 +5000,7 @@
       <c r="I17" s="53">
         <v>11</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="47" t="s">
@@ -5021,13 +5017,13 @@
       <c r="C18" s="53">
         <v>5</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="66">
         <v>1</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="53">
@@ -5039,7 +5035,7 @@
       <c r="I18" s="53">
         <v>2</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="47" t="s">
@@ -5056,13 +5052,13 @@
       <c r="C19" s="53">
         <v>5</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="66">
         <v>1</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="53">
@@ -5074,7 +5070,7 @@
       <c r="I19" s="53">
         <v>2</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="47" t="s">
@@ -5086,7 +5082,7 @@
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
-      <c r="E20" s="70"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -5101,7 +5097,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -5113,27 +5109,33 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="63">
         <v>0</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="63">
         <v>117</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="72">
+      <c r="D22" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="69">
         <v>117</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="59">
+      <c r="F22" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="63">
         <v>117</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="63">
         <v>117</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="63">
         <v>117</v>
       </c>
-      <c r="J22" s="60"/>
+      <c r="J22" s="62" t="s">
+        <v>13</v>
+      </c>
       <c r="K22" s="47" t="s">
         <v>38</v>
       </c>
@@ -5142,31 +5144,31 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="63">
         <v>0</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="63">
         <v>117</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="69">
         <v>87</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="63">
         <v>41</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="63">
         <v>35</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="63">
         <v>50</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="47" t="s">
@@ -5183,13 +5185,13 @@
       <c r="C24" s="53">
         <v>117</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="66">
         <v>30</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="53">
@@ -5201,7 +5203,7 @@
       <c r="I24" s="53">
         <v>67</v>
       </c>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="47" t="s">
@@ -5218,13 +5220,13 @@
       <c r="C25" s="53">
         <v>117</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="66">
         <v>26</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="53">
@@ -5236,7 +5238,7 @@
       <c r="I25" s="53">
         <v>66</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K25" s="47" t="s">
@@ -5253,13 +5255,13 @@
       <c r="C26" s="53">
         <v>15</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="66">
         <v>4</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="64" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="53">
@@ -5271,7 +5273,7 @@
       <c r="I26" s="53">
         <v>1</v>
       </c>
-      <c r="J26" s="67" t="s">
+      <c r="J26" s="64" t="s">
         <v>13</v>
       </c>
       <c r="K26" s="47" t="s">
@@ -5288,13 +5290,13 @@
       <c r="C27" s="44">
         <v>100</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="80" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="22">
         <v>74.400000000000006</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="62" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="43">
@@ -5306,7 +5308,7 @@
       <c r="I27" s="43">
         <v>42.7</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="62" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="47" t="s">
@@ -5377,12 +5379,12 @@
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
@@ -5393,12 +5395,12 @@
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
@@ -5409,12 +5411,12 @@
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
@@ -5423,15 +5425,15 @@
     </row>
     <row r="35" spans="1:11" s="34" customFormat="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" s="38" customFormat="1">
@@ -5448,37 +5450,37 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="34" customFormat="1" ht="87.75">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="77" t="s">
+      <c r="G37" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="77" t="s">
+      <c r="H37" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="77" t="s">
+      <c r="J37" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="77" t="s">
+      <c r="K37" s="73" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5536,7 +5538,7 @@
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="79"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
@@ -5683,7 +5685,7 @@
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
-      <c r="D45" s="79"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
@@ -5858,7 +5860,7 @@
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
-      <c r="D52" s="80"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
@@ -5972,7 +5974,7 @@
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
-      <c r="D56" s="80"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
@@ -6119,7 +6121,7 @@
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
-      <c r="D61" s="80"/>
+      <c r="D61" s="76"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
@@ -6165,29 +6167,29 @@
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="66">
+      <c r="B63" s="63">
         <v>0</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="81" t="s">
+      <c r="C63" s="63"/>
+      <c r="D63" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="62">
         <v>465073</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="62">
         <v>751879</v>
       </c>
-      <c r="G63" s="65">
+      <c r="G63" s="62">
         <v>422332</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="62">
         <v>53329</v>
       </c>
-      <c r="I63" s="65">
+      <c r="I63" s="62">
         <v>234329</v>
       </c>
-      <c r="J63" s="65">
+      <c r="J63" s="62">
         <v>57411</v>
       </c>
       <c r="K63" s="47" t="s">
@@ -6196,18 +6198,18 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="8" t="s">
         <v>12</v>
       </c>
@@ -6222,20 +6224,20 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:13">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="82" t="s">
+      <c r="D66" s="78" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="13">
+        <v>58171</v>
+      </c>
+      <c r="F66" s="13">
         <v>10350</v>
-      </c>
-      <c r="F66" s="13">
-        <v>58171</v>
       </c>
       <c r="G66" s="13">
         <v>14762</v>
@@ -6253,21 +6255,22 @@
       <c r="K66" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="56"/>
-      <c r="D67" s="82" t="s">
+      <c r="D67" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="20">
+        <v>126449</v>
+      </c>
+      <c r="F67" s="23">
         <v>0</v>
-      </c>
-      <c r="F67" s="23">
-        <v>126449</v>
       </c>
       <c r="G67" s="23">
         <v>32121</v>
@@ -6284,21 +6287,22 @@
       <c r="K67" s="24">
         <v>124093</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="56"/>
-      <c r="D68" s="82" t="s">
+      <c r="D68" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="20">
+        <v>2879448</v>
+      </c>
+      <c r="F68" s="13">
         <v>1102848</v>
-      </c>
-      <c r="F68" s="20">
-        <v>2879448</v>
       </c>
       <c r="G68" s="20">
         <v>347136</v>
@@ -6315,8 +6319,9 @@
       <c r="K68" s="21">
         <v>280064</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="M68" s="34"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6329,7 +6334,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:13">
       <c r="A70" s="15" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="34" customFormat="1">
+    <row r="71" spans="1:13" s="34" customFormat="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6361,7 +6366,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:13">
       <c r="A72" s="8" t="s">
         <v>74</v>
       </c>
@@ -6376,86 +6381,86 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" s="34" customFormat="1">
+    <row r="73" spans="1:13" s="34" customFormat="1">
       <c r="A73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
       <c r="I73" s="45"/>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="1:11" s="34" customFormat="1">
+    <row r="74" spans="1:13" s="34" customFormat="1">
       <c r="A74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="B74" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" s="34" customFormat="1">
+    <row r="75" spans="1:13" s="34" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
       <c r="I75" s="45"/>
       <c r="K75" s="45"/>
     </row>
-    <row r="76" spans="1:11" s="34" customFormat="1">
+    <row r="76" spans="1:13" s="34" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="74"/>
-    </row>
-    <row r="77" spans="1:11" s="31" customFormat="1">
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="70"/>
+    </row>
+    <row r="77" spans="1:13" s="31" customFormat="1">
       <c r="A77" s="30"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
       <c r="E77" s="38"/>
       <c r="J77" s="38"/>
     </row>
-    <row r="78" spans="1:11" s="38" customFormat="1">
+    <row r="78" spans="1:13" s="38" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -6498,7 +6503,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K59">
-    <cfRule type="colorScale" priority="1960">
+    <cfRule type="colorScale" priority="1964">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6510,7 +6515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="colorScale" priority="1956">
+    <cfRule type="colorScale" priority="1960">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6518,12 +6523,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="59" priority="1957" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="58" priority="1958" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="57" priority="1959" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="1961" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="58" priority="1962" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="57" priority="1963" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1433">
+    <cfRule type="colorScale" priority="1437">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6531,15 +6536,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="56" priority="1434" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="55" priority="1435" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="54" priority="1436" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="1438" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="55" priority="1439" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="54" priority="1440" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="top10" dxfId="53" priority="1432" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="53" priority="1436" percent="1" rank="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1425">
+    <cfRule type="colorScale" priority="1429">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6547,12 +6552,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="52" priority="1426" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="51" priority="1427" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="50" priority="1428" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="1430" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="51" priority="1431" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="50" priority="1432" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1412">
+    <cfRule type="colorScale" priority="1416">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6564,7 +6569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1411">
+    <cfRule type="colorScale" priority="1415">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6576,7 +6581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="colorScale" priority="1401">
+    <cfRule type="colorScale" priority="1405">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6588,7 +6593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:K70">
-    <cfRule type="colorScale" priority="3246">
+    <cfRule type="colorScale" priority="3250">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6600,7 +6605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:K69">
-    <cfRule type="colorScale" priority="3598">
+    <cfRule type="colorScale" priority="3602">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6612,7 +6617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="3822">
+    <cfRule type="colorScale" priority="3826">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6624,7 +6629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="842">
+    <cfRule type="colorScale" priority="846">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6632,12 +6637,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="49" priority="843" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="48" priority="844" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="47" priority="845" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="847" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="48" priority="848" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="47" priority="849" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="841">
+    <cfRule type="colorScale" priority="845">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6649,7 +6654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="837">
+    <cfRule type="colorScale" priority="841">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6657,12 +6662,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="46" priority="838" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="45" priority="839" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="44" priority="840" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="842" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="45" priority="843" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="44" priority="844" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="836">
+    <cfRule type="colorScale" priority="840">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6674,7 +6679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="812">
+    <cfRule type="colorScale" priority="816">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6682,12 +6687,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="43" priority="813" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="42" priority="814" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="41" priority="815" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="817" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="42" priority="818" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="41" priority="819" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="811">
+    <cfRule type="colorScale" priority="815">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6699,7 +6704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="806">
+    <cfRule type="colorScale" priority="810">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6707,12 +6712,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="40" priority="807" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="39" priority="808" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="38" priority="809" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="811" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="39" priority="812" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="38" priority="813" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="805">
+    <cfRule type="colorScale" priority="809">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6724,7 +6729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="4737">
+    <cfRule type="colorScale" priority="4741">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6736,7 +6741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="colorScale" priority="4745">
+    <cfRule type="colorScale" priority="4749">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6748,7 +6753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="4750">
+    <cfRule type="colorScale" priority="4754">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6760,7 +6765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K22:K30 K35">
-    <cfRule type="colorScale" priority="5088">
+    <cfRule type="colorScale" priority="5092">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6772,7 +6777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K59">
-    <cfRule type="colorScale" priority="5093">
+    <cfRule type="colorScale" priority="5097">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6784,7 +6789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:J18">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6796,7 +6801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:J19">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6808,7 +6813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:J25">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6820,7 +6825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:J26">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6832,7 +6837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:J6">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6844,7 +6849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:J7">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6856,7 +6861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:J8">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6868,7 +6873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6880,7 +6885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6892,7 +6897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:J11">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6904,7 +6909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:J12">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6916,7 +6921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:J13">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6928,7 +6933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:J14">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6940,7 +6945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:J15">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6952,7 +6957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:J16">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6964,7 +6969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:J17">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6976,7 +6981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:J23">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6988,7 +6993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:J24">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7000,7 +7005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:J27">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7012,7 +7017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:J39">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7024,7 +7029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:J41">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7036,7 +7041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:J42">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7048,7 +7053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:J43">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7060,7 +7065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:J44">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7072,7 +7077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:J46">
-    <cfRule type="colorScale" priority="122">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7084,7 +7089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:J47">
-    <cfRule type="colorScale" priority="123">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7096,7 +7101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:J48">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7108,7 +7113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:J49">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7120,7 +7125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:J53">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7132,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:J54">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7144,7 +7149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:J55">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7156,7 +7161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:J57">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7168,7 +7173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:J58">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7180,7 +7185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:J59">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7192,7 +7197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:J60">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7204,7 +7209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:J62">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7216,7 +7221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:K63">
-    <cfRule type="colorScale" priority="5115">
+    <cfRule type="colorScale" priority="5119">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7228,7 +7233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K19 K35 K39:K49 K52:K59 K22:K30">
-    <cfRule type="colorScale" priority="5193">
+    <cfRule type="colorScale" priority="5197">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7240,7 +7245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K35 K22:K30">
-    <cfRule type="colorScale" priority="5263">
+    <cfRule type="colorScale" priority="5267">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7252,7 +7257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:J63">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7264,7 +7269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="colorScale" priority="261">
+    <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7276,7 +7281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="colorScale" priority="260">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7288,7 +7293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="colorScale" priority="259">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7300,7 +7305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="258">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7312,7 +7317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="257">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7324,7 +7329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="256">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7336,7 +7341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="5294">
+    <cfRule type="colorScale" priority="5298">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7348,7 +7353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7360,7 +7365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7368,12 +7373,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="37" priority="47" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="36" priority="48" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="35" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="51" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="36" priority="52" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="35" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7381,12 +7386,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="34" priority="43" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="33" priority="44" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="32" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="47" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="33" priority="48" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="32" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7394,12 +7399,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="31" priority="39" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="30" priority="40" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="29" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="43" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="30" priority="44" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="29" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7411,7 +7416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7423,7 +7428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7431,12 +7436,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="28" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="27" priority="34" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="26" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="37" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="27" priority="38" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="26" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7444,12 +7449,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="25" priority="29" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="24" priority="30" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="23" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="24" priority="34" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="23" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7461,7 +7466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7469,12 +7474,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="22" priority="24" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="21" priority="25" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="20" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="28" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="21" priority="29" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="20" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7486,7 +7491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7494,12 +7499,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="19" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="18" priority="20" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="17" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="23" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="18" priority="24" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="17" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7511,7 +7516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7519,12 +7524,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="16" priority="14" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="15" priority="15" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="18" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="15" priority="19" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="14" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7536,7 +7541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7544,12 +7549,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="13" priority="9" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="12" priority="10" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="11" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="13" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="12" priority="14" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="11" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7561,7 +7566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7573,7 +7578,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:K30">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:J22 J23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>

--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="LargePageSize">'1000'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1000'!$A$1:$K$157</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1000'!$A$1:$N$156</definedName>
     <definedName name="SmallPageSize">'1000'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" refMode="R1C1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
   <si>
     <t>SqlClient</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Result charts, page 1:</t>
-  </si>
-  <si>
-    <t>Result charts, page 2:</t>
   </si>
   <si>
     <t>Original .cs + mapping files</t>
@@ -292,9 +289,6 @@
     <t xml:space="preserve">  objects/s</t>
   </si>
   <si>
-    <t>total count of failed tests [ / count of tests failed with assertion ], less is better (0 is ideal)</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -316,37 +310,19 @@
     <t>LINQ implementation</t>
   </si>
   <si>
-    <t>18 738</t>
-  </si>
-  <si>
-    <t>10 688</t>
-  </si>
-  <si>
-    <t>15 379</t>
-  </si>
-  <si>
-    <t>16 281</t>
-  </si>
-  <si>
-    <t>13 635</t>
-  </si>
-  <si>
-    <t>21 779</t>
-  </si>
-  <si>
-    <t>64 662</t>
-  </si>
-  <si>
-    <t>24 219</t>
-  </si>
-  <si>
-    <t>29 219</t>
-  </si>
-  <si>
-    <t>15 828</t>
-  </si>
-  <si>
-    <t>1 207 146</t>
+    <t>LINQ to SQL</t>
+  </si>
+  <si>
+    <t>EntitySpaces</t>
+  </si>
+  <si>
+    <t>DataObjects.Net</t>
+  </si>
+  <si>
+    <t>total count of failed tests [, count of tests failed with assertion ], less is better (0 is ideal)</t>
+  </si>
+  <si>
+    <t>bytes</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1065,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1126,13 +1102,11 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="37" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1174,9 +1148,6 @@
     <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1192,18 +1163,9 @@
     <xf numFmtId="3" fontId="22" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1219,15 +1181,6 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="17" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1243,9 +1196,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1253,6 +1203,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="25" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1301,212 +1261,150 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="75">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2096,6 +1994,266 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2141,6 +2299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2163,25 +2322,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2189,27 +2357,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$44:$J$44</c:f>
+              <c:f>'1000'!$E$44:$M$44</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4902</c:v>
+                  <c:v>4641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11957</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4949</c:v>
+                  <c:v>11777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1454</c:v>
+                  <c:v>9147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9968</c:v>
+                  <c:v>2128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3652</c:v>
+                  <c:v>4859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,25 +2408,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2257,27 +2443,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$43:$J$43</c:f>
+              <c:f>'1000'!$E$43:$M$43</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5916</c:v>
+                  <c:v>5955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14104</c:v>
+                  <c:v>1670</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4823</c:v>
+                  <c:v>12047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1473</c:v>
+                  <c:v>10785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10946</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4315</c:v>
+                  <c:v>4776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,25 +2494,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2325,27 +2529,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$42:$J$42</c:f>
+              <c:f>'1000'!$E$42:$M$42</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4407</c:v>
+                  <c:v>3898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13207</c:v>
+                  <c:v>1493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4968</c:v>
+                  <c:v>11507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>898</c:v>
+                  <c:v>9948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9189</c:v>
+                  <c:v>1681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4047</c:v>
+                  <c:v>4955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,25 +2580,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2393,27 +2615,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$41:$J$41</c:f>
+              <c:f>'1000'!$E$41:$M$41</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4629</c:v>
+                  <c:v>4566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9590</c:v>
+                  <c:v>3670</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5063</c:v>
+                  <c:v>11832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3695</c:v>
+                  <c:v>7441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9923</c:v>
+                  <c:v>2292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2920</c:v>
+                  <c:v>4851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,47 +2652,48 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115882240"/>
-        <c:axId val="115912704"/>
+        <c:axId val="48170496"/>
+        <c:axId val="48468736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115882240"/>
+        <c:axId val="48170496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115912704"/>
+        <c:crossAx val="48468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115912704"/>
+        <c:axId val="48468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115882240"/>
+        <c:crossAx val="48170496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2496,6 +2728,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2518,25 +2751,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2544,27 +2786,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$63:$J$63</c:f>
+              <c:f>'1000'!$E$63:$M$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>465073</c:v>
+                  <c:v>476553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751879</c:v>
+                  <c:v>462149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422332</c:v>
+                  <c:v>752841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53329</c:v>
+                  <c:v>350029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234329</c:v>
+                  <c:v>231577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57411</c:v>
+                  <c:v>437196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,25 +2837,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2612,27 +2872,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$62:$J$62</c:f>
+              <c:f>'1000'!$E$62:$M$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>254939</c:v>
+                  <c:v>257884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480122</c:v>
+                  <c:v>462149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369467</c:v>
+                  <c:v>451752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40131</c:v>
+                  <c:v>276556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188068</c:v>
+                  <c:v>105362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48628</c:v>
+                  <c:v>390747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,46 +2909,48 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116077312"/>
-        <c:axId val="116078848"/>
+        <c:axId val="84807040"/>
+        <c:axId val="100981376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116077312"/>
+        <c:axId val="84807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116078848"/>
+        <c:crossAx val="100981376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116078848"/>
+        <c:axId val="100981376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116077312"/>
+        <c:crossAx val="84807040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="150000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2713,6 +2984,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2735,25 +3007,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2761,27 +3042,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$55:$J$55</c:f>
+              <c:f>'1000'!$E$55:$M$55</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9737</c:v>
+                  <c:v>9728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17139</c:v>
+                  <c:v>9114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10397</c:v>
+                  <c:v>17187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5534</c:v>
+                  <c:v>10335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6383</c:v>
+                  <c:v>8465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7320</c:v>
+                  <c:v>10424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,25 +3093,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2829,27 +3128,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$53:$J$53</c:f>
+              <c:f>'1000'!$E$53:$M$53</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>457</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9021</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1321</c:v>
+                  <c:v>8749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1170</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4164</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>353</c:v>
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,27 +3179,36 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$54:$J$54</c:f>
+              <c:f>'1000'!$E$54:$M$54</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5750</c:v>
+                  <c:v>6501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4278</c:v>
+                  <c:v>2395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,46 +3216,47 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116100480"/>
-        <c:axId val="116126848"/>
+        <c:axId val="116241536"/>
+        <c:axId val="116243456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116100480"/>
+        <c:axId val="116241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116126848"/>
+        <c:crossAx val="116243456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116126848"/>
+        <c:axId val="116243456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116100480"/>
+        <c:crossAx val="116241536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2973,6 +3291,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2995,25 +3314,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3021,27 +3349,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$39:$J$39</c:f>
+              <c:f>'1000'!$E$39:$M$39</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4819</c:v>
+                  <c:v>4634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15478</c:v>
+                  <c:v>9280</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10717</c:v>
+                  <c:v>13001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7358</c:v>
+                  <c:v>9433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6512</c:v>
+                  <c:v>7952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8949</c:v>
+                  <c:v>10444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,46 +3386,47 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115480064"/>
-        <c:axId val="115493120"/>
+        <c:axId val="116691328"/>
+        <c:axId val="118458240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115480064"/>
+        <c:axId val="116691328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115493120"/>
+        <c:crossAx val="118458240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115493120"/>
+        <c:axId val="118458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115480064"/>
+        <c:crossAx val="116691328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3145,25 +3483,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3171,26 +3518,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$27:$J$27</c:f>
+              <c:f>'1000'!$E$27:$M$27</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>74.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3199,25 +3555,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115513216"/>
-        <c:axId val="115514752"/>
+        <c:axId val="255347328"/>
+        <c:axId val="255603072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115513216"/>
+        <c:axId val="255347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115514752"/>
+        <c:crossAx val="255603072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115514752"/>
+        <c:axId val="255603072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3225,10 +3581,10 @@
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115513216"/>
+        <c:crossAx val="255347328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,7 +3597,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3276,6 +3632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3298,25 +3655,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3324,27 +3690,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$60:$J$60</c:f>
+              <c:f>'1000'!$E$60:$M$60</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1577</c:v>
+                  <c:v>2493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3796</c:v>
+                  <c:v>4108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>921</c:v>
+                  <c:v>4732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>363</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212</c:v>
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,25 +3741,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3392,27 +3776,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$59:$J$59</c:f>
+              <c:f>'1000'!$E$59:$M$59</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2445</c:v>
+                  <c:v>3445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5046</c:v>
+                  <c:v>5551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1075</c:v>
+                  <c:v>6132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>553</c:v>
+                  <c:v>3410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2025</c:v>
+                  <c:v>1988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266</c:v>
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,25 +3827,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3460,27 +3862,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$58:$J$58</c:f>
+              <c:f>'1000'!$E$58:$M$58</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3741</c:v>
+                  <c:v>4494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6335</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1179</c:v>
+                  <c:v>9009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>733</c:v>
+                  <c:v>5051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2839</c:v>
+                  <c:v>2312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302</c:v>
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,25 +3913,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3528,27 +3948,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$57:$J$57</c:f>
+              <c:f>'1000'!$E$57:$M$57</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4470</c:v>
+                  <c:v>5009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6912</c:v>
+                  <c:v>7736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1135</c:v>
+                  <c:v>10625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>921</c:v>
+                  <c:v>6199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3312</c:v>
+                  <c:v>2107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>326</c:v>
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,40 +3985,41 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116226688"/>
-        <c:axId val="116232576"/>
+        <c:axId val="100905344"/>
+        <c:axId val="100906880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116226688"/>
+        <c:axId val="100905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116232576"/>
+        <c:crossAx val="100906880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116232576"/>
+        <c:axId val="100906880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116226688"/>
+        <c:crossAx val="100905344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3605,7 +4035,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3640,6 +4070,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3662,25 +4093,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3688,27 +4128,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$49:$J$49</c:f>
+              <c:f>'1000'!$E$49:$M$49</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6919</c:v>
+                  <c:v>6997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41264</c:v>
+                  <c:v>2232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19717</c:v>
+                  <c:v>41583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15329</c:v>
+                  <c:v>24729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20622</c:v>
+                  <c:v>7880</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3559</c:v>
+                  <c:v>19538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,25 +4179,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3756,27 +4214,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$48:$J$48</c:f>
+              <c:f>'1000'!$E$48:$M$48</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9844</c:v>
+                  <c:v>9365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78010</c:v>
+                  <c:v>1841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26553</c:v>
+                  <c:v>79514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17837</c:v>
+                  <c:v>42499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60533</c:v>
+                  <c:v>12084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4433</c:v>
+                  <c:v>26199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,25 +4265,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3824,27 +4300,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$47:$J$47</c:f>
+              <c:f>'1000'!$E$47:$M$47</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5954</c:v>
+                  <c:v>6199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63917</c:v>
+                  <c:v>1687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28472</c:v>
+                  <c:v>64451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16890</c:v>
+                  <c:v>33320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15140</c:v>
+                  <c:v>8808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4055</c:v>
+                  <c:v>27537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,25 +4351,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$J$4</c:f>
+              <c:f>'1000'!$E$4:$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>LINQ to SQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BLToolkit</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>DataObjects.Net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EntitySpaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Lightspeed</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NHibernate</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>OpenAccess</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3892,27 +4386,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$46:$J$46</c:f>
+              <c:f>'1000'!$E$46:$M$46</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6097</c:v>
+                  <c:v>7915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22605</c:v>
+                  <c:v>4879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12600</c:v>
+                  <c:v>22748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12433</c:v>
+                  <c:v>14988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15898</c:v>
+                  <c:v>5463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2699</c:v>
+                  <c:v>12649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,47 +4423,48 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116262400"/>
-        <c:axId val="116263936"/>
+        <c:axId val="101121024"/>
+        <c:axId val="101122816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116262400"/>
+        <c:axId val="101121024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116263936"/>
+        <c:crossAx val="101122816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116263936"/>
+        <c:axId val="101122816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116262400"/>
+        <c:crossAx val="101121024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3970,15 +4474,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80281</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>187151</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2656</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635955</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>167651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4003,13 +4507,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>98433</xdr:rowOff>
+      <xdr:rowOff>3183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>493875</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>80731</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79425</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>175981</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4032,14 +4536,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>139255</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>186880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>493875</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>121553</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79425</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>169178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,16 +4564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80281</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>96174</xdr:rowOff>
+      <xdr:rowOff>924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2656</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>78472</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635955</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>173722</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,8 +4600,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>493875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79425</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>91156</xdr:rowOff>
     </xdr:to>
@@ -4120,16 +4624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80281</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489855</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>144915</xdr:rowOff>
+      <xdr:rowOff>2040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2656</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>125415</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635955</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>173040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4153,12 +4657,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>190094</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>493875</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79425</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>170594</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4182,26 +4686,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:K76" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A4:K76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:N76" totalsRowShown="0" headerRowDxfId="74">
+  <autoFilter ref="A4:N76">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
-    <filterColumn colId="9"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="12"/>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Test name" dataDxfId="9"/>
-    <tableColumn id="14" name="Minimum" dataDxfId="8"/>
-    <tableColumn id="13" name="Maximum" dataDxfId="7"/>
-    <tableColumn id="10" name="SqlClient" dataDxfId="6"/>
-    <tableColumn id="3" name="Entity Framework" dataDxfId="5"/>
-    <tableColumn id="2" name="BLToolkit" dataDxfId="4"/>
-    <tableColumn id="4" name="Lightspeed" dataDxfId="3"/>
-    <tableColumn id="6" name="NHibernate" dataDxfId="2"/>
-    <tableColumn id="7" name="OpenAccess" dataDxfId="1"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Test name" dataDxfId="73"/>
+    <tableColumn id="14" name="Minimum" dataDxfId="72"/>
+    <tableColumn id="13" name="Maximum" dataDxfId="71"/>
+    <tableColumn id="10" name="SqlClient" dataDxfId="70"/>
+    <tableColumn id="3" name="Entity Framework" dataDxfId="69"/>
+    <tableColumn id="9" name="LINQ to SQL" dataDxfId="68"/>
+    <tableColumn id="2" name="BLToolkit" dataDxfId="67"/>
+    <tableColumn id="15" name="DataObjects.Net" dataDxfId="66"/>
+    <tableColumn id="12" name="EntitySpaces" dataDxfId="65"/>
+    <tableColumn id="4" name="Lightspeed" dataDxfId="64"/>
+    <tableColumn id="6" name="NHibernate" dataDxfId="63"/>
+    <tableColumn id="7" name="OpenAccess" dataDxfId="62"/>
     <tableColumn id="11" name="Subsonic"/>
-    <tableColumn id="8" name="Unit" dataDxfId="0"/>
+    <tableColumn id="8" name="Unit" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4493,876 +5003,1065 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="3" width="4.7109375" style="34" customWidth="1"/>
+    <col min="2" max="3" width="4.7109375" style="32" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" style="32" customWidth="1"/>
+    <col min="10" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="39" t="s">
-        <v>89</v>
+    <row r="3" spans="1:14" s="12" customFormat="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="87.75">
+    <row r="4" spans="1:14" ht="87.75">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>21</v>
+      <c r="N4" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="25"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:11" s="34" customFormat="1">
+    <row r="6" spans="1:14" s="32" customFormat="1">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="49">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>5</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="32">
+        <v>3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>3</v>
+      </c>
+      <c r="L6" s="32">
+        <v>2</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="53">
+    </row>
+    <row r="7" spans="1:14" s="32" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="49">
         <v>0</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C7" s="32">
+        <v>6</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="32">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32">
+        <v>6</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="32">
+        <v>6</v>
+      </c>
+      <c r="K7" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="L7" s="32">
+        <v>4</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="32" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
+        <v>6</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>6</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="32">
+        <v>6</v>
+      </c>
+      <c r="K8" s="32">
+        <v>6</v>
+      </c>
+      <c r="L8" s="32">
         <v>5</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="M8" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="32" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="49">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>9</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="32">
+        <v>4</v>
+      </c>
+      <c r="F9" s="32">
+        <v>2</v>
+      </c>
+      <c r="G9" s="32">
+        <v>6</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="32">
+        <v>6</v>
+      </c>
+      <c r="K9" s="32">
+        <v>6</v>
+      </c>
+      <c r="L9" s="32">
+        <v>5</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="32" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="49">
+        <v>0</v>
+      </c>
+      <c r="C10" s="32">
+        <v>12</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="F10" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="K10" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="L10" s="32">
+        <v>2</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="32" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+      <c r="C11" s="32">
+        <v>10</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="32">
+        <v>10</v>
+      </c>
+      <c r="K11" s="32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L11" s="32">
+        <v>5</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="32" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="49">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32">
+        <v>4</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>4</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="32">
+        <v>4</v>
+      </c>
+      <c r="K12" s="32">
+        <v>4</v>
+      </c>
+      <c r="L12" s="32">
+        <v>2</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="32" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="49">
+        <v>0</v>
+      </c>
+      <c r="C13" s="32">
+        <v>8</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="32">
+        <v>2</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K13" s="32">
+        <v>6</v>
+      </c>
+      <c r="L13" s="32">
+        <v>3</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="32" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="49">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32">
         <v>13</v>
       </c>
-      <c r="E6" s="65">
+      <c r="D14" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>8</v>
+      </c>
+      <c r="H14" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="I14" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K14" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="L14" s="32">
+        <v>3</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="32" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="49">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>4</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>4</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="32">
+        <v>4</v>
+      </c>
+      <c r="K15" s="32">
+        <v>3</v>
+      </c>
+      <c r="L15" s="32">
+        <v>1</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="32" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="49">
+        <v>0</v>
+      </c>
+      <c r="C16" s="32">
+        <v>9</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K16" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="L16" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="32" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="49">
+        <v>0</v>
+      </c>
+      <c r="C17" s="32">
+        <v>21</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="32">
+        <v>9</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
         <v>13</v>
       </c>
-      <c r="G6" s="53">
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="32">
+        <v>8</v>
+      </c>
+      <c r="K17" s="32">
+        <v>16</v>
+      </c>
+      <c r="L17" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="32" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="49">
+        <v>0</v>
+      </c>
+      <c r="C18" s="32">
+        <v>5</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="K18" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="L18" s="32">
+        <v>2</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="32" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="49">
+        <v>0</v>
+      </c>
+      <c r="C19" s="32">
+        <v>5</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
         <v>3</v>
       </c>
-      <c r="H6" s="53">
-        <v>3</v>
-      </c>
-      <c r="I6" s="53">
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="K19" s="32">
+        <v>4</v>
+      </c>
+      <c r="L19" s="32">
+        <v>2</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="32" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" s="32" customFormat="1">
+      <c r="A21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="32" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="57">
+        <v>0</v>
+      </c>
+      <c r="C22" s="32">
+        <v>117</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="56">
+        <v>117</v>
+      </c>
+      <c r="F22" s="56">
+        <v>117</v>
+      </c>
+      <c r="G22" s="56">
+        <v>117</v>
+      </c>
+      <c r="H22" s="56">
+        <v>117</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="56">
+        <v>117</v>
+      </c>
+      <c r="K22" s="56">
+        <v>117</v>
+      </c>
+      <c r="L22" s="56">
+        <v>117</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="32" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="32">
+        <v>117</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="32">
+        <v>87</v>
+      </c>
+      <c r="F23" s="32">
+        <v>106</v>
+      </c>
+      <c r="G23" s="32">
+        <v>49</v>
+      </c>
+      <c r="H23" s="32">
+        <v>117</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="32">
+        <v>41</v>
+      </c>
+      <c r="K23" s="32">
+        <v>35</v>
+      </c>
+      <c r="L23" s="32">
+        <v>71</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="32" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="49">
+        <v>0</v>
+      </c>
+      <c r="C24" s="32">
+        <v>117</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="32">
+        <v>30</v>
+      </c>
+      <c r="F24" s="32">
+        <v>11</v>
+      </c>
+      <c r="G24" s="32">
+        <v>68</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="32">
+        <v>76</v>
+      </c>
+      <c r="K24" s="32">
+        <v>82</v>
+      </c>
+      <c r="L24" s="32">
+        <v>46</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="32" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="49">
+        <v>0</v>
+      </c>
+      <c r="C25" s="32">
+        <v>117</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="32">
+        <v>26</v>
+      </c>
+      <c r="F25" s="32">
+        <v>9</v>
+      </c>
+      <c r="G25" s="32">
+        <v>67</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="32">
+        <v>65</v>
+      </c>
+      <c r="K25" s="32">
+        <v>73</v>
+      </c>
+      <c r="L25" s="32">
+        <v>44</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="32" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="49">
+        <v>0</v>
+      </c>
+      <c r="C26" s="32">
+        <v>117</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="32">
+        <v>4</v>
+      </c>
+      <c r="F26" s="32">
+        <v>2</v>
+      </c>
+      <c r="G26" s="32">
         <v>1</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>23</v>
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="32">
+        <v>11</v>
+      </c>
+      <c r="K26" s="32">
+        <v>9</v>
+      </c>
+      <c r="L26" s="32">
+        <v>2</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="44" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="53">
+    <row r="27" spans="1:14" s="32" customFormat="1">
+      <c r="A27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="41">
         <v>0</v>
       </c>
-      <c r="C7" s="53">
-        <v>6</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="66">
-        <v>3</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="53">
-        <v>6</v>
-      </c>
-      <c r="H7" s="53">
-        <v>4.2</v>
-      </c>
-      <c r="I7" s="53">
-        <v>4</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>23</v>
+      <c r="C27" s="32">
+        <v>100</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="32">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F27" s="32">
+        <v>90.6</v>
+      </c>
+      <c r="G27" s="32">
+        <v>41.9</v>
+      </c>
+      <c r="H27" s="32">
+        <v>100</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="32">
+        <v>35</v>
+      </c>
+      <c r="K27" s="32">
+        <v>29.9</v>
+      </c>
+      <c r="L27" s="32">
+        <v>60.7</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="53">
-        <v>0</v>
-      </c>
-      <c r="C8" s="53">
-        <v>6</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="66">
-        <v>1</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="53">
-        <v>6</v>
-      </c>
-      <c r="H8" s="53">
-        <v>6</v>
-      </c>
-      <c r="I8" s="53">
-        <v>6</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="34" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="53">
-        <v>0</v>
-      </c>
-      <c r="C9" s="53">
-        <v>9</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="66">
-        <v>4</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="53">
-        <v>6</v>
-      </c>
-      <c r="H9" s="53">
-        <v>6</v>
-      </c>
-      <c r="I9" s="53">
-        <v>5</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="34" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="53">
-        <v>0</v>
-      </c>
-      <c r="C10" s="53">
-        <v>12</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="66">
-        <v>4.2</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="53">
-        <v>5.5</v>
-      </c>
-      <c r="H10" s="53">
-        <v>6.1</v>
-      </c>
-      <c r="I10" s="53">
-        <v>2</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="34" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="53">
-        <v>0</v>
-      </c>
-      <c r="C11" s="53">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="66">
-        <v>1</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="53">
-        <v>10</v>
-      </c>
-      <c r="H11" s="53">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I11" s="53">
-        <v>5</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="34" customFormat="1">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="53">
-        <v>0</v>
-      </c>
-      <c r="C12" s="53">
-        <v>4</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="66">
-        <v>1</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="53">
-        <v>4</v>
-      </c>
-      <c r="H12" s="53">
-        <v>4</v>
-      </c>
-      <c r="I12" s="53">
-        <v>4</v>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="34" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="53">
-        <v>0</v>
-      </c>
-      <c r="C13" s="53">
-        <v>8</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="66">
-        <v>3.2</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="53">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H13" s="53">
-        <v>6</v>
-      </c>
-      <c r="I13" s="53">
-        <v>6</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="34" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="53">
-        <v>0</v>
-      </c>
-      <c r="C14" s="53">
-        <v>13</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="66">
-        <v>2</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="53">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H14" s="53">
-        <v>6.1</v>
-      </c>
-      <c r="I14" s="53">
-        <v>8.1</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="34" customFormat="1">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="53">
-        <v>0</v>
-      </c>
-      <c r="C15" s="53">
-        <v>4</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="66">
-        <v>0</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="53">
-        <v>4</v>
-      </c>
-      <c r="H15" s="53">
-        <v>3</v>
-      </c>
-      <c r="I15" s="53">
-        <v>2</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="34" customFormat="1">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="53">
-        <v>0</v>
-      </c>
-      <c r="C16" s="53">
-        <v>9</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="66">
-        <v>0</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="53">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H16" s="53">
-        <v>6.2</v>
-      </c>
-      <c r="I16" s="53">
-        <v>9</v>
-      </c>
-      <c r="J16" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="34" customFormat="1">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="53">
-        <v>0</v>
-      </c>
-      <c r="C17" s="53">
-        <v>21</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="66">
-        <v>9</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="53">
-        <v>8</v>
-      </c>
-      <c r="H17" s="53">
-        <v>16</v>
-      </c>
-      <c r="I17" s="53">
-        <v>11</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="34" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="53">
-        <v>0</v>
-      </c>
-      <c r="C18" s="53">
-        <v>5</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="66">
-        <v>1</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="53">
-        <v>2.1</v>
-      </c>
-      <c r="H18" s="53">
-        <v>2.1</v>
-      </c>
-      <c r="I18" s="53">
-        <v>2</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="34" customFormat="1">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="53">
-        <v>0</v>
-      </c>
-      <c r="C19" s="53">
-        <v>5</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="66">
-        <v>1</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="53">
-        <v>3.1</v>
-      </c>
-      <c r="H19" s="53">
-        <v>4</v>
-      </c>
-      <c r="I19" s="53">
-        <v>2</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="34" customFormat="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="49"/>
-    </row>
-    <row r="21" spans="1:11" s="34" customFormat="1">
-      <c r="A21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" s="34" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="63">
-        <v>0</v>
-      </c>
-      <c r="C22" s="63">
-        <v>117</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="69">
-        <v>117</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="63">
-        <v>117</v>
-      </c>
-      <c r="H22" s="63">
-        <v>117</v>
-      </c>
-      <c r="I22" s="63">
-        <v>117</v>
-      </c>
-      <c r="J22" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="34" customFormat="1">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="63">
-        <v>0</v>
-      </c>
-      <c r="C23" s="63">
-        <v>117</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="69">
-        <v>87</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="63">
-        <v>41</v>
-      </c>
-      <c r="H23" s="63">
-        <v>35</v>
-      </c>
-      <c r="I23" s="63">
-        <v>50</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="34" customFormat="1">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="53">
-        <v>0</v>
-      </c>
-      <c r="C24" s="53">
-        <v>117</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="66">
-        <v>30</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="53">
-        <v>76</v>
-      </c>
-      <c r="H24" s="53">
-        <v>82</v>
-      </c>
-      <c r="I24" s="53">
-        <v>67</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="34" customFormat="1">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="53">
-        <v>0</v>
-      </c>
-      <c r="C25" s="53">
-        <v>117</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="66">
-        <v>26</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="53">
-        <v>65</v>
-      </c>
-      <c r="H25" s="53">
-        <v>73</v>
-      </c>
-      <c r="I25" s="53">
-        <v>66</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="34" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="53">
-        <v>0</v>
-      </c>
-      <c r="C26" s="53">
-        <v>15</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="66">
-        <v>4</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="53">
-        <v>11</v>
-      </c>
-      <c r="H26" s="53">
-        <v>9</v>
-      </c>
-      <c r="I26" s="53">
-        <v>1</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="34" customFormat="1">
-      <c r="A27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="43">
-        <v>0</v>
-      </c>
-      <c r="C27" s="44">
-        <v>100</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="22">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="43">
-        <v>35</v>
-      </c>
-      <c r="H27" s="43">
-        <v>29.9</v>
-      </c>
-      <c r="I27" s="43">
-        <v>42.7</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="34" customFormat="1">
+    <row r="28" spans="1:14" s="32" customFormat="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="34" customFormat="1">
+    <row r="29" spans="1:14" s="32" customFormat="1">
       <c r="A29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="36" t="s">
-        <v>16</v>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="34" customFormat="1">
+    <row r="30" spans="1:14" s="32" customFormat="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="34" customFormat="1">
+    <row r="31" spans="1:14" s="32" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5374,119 +6073,144 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:11" s="34" customFormat="1">
+    <row r="32" spans="1:14" s="32" customFormat="1">
       <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="1:14" s="32" customFormat="1">
+      <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B33" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="1:14" s="32" customFormat="1">
+      <c r="A34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="K32" s="45"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="N34" s="42"/>
     </row>
-    <row r="33" spans="1:11" s="34" customFormat="1">
-      <c r="A33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="K33" s="45"/>
+    <row r="35" spans="1:14" s="32" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="18"/>
     </row>
-    <row r="34" spans="1:11" s="34" customFormat="1">
-      <c r="A34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="K34" s="45"/>
+    <row r="36" spans="1:14" s="36" customFormat="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" s="34" customFormat="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="19"/>
+    <row r="37" spans="1:14" s="32" customFormat="1" ht="87.75">
+      <c r="A37" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" s="62" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" s="38" customFormat="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="34" customFormat="1" ht="87.75">
-      <c r="A37" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="73" t="s">
+    <row r="38" spans="1:14" s="32" customFormat="1">
+      <c r="A38" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D37" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="K37" s="73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="34" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5498,350 +6222,416 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:11" s="34" customFormat="1">
+    <row r="39" spans="1:14" s="32" customFormat="1">
       <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="41">
+        <v>0</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="71">
+        <v>18738</v>
+      </c>
+      <c r="E39" s="32">
+        <v>4634</v>
+      </c>
+      <c r="F39" s="32">
+        <v>9280</v>
+      </c>
+      <c r="G39" s="32">
+        <v>13001</v>
+      </c>
+      <c r="H39" s="32">
+        <v>9433</v>
+      </c>
+      <c r="I39" s="32">
+        <v>7952</v>
+      </c>
+      <c r="J39" s="32">
+        <v>10444</v>
+      </c>
+      <c r="K39" s="32">
+        <v>7289</v>
+      </c>
+      <c r="L39" s="32">
+        <v>6611</v>
+      </c>
+      <c r="M39" s="32">
+        <v>8765</v>
+      </c>
+      <c r="N39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="43">
+    </row>
+    <row r="40" spans="1:14" s="32" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="64"/>
+      <c r="N40" s="44"/>
+    </row>
+    <row r="41" spans="1:14" s="32" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="41">
         <v>0</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="44">
-        <v>4819</v>
-      </c>
-      <c r="F39" s="44">
-        <v>15478</v>
-      </c>
-      <c r="G39" s="44">
-        <v>10717</v>
-      </c>
-      <c r="H39" s="44">
-        <v>7358</v>
-      </c>
-      <c r="I39" s="44">
-        <v>6512</v>
-      </c>
-      <c r="J39" s="44">
-        <v>8949</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>49</v>
+      <c r="C41" s="41"/>
+      <c r="D41" s="71">
+        <v>10688</v>
+      </c>
+      <c r="E41" s="32">
+        <v>4566</v>
+      </c>
+      <c r="F41" s="32">
+        <v>3670</v>
+      </c>
+      <c r="G41" s="32">
+        <v>11832</v>
+      </c>
+      <c r="H41" s="32">
+        <v>7441</v>
+      </c>
+      <c r="I41" s="32">
+        <v>2292</v>
+      </c>
+      <c r="J41" s="32">
+        <v>4851</v>
+      </c>
+      <c r="K41" s="32">
+        <v>3741</v>
+      </c>
+      <c r="L41" s="32">
+        <v>9848</v>
+      </c>
+      <c r="M41" s="32">
+        <v>4167</v>
+      </c>
+      <c r="N41" s="44" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="34" customFormat="1">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:14" s="32" customFormat="1">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="41">
+        <v>0</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="71">
+        <v>15379</v>
+      </c>
+      <c r="E42" s="32">
+        <v>3898</v>
+      </c>
+      <c r="F42" s="32">
+        <v>1493</v>
+      </c>
+      <c r="G42" s="32">
+        <v>11507</v>
+      </c>
+      <c r="H42" s="32">
+        <v>9948</v>
+      </c>
+      <c r="I42" s="32">
+        <v>1681</v>
+      </c>
+      <c r="J42" s="32">
+        <v>4955</v>
+      </c>
+      <c r="K42" s="32">
+        <v>871</v>
+      </c>
+      <c r="L42" s="32">
+        <v>9609</v>
+      </c>
+      <c r="M42" s="32">
+        <v>4099</v>
+      </c>
+      <c r="N42" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="32" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="41">
+        <v>0</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="71">
+        <v>16281</v>
+      </c>
+      <c r="E43" s="32">
+        <v>5955</v>
+      </c>
+      <c r="F43" s="32">
+        <v>1670</v>
+      </c>
+      <c r="G43" s="32">
+        <v>12047</v>
+      </c>
+      <c r="H43" s="32">
+        <v>10785</v>
+      </c>
+      <c r="I43" s="32">
+        <v>2646</v>
+      </c>
+      <c r="J43" s="32">
+        <v>4776</v>
+      </c>
+      <c r="K43" s="32">
+        <v>1440</v>
+      </c>
+      <c r="L43" s="32">
+        <v>10936</v>
+      </c>
+      <c r="M43" s="32">
+        <v>4354</v>
+      </c>
+      <c r="N43" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="32" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="41">
+        <v>0</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="71">
+        <v>13635</v>
+      </c>
+      <c r="E44" s="32">
+        <v>4641</v>
+      </c>
+      <c r="F44" s="32">
+        <v>1942</v>
+      </c>
+      <c r="G44" s="32">
+        <v>11777</v>
+      </c>
+      <c r="H44" s="32">
+        <v>9147</v>
+      </c>
+      <c r="I44" s="32">
+        <v>2128</v>
+      </c>
+      <c r="J44" s="32">
+        <v>4859</v>
+      </c>
+      <c r="K44" s="32">
+        <v>1421</v>
+      </c>
+      <c r="L44" s="32">
+        <v>9959</v>
+      </c>
+      <c r="M44" s="32">
+        <v>4105</v>
+      </c>
+      <c r="N44" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="32" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="64"/>
+      <c r="N45" s="44"/>
+    </row>
+    <row r="46" spans="1:14" s="32" customFormat="1">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="47"/>
+      <c r="B46" s="41">
+        <v>0</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="71">
+        <v>21779</v>
+      </c>
+      <c r="E46" s="32">
+        <v>7915</v>
+      </c>
+      <c r="F46" s="32">
+        <v>4879</v>
+      </c>
+      <c r="G46" s="32">
+        <v>22748</v>
+      </c>
+      <c r="H46" s="32">
+        <v>14988</v>
+      </c>
+      <c r="I46" s="32">
+        <v>5463</v>
+      </c>
+      <c r="J46" s="32">
+        <v>12649</v>
+      </c>
+      <c r="K46" s="32">
+        <v>20587</v>
+      </c>
+      <c r="L46" s="32">
+        <v>10197</v>
+      </c>
+      <c r="M46" s="32">
+        <v>4010</v>
+      </c>
+      <c r="N46" s="44" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" s="34" customFormat="1">
-      <c r="A41" s="1" t="s">
+    <row r="47" spans="1:14" s="32" customFormat="1">
+      <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B47" s="41">
         <v>0</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="44">
-        <v>4629</v>
-      </c>
-      <c r="F41" s="44">
-        <v>9590</v>
-      </c>
-      <c r="G41" s="44">
-        <v>5063</v>
-      </c>
-      <c r="H41" s="44">
-        <v>3695</v>
-      </c>
-      <c r="I41" s="44">
-        <v>9923</v>
-      </c>
-      <c r="J41" s="44">
-        <v>2920</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>49</v>
+      <c r="C47" s="41"/>
+      <c r="D47" s="71">
+        <v>64662</v>
+      </c>
+      <c r="E47" s="32">
+        <v>6199</v>
+      </c>
+      <c r="F47" s="32">
+        <v>1687</v>
+      </c>
+      <c r="G47" s="32">
+        <v>64451</v>
+      </c>
+      <c r="H47" s="32">
+        <v>33320</v>
+      </c>
+      <c r="I47" s="32">
+        <v>8808</v>
+      </c>
+      <c r="J47" s="32">
+        <v>27537</v>
+      </c>
+      <c r="K47" s="32">
+        <v>17259</v>
+      </c>
+      <c r="L47" s="32">
+        <v>15497</v>
+      </c>
+      <c r="M47" s="32">
+        <v>4154</v>
+      </c>
+      <c r="N47" s="44" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="34" customFormat="1">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:14" s="32" customFormat="1">
+      <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B48" s="41">
         <v>0</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="44">
-        <v>4407</v>
-      </c>
-      <c r="F42" s="44">
-        <v>13207</v>
-      </c>
-      <c r="G42" s="44">
-        <v>4968</v>
-      </c>
-      <c r="H42" s="44">
-        <v>898</v>
-      </c>
-      <c r="I42" s="44">
-        <v>9189</v>
-      </c>
-      <c r="J42" s="44">
-        <v>4047</v>
-      </c>
-      <c r="K42" s="47" t="s">
-        <v>49</v>
+      <c r="C48" s="41"/>
+      <c r="D48" s="71">
+        <v>24219</v>
+      </c>
+      <c r="E48" s="32">
+        <v>9365</v>
+      </c>
+      <c r="F48" s="32">
+        <v>1841</v>
+      </c>
+      <c r="G48" s="32">
+        <v>79514</v>
+      </c>
+      <c r="H48" s="32">
+        <v>42499</v>
+      </c>
+      <c r="I48" s="32">
+        <v>12084</v>
+      </c>
+      <c r="J48" s="32">
+        <v>26199</v>
+      </c>
+      <c r="K48" s="32">
+        <v>18551</v>
+      </c>
+      <c r="L48" s="32">
+        <v>24022</v>
+      </c>
+      <c r="M48" s="32">
+        <v>4472</v>
+      </c>
+      <c r="N48" s="44" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="34" customFormat="1">
-      <c r="A43" s="1" t="s">
+    <row r="49" spans="1:14" s="32" customFormat="1">
+      <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B49" s="41">
         <v>0</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="44">
-        <v>5916</v>
-      </c>
-      <c r="F43" s="44">
-        <v>14104</v>
-      </c>
-      <c r="G43" s="44">
-        <v>4823</v>
-      </c>
-      <c r="H43" s="44">
-        <v>1473</v>
-      </c>
-      <c r="I43" s="44">
-        <v>10946</v>
-      </c>
-      <c r="J43" s="44">
-        <v>4315</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>49</v>
+      <c r="C49" s="41"/>
+      <c r="D49" s="71">
+        <v>29219</v>
+      </c>
+      <c r="E49" s="32">
+        <v>6997</v>
+      </c>
+      <c r="F49" s="32">
+        <v>2232</v>
+      </c>
+      <c r="G49" s="32">
+        <v>41583</v>
+      </c>
+      <c r="H49" s="32">
+        <v>24729</v>
+      </c>
+      <c r="I49" s="32">
+        <v>7880</v>
+      </c>
+      <c r="J49" s="32">
+        <v>19538</v>
+      </c>
+      <c r="K49" s="32">
+        <v>18623</v>
+      </c>
+      <c r="L49" s="32">
+        <v>14579</v>
+      </c>
+      <c r="M49" s="32">
+        <v>4167</v>
+      </c>
+      <c r="N49" s="44" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="34" customFormat="1">
-      <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="43">
-        <v>0</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="44">
-        <v>4902</v>
-      </c>
-      <c r="F44" s="44">
-        <v>11957</v>
-      </c>
-      <c r="G44" s="44">
-        <v>4949</v>
-      </c>
-      <c r="H44" s="44">
-        <v>1454</v>
-      </c>
-      <c r="I44" s="44">
-        <v>9968</v>
-      </c>
-      <c r="J44" s="44">
-        <v>3652</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>49</v>
-      </c>
+    <row r="50" spans="1:14" s="32" customFormat="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="N50" s="5"/>
     </row>
-    <row r="45" spans="1:11" s="34" customFormat="1">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="1:14" s="32" customFormat="1">
+      <c r="A51" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="47"/>
-    </row>
-    <row r="46" spans="1:11" s="34" customFormat="1">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="43">
-        <v>0</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="44">
-        <v>6097</v>
-      </c>
-      <c r="F46" s="44">
-        <v>22605</v>
-      </c>
-      <c r="G46" s="44">
-        <v>12600</v>
-      </c>
-      <c r="H46" s="44">
-        <v>12433</v>
-      </c>
-      <c r="I46" s="44">
-        <v>15898</v>
-      </c>
-      <c r="J46" s="44">
-        <v>2699</v>
-      </c>
-      <c r="K46" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="34" customFormat="1">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="43">
-        <v>0</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="44">
-        <v>5954</v>
-      </c>
-      <c r="F47" s="44">
-        <v>63917</v>
-      </c>
-      <c r="G47" s="44">
-        <v>28472</v>
-      </c>
-      <c r="H47" s="44">
-        <v>16890</v>
-      </c>
-      <c r="I47" s="44">
-        <v>15140</v>
-      </c>
-      <c r="J47" s="44">
-        <v>4055</v>
-      </c>
-      <c r="K47" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="34" customFormat="1">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="43">
-        <v>0</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="44">
-        <v>9844</v>
-      </c>
-      <c r="F48" s="44">
-        <v>78010</v>
-      </c>
-      <c r="G48" s="44">
-        <v>26553</v>
-      </c>
-      <c r="H48" s="44">
-        <v>17837</v>
-      </c>
-      <c r="I48" s="44">
-        <v>60533</v>
-      </c>
-      <c r="J48" s="44">
-        <v>4433</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="34" customFormat="1">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="43">
-        <v>0</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="44">
-        <v>6919</v>
-      </c>
-      <c r="F49" s="44">
-        <v>41264</v>
-      </c>
-      <c r="G49" s="44">
-        <v>19717</v>
-      </c>
-      <c r="H49" s="44">
-        <v>15329</v>
-      </c>
-      <c r="I49" s="44">
-        <v>20622</v>
-      </c>
-      <c r="J49" s="44">
-        <v>3559</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="34" customFormat="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" s="34" customFormat="1">
-      <c r="A51" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5853,522 +6643,635 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="34" customFormat="1">
+    <row r="52" spans="1:14" s="32" customFormat="1">
       <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="65"/>
+      <c r="N52" s="44"/>
+    </row>
+    <row r="53" spans="1:14" s="32" customFormat="1">
+      <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="47"/>
+      <c r="B53" s="41">
+        <v>0</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="32">
+        <v>450</v>
+      </c>
+      <c r="F53" s="32">
+        <v>835</v>
+      </c>
+      <c r="G53" s="32">
+        <v>8749</v>
+      </c>
+      <c r="H53" s="32">
+        <v>1559</v>
+      </c>
+      <c r="I53" s="32">
+        <v>933</v>
+      </c>
+      <c r="J53" s="32">
+        <v>1290</v>
+      </c>
+      <c r="K53" s="32">
+        <v>1156</v>
+      </c>
+      <c r="L53" s="32">
+        <v>4168</v>
+      </c>
+      <c r="M53" s="32">
+        <v>351</v>
+      </c>
+      <c r="N53" s="44" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="53" spans="1:11" s="34" customFormat="1">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:14" s="32" customFormat="1">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="41">
+        <v>0</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="32">
+        <v>6501</v>
+      </c>
+      <c r="F54" s="32">
+        <v>9114</v>
+      </c>
+      <c r="G54" s="32">
+        <v>13222</v>
+      </c>
+      <c r="H54" s="32">
+        <v>8046</v>
+      </c>
+      <c r="I54" s="32">
+        <v>2395</v>
+      </c>
+      <c r="J54" s="32">
+        <v>1290</v>
+      </c>
+      <c r="K54" s="32">
+        <v>1156</v>
+      </c>
+      <c r="L54" s="32">
+        <v>4269</v>
+      </c>
+      <c r="M54" s="32">
+        <v>351</v>
+      </c>
+      <c r="N54" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="43">
+    </row>
+    <row r="55" spans="1:14" s="32" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="41">
         <v>0</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="44">
-        <v>457</v>
-      </c>
-      <c r="F53" s="44">
-        <v>9021</v>
-      </c>
-      <c r="G53" s="44">
-        <v>1321</v>
-      </c>
-      <c r="H53" s="44">
-        <v>1170</v>
-      </c>
-      <c r="I53" s="44">
-        <v>4164</v>
-      </c>
-      <c r="J53" s="44">
-        <v>353</v>
-      </c>
-      <c r="K53" s="47" t="s">
-        <v>59</v>
+      <c r="C55" s="41"/>
+      <c r="D55" s="70">
+        <v>18745</v>
+      </c>
+      <c r="E55" s="32">
+        <v>9728</v>
+      </c>
+      <c r="F55" s="32">
+        <v>9114</v>
+      </c>
+      <c r="G55" s="32">
+        <v>17187</v>
+      </c>
+      <c r="H55" s="32">
+        <v>10335</v>
+      </c>
+      <c r="I55" s="32">
+        <v>8465</v>
+      </c>
+      <c r="J55" s="32">
+        <v>10424</v>
+      </c>
+      <c r="K55" s="32">
+        <v>5494</v>
+      </c>
+      <c r="L55" s="32">
+        <v>6590</v>
+      </c>
+      <c r="M55" s="32">
+        <v>7312</v>
+      </c>
+      <c r="N55" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="34" customFormat="1">
-      <c r="A54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="43">
+    <row r="56" spans="1:14" s="32" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="65"/>
+      <c r="N56" s="44"/>
+    </row>
+    <row r="57" spans="1:14" s="32" customFormat="1">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="41">
         <v>0</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="44">
-        <v>5750</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="44">
-        <v>4278</v>
-      </c>
-      <c r="J54" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="47" t="s">
-        <v>59</v>
+      <c r="C57" s="41"/>
+      <c r="D57" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="32">
+        <v>5009</v>
+      </c>
+      <c r="F57" s="32">
+        <v>7736</v>
+      </c>
+      <c r="G57" s="32">
+        <v>10625</v>
+      </c>
+      <c r="H57" s="32">
+        <v>6199</v>
+      </c>
+      <c r="I57" s="32">
+        <v>2107</v>
+      </c>
+      <c r="J57" s="32">
+        <v>1105</v>
+      </c>
+      <c r="K57" s="32">
+        <v>907</v>
+      </c>
+      <c r="L57" s="32">
+        <v>3458</v>
+      </c>
+      <c r="M57" s="32">
+        <v>322</v>
+      </c>
+      <c r="N57" s="44" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="34" customFormat="1">
-      <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="43">
+    <row r="58" spans="1:14" s="32" customFormat="1">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="41">
         <v>0</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="44">
-        <v>9737</v>
-      </c>
-      <c r="F55" s="44">
-        <v>17139</v>
-      </c>
-      <c r="G55" s="44">
-        <v>10397</v>
-      </c>
-      <c r="H55" s="44">
-        <v>5534</v>
-      </c>
-      <c r="I55" s="44">
-        <v>6383</v>
-      </c>
-      <c r="J55" s="44">
-        <v>7320</v>
-      </c>
-      <c r="K55" s="47" t="s">
-        <v>59</v>
+      <c r="C58" s="41"/>
+      <c r="D58" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="32">
+        <v>4494</v>
+      </c>
+      <c r="F58" s="32">
+        <v>7014</v>
+      </c>
+      <c r="G58" s="32">
+        <v>9009</v>
+      </c>
+      <c r="H58" s="32">
+        <v>5051</v>
+      </c>
+      <c r="I58" s="32">
+        <v>2312</v>
+      </c>
+      <c r="J58" s="32">
+        <v>1175</v>
+      </c>
+      <c r="K58" s="32">
+        <v>726</v>
+      </c>
+      <c r="L58" s="32">
+        <v>3130</v>
+      </c>
+      <c r="M58" s="32">
+        <v>298</v>
+      </c>
+      <c r="N58" s="44" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="34" customFormat="1">
-      <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="47"/>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="41">
+        <v>0</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="32">
+        <v>3445</v>
+      </c>
+      <c r="F59" s="32">
+        <v>5551</v>
+      </c>
+      <c r="G59" s="32">
+        <v>6132</v>
+      </c>
+      <c r="H59" s="32">
+        <v>3410</v>
+      </c>
+      <c r="I59" s="32">
+        <v>1988</v>
+      </c>
+      <c r="J59" s="32">
+        <v>1043</v>
+      </c>
+      <c r="K59" s="32">
+        <v>564</v>
+      </c>
+      <c r="L59" s="32">
+        <v>2447</v>
+      </c>
+      <c r="M59" s="32">
+        <v>262</v>
+      </c>
+      <c r="N59" s="44" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="57" spans="1:11" s="34" customFormat="1">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="41">
+        <v>0</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="32">
+        <v>2493</v>
+      </c>
+      <c r="F60" s="32">
+        <v>4108</v>
+      </c>
+      <c r="G60" s="32">
+        <v>4732</v>
+      </c>
+      <c r="H60" s="32">
+        <v>2236</v>
+      </c>
+      <c r="I60" s="32">
+        <v>1649</v>
+      </c>
+      <c r="J60" s="32">
+        <v>892</v>
+      </c>
+      <c r="K60" s="32">
+        <v>369</v>
+      </c>
+      <c r="L60" s="32">
+        <v>1803</v>
+      </c>
+      <c r="M60" s="32">
+        <v>208</v>
+      </c>
+      <c r="N60" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="43">
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="65"/>
+      <c r="G61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="N61" s="44"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="41">
         <v>0</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="44">
-        <v>4470</v>
-      </c>
-      <c r="F57" s="44">
-        <v>6912</v>
-      </c>
-      <c r="G57" s="44">
-        <v>1135</v>
-      </c>
-      <c r="H57" s="44">
-        <v>921</v>
-      </c>
-      <c r="I57" s="44">
-        <v>3312</v>
-      </c>
-      <c r="J57" s="44">
-        <v>326</v>
-      </c>
-      <c r="K57" s="47" t="s">
-        <v>64</v>
+      <c r="C62" s="41"/>
+      <c r="D62" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="32">
+        <v>257884</v>
+      </c>
+      <c r="F62" s="32">
+        <v>462149</v>
+      </c>
+      <c r="G62" s="32">
+        <v>451752</v>
+      </c>
+      <c r="H62" s="32">
+        <v>276556</v>
+      </c>
+      <c r="I62" s="32">
+        <v>105362</v>
+      </c>
+      <c r="J62" s="32">
+        <v>390747</v>
+      </c>
+      <c r="K62" s="32">
+        <v>41555</v>
+      </c>
+      <c r="L62" s="32">
+        <v>279126</v>
+      </c>
+      <c r="M62" s="32">
+        <v>47665</v>
+      </c>
+      <c r="N62" s="44" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="34" customFormat="1">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="43">
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="57">
         <v>0</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="44">
-        <v>3741</v>
-      </c>
-      <c r="F58" s="44">
-        <v>6335</v>
-      </c>
-      <c r="G58" s="44">
-        <v>1179</v>
-      </c>
-      <c r="H58" s="44">
-        <v>733</v>
-      </c>
-      <c r="I58" s="44">
-        <v>2839</v>
-      </c>
-      <c r="J58" s="44">
-        <v>302</v>
-      </c>
-      <c r="K58" s="47" t="s">
-        <v>64</v>
+      <c r="C63" s="57"/>
+      <c r="D63" s="67">
+        <v>1276161</v>
+      </c>
+      <c r="E63" s="32">
+        <v>476553</v>
+      </c>
+      <c r="F63" s="32">
+        <v>462149</v>
+      </c>
+      <c r="G63" s="32">
+        <v>752841</v>
+      </c>
+      <c r="H63" s="32">
+        <v>350029</v>
+      </c>
+      <c r="I63" s="32">
+        <v>231577</v>
+      </c>
+      <c r="J63" s="32">
+        <v>437196</v>
+      </c>
+      <c r="K63" s="32">
+        <v>55515</v>
+      </c>
+      <c r="L63" s="32">
+        <v>343666</v>
+      </c>
+      <c r="M63" s="32">
+        <v>56430</v>
+      </c>
+      <c r="N63" s="44" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="43">
-        <v>0</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="44">
-        <v>2445</v>
-      </c>
-      <c r="F59" s="44">
-        <v>5046</v>
-      </c>
-      <c r="G59" s="44">
-        <v>1075</v>
-      </c>
-      <c r="H59" s="44">
-        <v>553</v>
-      </c>
-      <c r="I59" s="44">
-        <v>2025</v>
-      </c>
-      <c r="J59" s="44">
-        <v>266</v>
-      </c>
-      <c r="K59" s="47" t="s">
-        <v>64</v>
-      </c>
+    <row r="64" spans="1:14">
+      <c r="A64" s="5"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="43">
-        <v>0</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="44">
-        <v>1577</v>
-      </c>
-      <c r="F60" s="44">
-        <v>3796</v>
-      </c>
-      <c r="G60" s="44">
-        <v>921</v>
-      </c>
-      <c r="H60" s="44">
-        <v>363</v>
-      </c>
-      <c r="I60" s="44">
-        <v>1400</v>
-      </c>
-      <c r="J60" s="44">
-        <v>212</v>
-      </c>
-      <c r="K60" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="47"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="43">
-        <v>0</v>
-      </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="44">
-        <v>254939</v>
-      </c>
-      <c r="F62" s="44">
-        <v>480122</v>
-      </c>
-      <c r="G62" s="44">
-        <v>369467</v>
-      </c>
-      <c r="H62" s="44">
-        <v>40131</v>
-      </c>
-      <c r="I62" s="44">
-        <v>188068</v>
-      </c>
-      <c r="J62" s="44">
-        <v>48628</v>
-      </c>
-      <c r="K62" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="63">
-        <v>0</v>
-      </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="62">
-        <v>465073</v>
-      </c>
-      <c r="F63" s="62">
-        <v>751879</v>
-      </c>
-      <c r="G63" s="62">
-        <v>422332</v>
-      </c>
-      <c r="H63" s="62">
-        <v>53329</v>
-      </c>
-      <c r="I63" s="62">
-        <v>234329</v>
-      </c>
-      <c r="J63" s="62">
-        <v>57411</v>
-      </c>
-      <c r="K63" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="5"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-    </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:16">
       <c r="A65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:16">
       <c r="A66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="78" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="66" t="s">
+        <v>12</v>
       </c>
       <c r="E66" s="13">
-        <v>58171</v>
+        <v>58188</v>
       </c>
       <c r="F66" s="13">
-        <v>10350</v>
+        <v>15521</v>
       </c>
       <c r="G66" s="13">
+        <v>9631</v>
+      </c>
+      <c r="H66" s="13">
+        <v>8275</v>
+      </c>
+      <c r="I66" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="13">
         <v>14762</v>
       </c>
-      <c r="H66" s="13">
-        <f>16111+15430</f>
-        <v>31541</v>
-      </c>
-      <c r="I66" s="13">
-        <v>50240</v>
-      </c>
-      <c r="J66" s="18">
-        <v>0</v>
-      </c>
-      <c r="K66" s="18">
-        <v>0</v>
-      </c>
-      <c r="M66" s="34"/>
+      <c r="K66" s="13">
+        <f>16483+15525</f>
+        <v>32008</v>
+      </c>
+      <c r="L66" s="13">
+        <f>22118+39503</f>
+        <v>61621</v>
+      </c>
+      <c r="M66" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" s="32"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:16">
       <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="20">
-        <v>126449</v>
-      </c>
-      <c r="F67" s="23">
+      <c r="B67" s="24"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="19">
+        <v>126774</v>
+      </c>
+      <c r="F67" s="19">
+        <v>92043</v>
+      </c>
+      <c r="G67" s="22">
         <v>0</v>
       </c>
-      <c r="G67" s="23">
+      <c r="H67" s="22">
+        <v>0</v>
+      </c>
+      <c r="I67" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="22">
         <v>32121</v>
       </c>
-      <c r="H67" s="23">
+      <c r="K67" s="22">
         <v>0</v>
       </c>
-      <c r="I67" s="23">
-        <v>0</v>
-      </c>
-      <c r="J67" s="24">
-        <v>124093</v>
-      </c>
-      <c r="K67" s="24">
-        <v>124093</v>
-      </c>
-      <c r="M67" s="34"/>
+      <c r="L67" s="22">
+        <v>31190</v>
+      </c>
+      <c r="M67" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="32"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:16">
       <c r="A68" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="20">
+      <c r="B68" s="24"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="19">
         <v>2879448</v>
       </c>
-      <c r="F68" s="13">
-        <v>1102848</v>
-      </c>
-      <c r="G68" s="20">
-        <v>347136</v>
-      </c>
-      <c r="H68" s="20">
-        <v>2195968</v>
-      </c>
-      <c r="I68" s="20">
-        <v>3607552</v>
-      </c>
-      <c r="J68" s="21">
+      <c r="F68" s="19">
+        <v>684032</v>
+      </c>
+      <c r="G68" s="13">
+        <v>1224704</v>
+      </c>
+      <c r="H68" s="19">
+        <v>3126272</v>
+      </c>
+      <c r="I68" s="19">
+        <v>301056</v>
+      </c>
+      <c r="J68" s="19">
+        <v>354304</v>
+      </c>
+      <c r="K68" s="19">
+        <v>2210816</v>
+      </c>
+      <c r="L68" s="19">
+        <v>3999232</v>
+      </c>
+      <c r="M68" s="20">
         <v>280064</v>
       </c>
-      <c r="K68" s="21">
-        <v>280064</v>
-      </c>
-      <c r="M68" s="34"/>
+      <c r="N68" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" s="32"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:16">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="14"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:16">
       <c r="A70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="36" t="s">
-        <v>16</v>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="33"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="34" customFormat="1">
+    <row r="71" spans="1:16" s="32" customFormat="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:16">
       <c r="A72" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6380,87 +7283,105 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:13" s="34" customFormat="1">
+    <row r="73" spans="1:16" s="32" customFormat="1">
       <c r="A73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" spans="1:16" s="32" customFormat="1">
+      <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B74" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="N74" s="42"/>
+    </row>
+    <row r="75" spans="1:16" s="32" customFormat="1">
+      <c r="A75" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="K73" s="45"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="N75" s="42"/>
     </row>
-    <row r="74" spans="1:13" s="34" customFormat="1">
-      <c r="A74" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="70" t="s">
+    <row r="76" spans="1:16" s="32" customFormat="1">
+      <c r="A76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="K74" s="45"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="59"/>
     </row>
-    <row r="75" spans="1:13" s="34" customFormat="1">
-      <c r="A75" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="K75" s="45"/>
+    <row r="77" spans="1:16" s="29" customFormat="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="M77" s="36"/>
     </row>
-    <row r="76" spans="1:13" s="34" customFormat="1">
-      <c r="A76" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="70"/>
-    </row>
-    <row r="77" spans="1:13" s="31" customFormat="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="E77" s="38"/>
-      <c r="J77" s="38"/>
-    </row>
-    <row r="78" spans="1:13" s="38" customFormat="1">
+    <row r="78" spans="1:16" s="36" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -6468,42 +7389,35 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="36">
-      <c r="G88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="9"/>
+    <row r="88" spans="1:13" ht="36">
+      <c r="J88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="9"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:13">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="J95"/>
+      <c r="F95" s="2"/>
+      <c r="M95"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:13">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="J115"/>
-    </row>
-    <row r="136" spans="1:10" s="34" customFormat="1"/>
-    <row r="137" spans="1:10">
-      <c r="A137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="E137"/>
-      <c r="J137"/>
+      <c r="F115" s="2"/>
+      <c r="M115"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="colorScale" priority="1964">
+  <conditionalFormatting sqref="N59">
+    <cfRule type="colorScale" priority="2000">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6514,8 +7428,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="colorScale" priority="1960">
+  <conditionalFormatting sqref="N59">
+    <cfRule type="colorScale" priority="1996">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6523,12 +7437,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="59" priority="1961" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="58" priority="1962" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="57" priority="1963" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1437">
+    <cfRule type="top10" dxfId="60" priority="1997" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="59" priority="1998" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="58" priority="1999" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="colorScale" priority="1473">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6536,15 +7450,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="56" priority="1438" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="55" priority="1439" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="54" priority="1440" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="top10" dxfId="53" priority="1436" percent="1" rank="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1429">
+    <cfRule type="top10" dxfId="57" priority="1474" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="56" priority="1475" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="55" priority="1476" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="top10" dxfId="54" priority="1472" percent="1" rank="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="colorScale" priority="1465">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6552,12 +7466,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="52" priority="1430" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="51" priority="1431" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="50" priority="1432" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="1416">
+    <cfRule type="top10" dxfId="53" priority="1466" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="52" priority="1467" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="51" priority="1468" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="colorScale" priority="1452">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6568,8 +7482,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="colorScale" priority="1415">
+  <conditionalFormatting sqref="N61">
+    <cfRule type="colorScale" priority="1451">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6580,8 +7494,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="colorScale" priority="1405">
+  <conditionalFormatting sqref="N62">
+    <cfRule type="colorScale" priority="1441">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6592,8 +7506,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:K70">
-    <cfRule type="colorScale" priority="3250">
+  <conditionalFormatting sqref="J70:N70">
+    <cfRule type="colorScale" priority="3286">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6604,8 +7518,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:K69">
-    <cfRule type="colorScale" priority="3602">
+  <conditionalFormatting sqref="G69:N69">
+    <cfRule type="colorScale" priority="3638">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6616,8 +7530,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="3826">
+  <conditionalFormatting sqref="N5">
+    <cfRule type="colorScale" priority="3862">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6628,8 +7542,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="846">
+  <conditionalFormatting sqref="K70">
+    <cfRule type="colorScale" priority="882">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6637,12 +7551,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="49" priority="847" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="48" priority="848" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="47" priority="849" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="845">
+    <cfRule type="top10" dxfId="50" priority="883" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="49" priority="884" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="48" priority="885" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70">
+    <cfRule type="colorScale" priority="881">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6653,8 +7567,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="841">
+  <conditionalFormatting sqref="G70:I70">
+    <cfRule type="colorScale" priority="877">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6662,12 +7576,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="46" priority="842" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="45" priority="843" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="44" priority="844" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="840">
+    <cfRule type="top10" dxfId="47" priority="878" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="46" priority="879" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="45" priority="880" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:I70">
+    <cfRule type="colorScale" priority="876">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6679,7 +7593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="816">
+    <cfRule type="colorScale" priority="852">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6687,12 +7601,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="43" priority="817" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="42" priority="818" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="41" priority="819" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="853" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="43" priority="854" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="42" priority="855" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="815">
+    <cfRule type="colorScale" priority="851">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6704,7 +7618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="810">
+    <cfRule type="colorScale" priority="846">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -6712,12 +7626,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="40" priority="811" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="39" priority="812" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="38" priority="813" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="847" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="40" priority="848" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="39" priority="849" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="809">
+    <cfRule type="colorScale" priority="845">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6728,8 +7642,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="colorScale" priority="4741">
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="colorScale" priority="4777">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6740,8 +7654,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
-    <cfRule type="colorScale" priority="4749">
+  <conditionalFormatting sqref="E70:J70">
+    <cfRule type="colorScale" priority="4785">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6752,8 +7666,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="colorScale" priority="4754">
+  <conditionalFormatting sqref="E70:F70">
+    <cfRule type="colorScale" priority="4790">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6764,8 +7678,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K22:K30 K35">
-    <cfRule type="colorScale" priority="5092">
+  <conditionalFormatting sqref="N52:N59 N6:N19 N39:N49 N22:N30 N35">
+    <cfRule type="colorScale" priority="5128">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6776,8 +7690,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59">
-    <cfRule type="colorScale" priority="5097">
+  <conditionalFormatting sqref="N52:N59">
+    <cfRule type="colorScale" priority="5133">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6788,8 +7702,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:J18">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="B18:M18">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6800,8 +7714,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:J19">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="B19:M19">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6812,8 +7726,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:J25">
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="B25:M25">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6824,8 +7738,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:J26">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="B26:M26">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6836,8 +7750,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:J6">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="B6:M6">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6848,8 +7762,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:J7">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="B7:M7">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6860,8 +7774,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:J8">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="B8:M8">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6872,8 +7786,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:J9">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="B9:M9">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6884,8 +7798,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:J10">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="B10:M10">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6896,8 +7810,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:J11">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="B11:M11">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6908,8 +7822,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:J12">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="B12:M12">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6920,8 +7834,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:J13">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="B13:M13">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6932,8 +7846,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:J14">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="B14:M14">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6944,8 +7858,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J15">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="B15:M15">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6956,8 +7870,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:J16">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="B16:M16">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6968,8 +7882,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:J17">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="B17:M17">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6980,8 +7894,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:J23">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="B23:M23">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6992,8 +7906,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:J24">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="B24:M24">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7004,8 +7918,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:J27">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="B27:M27">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7016,8 +7930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:J39">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="B39:C39 E39:M39">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7028,8 +7942,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:J41">
-    <cfRule type="colorScale" priority="121">
+  <conditionalFormatting sqref="B41:C41 E41:M41">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7040,8 +7954,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:J42">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="B42:C42 E42:M42">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7052,8 +7966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:J43">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="B43:C43 E43:M43">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7064,8 +7978,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:J44">
-    <cfRule type="colorScale" priority="124">
+  <conditionalFormatting sqref="B44:C44 E44:M44">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7076,8 +7990,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:J46">
-    <cfRule type="colorScale" priority="126">
+  <conditionalFormatting sqref="B46:C46 E46:M46">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7088,8 +8002,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:J47">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="B47:C47 E47:M47">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7100,8 +8014,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:J48">
-    <cfRule type="colorScale" priority="128">
+  <conditionalFormatting sqref="B48:C48 E48:M48">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7112,8 +8026,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:J49">
-    <cfRule type="colorScale" priority="129">
+  <conditionalFormatting sqref="B49:C49 E49:M49">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7124,8 +8038,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:J53">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B53:C53 E53:M53">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7136,8 +8050,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:J54">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B54:C54 E54:M54">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7148,8 +8062,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:J55">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B55:C55 E55:M55">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7160,8 +8074,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:J57">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B57:C57 E57:M57">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7172,8 +8086,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:J58">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B58:C58 E58:M58">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7184,8 +8098,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:J59">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B59:C59 E59:M59">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7196,8 +8110,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:J60">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B60:C60 E60:M60">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7208,8 +8122,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:J62">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="B62:C62 E62:M62">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7220,8 +8134,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K63">
-    <cfRule type="colorScale" priority="5119">
+  <conditionalFormatting sqref="N62:N63">
+    <cfRule type="colorScale" priority="5155">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7232,8 +8146,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K19 K35 K39:K49 K52:K59 K22:K30">
-    <cfRule type="colorScale" priority="5197">
+  <conditionalFormatting sqref="N6:N19 N35 N39:N49 N52:N59 N22:N30">
+    <cfRule type="colorScale" priority="5233">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7244,8 +8158,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K59 K6:K19 K39:K49 K35 K22:K30">
-    <cfRule type="colorScale" priority="5267">
+  <conditionalFormatting sqref="N52:N59 N6:N19 N39:N49 N35 N22:N30">
+    <cfRule type="colorScale" priority="5303">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7256,8 +8170,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:J63">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="B63:C63 E63:M63">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7269,7 +8183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="colorScale" priority="265">
+    <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7281,7 +8195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="colorScale" priority="264">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7293,7 +8207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="colorScale" priority="263">
+    <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7305,7 +8219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="262">
+    <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7317,7 +8231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="261">
+    <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7329,7 +8243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="260">
+    <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7340,8 +8254,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="5298">
+  <conditionalFormatting sqref="J70">
+    <cfRule type="colorScale" priority="5334">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7352,8 +8266,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="G71:N71">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7364,8 +8278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:K71">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="G71:N71">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7373,12 +8287,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="37" priority="51" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="36" priority="52" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="35" priority="53" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="top10" dxfId="38" priority="87" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="37" priority="88" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="36" priority="89" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7386,12 +8300,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="34" priority="47" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="33" priority="48" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="32" priority="49" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="top10" dxfId="35" priority="83" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="34" priority="84" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="33" priority="85" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:N29">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7399,12 +8313,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="31" priority="43" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="30" priority="44" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="29" priority="45" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:K29">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="top10" dxfId="32" priority="79" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="31" priority="80" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="30" priority="81" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:N29">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7415,8 +8329,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="G28:N28">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7427,8 +8341,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K28">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="G28:N28">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7436,12 +8350,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="28" priority="37" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="27" priority="38" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="26" priority="39" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="top10" dxfId="29" priority="73" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="28" priority="74" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="27" priority="75" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7449,12 +8363,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="25" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="24" priority="34" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="23" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="top10" dxfId="26" priority="69" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="25" priority="70" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="24" priority="71" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7465,8 +8379,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="G29:I29">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7474,12 +8388,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="22" priority="28" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="21" priority="29" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="20" priority="30" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="top10" dxfId="23" priority="64" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="22" priority="65" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="21" priority="66" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:I29">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7491,7 +8405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7499,12 +8413,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="23" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="18" priority="24" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="17" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="59" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="19" priority="60" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="18" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7515,8 +8429,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="E29:J29">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7524,12 +8438,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="16" priority="18" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="15" priority="19" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="14" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:G29">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="top10" dxfId="17" priority="54" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="16" priority="55" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="15" priority="56" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:J29">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7540,8 +8454,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7549,12 +8463,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="13" priority="13" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="12" priority="14" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="11" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="top10" dxfId="14" priority="49" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="13" priority="50" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="12" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7565,8 +8479,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7577,8 +8491,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:K30">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="G30:N30">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7589,8 +8503,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:J22 J23">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M22:M23 B22:D22 I23">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7601,8 +8515,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J23">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="M22:M23">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7613,8 +8527,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7625,8 +8539,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7637,18 +8551,164 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="11" priority="32" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="10" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="9" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="8" priority="27" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="7" priority="28" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="6" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="5" priority="12" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="4" priority="13" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="3" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="2" priority="7" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="1" priority="8" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="0" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K59" r:id="rId1" display="Description"/>
+    <hyperlink ref="N59" r:id="rId1" display="Description"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId2"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="35" max="16383" man="1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId2"/>
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="77" max="16383" man="1"/>
-    <brk id="136" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="D39:D63" numberStoredAsText="1"/>
+    <ignoredError sqref="D50 D56:D62 D52:D54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <tableParts count="1">

--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -11,15 +11,314 @@
   </sheets>
   <definedNames>
     <definedName name="LargePageSize">'1000'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1000'!$A$1:$N$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1000'!$A$1:$M$156</definedName>
     <definedName name="SmallPageSize">'1000'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alex Yakunin</author>
+  </authors>
+  <commentList>
+    <comment ref="G46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API:
+SqlQuery&lt;T&gt;.Insert(…, int batchSize, IEnumerable&lt;T&gt; sequence)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API: ISessionFactory.OpenStatelessSession is used in this test.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API:
+SqlQuery&lt;T&gt;.Update(…, int batchSize, IEnumerable&lt;T&gt; sequence)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API: ISessionFactory.OpenStatelessSession is used in this test.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API:
+SqlQuery&lt;T&gt;.Delete(…, int batchSize, IEnumerable&lt;T&gt; sequence)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Specialized API: ISessionFactory.OpenStatelessSession is used in this test.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Complied queries are not supported, result is copied from above cell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Complied queries are not supported, result is copied from above cell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Complied queries are not supported, result is copied from above cell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+No native queries, result is copied from above cell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Yakunin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+No native queries, result is copied from above cell.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t>SqlClient</t>
   </si>
@@ -103,9 +402,6 @@
     <t>BLToolkit</t>
   </si>
   <si>
-    <t>Worst result</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -311,9 +607,6 @@
   </si>
   <si>
     <t>LINQ to SQL</t>
-  </si>
-  <si>
-    <t>EntitySpaces</t>
   </si>
   <si>
     <t>DataObjects.Net</t>
@@ -329,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,8 +842,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,16 +1071,6 @@
     <fill>
       <gradientFill>
         <stop position="0">
-          <color rgb="FFF8696B"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFA9072"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill>
-        <stop position="0">
           <color rgb="FFFDD17F"/>
         </stop>
         <stop position="1">
@@ -833,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1016,6 +1314,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1065,7 +1406,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,9 +1454,9 @@
     <xf numFmtId="1" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1129,8 +1470,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="44" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="43" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1139,14 +1480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1168,12 +1508,12 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="45" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="17" fillId="44" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="44" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1183,11 +1523,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1206,15 +1546,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="42" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1261,7 +1604,249 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1994,266 +2579,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2322,9 +2647,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2338,18 +2663,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2357,10 +2679,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$44:$M$44</c:f>
+              <c:f>'1000'!$E$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4641</c:v>
                 </c:pt>
@@ -2374,18 +2696,15 @@
                   <c:v>9147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2128</c:v>
+                  <c:v>4859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4859</c:v>
+                  <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1421</c:v>
+                  <c:v>9959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9959</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4105</c:v>
                 </c:pt>
               </c:numCache>
@@ -2408,9 +2727,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2424,18 +2743,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2443,10 +2759,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$43:$M$43</c:f>
+              <c:f>'1000'!$E$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5955</c:v>
                 </c:pt>
@@ -2460,18 +2776,15 @@
                   <c:v>10785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2646</c:v>
+                  <c:v>4776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4776</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1440</c:v>
+                  <c:v>10936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10936</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4354</c:v>
                 </c:pt>
               </c:numCache>
@@ -2494,9 +2807,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2510,18 +2823,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2529,10 +2839,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$42:$M$42</c:f>
+              <c:f>'1000'!$E$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3898</c:v>
                 </c:pt>
@@ -2546,18 +2856,15 @@
                   <c:v>9948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1681</c:v>
+                  <c:v>4955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4955</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>871</c:v>
+                  <c:v>9609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9609</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4099</c:v>
                 </c:pt>
               </c:numCache>
@@ -2580,9 +2887,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2596,18 +2903,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2615,10 +2919,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$41:$M$41</c:f>
+              <c:f>'1000'!$E$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4566</c:v>
                 </c:pt>
@@ -2632,18 +2936,15 @@
                   <c:v>7441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2292</c:v>
+                  <c:v>4851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4851</c:v>
+                  <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3741</c:v>
+                  <c:v>9848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9848</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4167</c:v>
                 </c:pt>
               </c:numCache>
@@ -2652,25 +2953,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="48170496"/>
-        <c:axId val="48468736"/>
+        <c:axId val="115203456"/>
+        <c:axId val="115500160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48170496"/>
+        <c:axId val="115203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48468736"/>
+        <c:crossAx val="115500160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48468736"/>
+        <c:axId val="115500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2680,7 +2981,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48170496"/>
+        <c:crossAx val="115203456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,7 +2994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2751,9 +3052,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2767,18 +3068,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2786,10 +3084,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$63:$M$63</c:f>
+              <c:f>'1000'!$E$63:$L$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>476553</c:v>
                 </c:pt>
@@ -2803,18 +3101,15 @@
                   <c:v>350029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>231577</c:v>
+                  <c:v>437196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>437196</c:v>
+                  <c:v>55515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55515</c:v>
+                  <c:v>343666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>343666</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>56430</c:v>
                 </c:pt>
               </c:numCache>
@@ -2837,9 +3132,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -2853,18 +3148,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -2872,10 +3164,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$62:$M$62</c:f>
+              <c:f>'1000'!$E$62:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>257884</c:v>
                 </c:pt>
@@ -2889,18 +3181,15 @@
                   <c:v>276556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105362</c:v>
+                  <c:v>390747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390747</c:v>
+                  <c:v>41555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41555</c:v>
+                  <c:v>279126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279126</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>47665</c:v>
                 </c:pt>
               </c:numCache>
@@ -2909,25 +3198,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="84807040"/>
-        <c:axId val="100981376"/>
+        <c:axId val="115533696"/>
+        <c:axId val="115535232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84807040"/>
+        <c:axId val="115533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100981376"/>
+        <c:crossAx val="115535232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100981376"/>
+        <c:axId val="115535232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +3225,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84807040"/>
+        <c:crossAx val="115533696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="150000"/>
@@ -2950,7 +3239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3007,9 +3296,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3023,18 +3312,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3042,10 +3328,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$55:$M$55</c:f>
+              <c:f>'1000'!$E$55:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9728</c:v>
                 </c:pt>
@@ -3059,18 +3345,15 @@
                   <c:v>10335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8465</c:v>
+                  <c:v>10424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10424</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5494</c:v>
+                  <c:v>6590</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6590</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>7312</c:v>
                 </c:pt>
               </c:numCache>
@@ -3093,9 +3376,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3109,18 +3392,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3128,10 +3408,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$53:$M$53</c:f>
+              <c:f>'1000'!$E$53:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>450</c:v>
                 </c:pt>
@@ -3145,18 +3425,15 @@
                   <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>933</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1290</c:v>
+                  <c:v>1156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1156</c:v>
+                  <c:v>4168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4168</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
@@ -3179,10 +3456,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$54:$M$54</c:f>
+              <c:f>'1000'!$E$54:$L$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6501</c:v>
                 </c:pt>
@@ -3196,18 +3473,15 @@
                   <c:v>8046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2395</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1290</c:v>
+                  <c:v>1156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1156</c:v>
+                  <c:v>4269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4269</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
@@ -3216,25 +3490,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116241536"/>
-        <c:axId val="116243456"/>
+        <c:axId val="115794688"/>
+        <c:axId val="115796224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116241536"/>
+        <c:axId val="115794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116243456"/>
+        <c:crossAx val="115796224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116243456"/>
+        <c:axId val="115796224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3517,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116241536"/>
+        <c:crossAx val="115794688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,7 +3530,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3314,9 +3588,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3330,18 +3604,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3349,10 +3620,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$39:$M$39</c:f>
+              <c:f>'1000'!$E$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4634</c:v>
                 </c:pt>
@@ -3366,18 +3637,15 @@
                   <c:v>9433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7952</c:v>
+                  <c:v>10444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10444</c:v>
+                  <c:v>7289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7289</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6611</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8765</c:v>
                 </c:pt>
               </c:numCache>
@@ -3386,25 +3654,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="116691328"/>
-        <c:axId val="118458240"/>
+        <c:axId val="115419008"/>
+        <c:axId val="115420544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116691328"/>
+        <c:axId val="115419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118458240"/>
+        <c:crossAx val="115420544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118458240"/>
+        <c:axId val="115420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3681,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116691328"/>
+        <c:crossAx val="115419008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3426,7 +3694,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3483,9 +3751,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3499,18 +3767,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3518,10 +3783,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$27:$M$27</c:f>
+              <c:f>'1000'!$E$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>74.400000000000006</c:v>
                 </c:pt>
@@ -3534,19 +3799,16 @@
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>0</c:v>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>60.7</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="7" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3555,25 +3817,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="255347328"/>
-        <c:axId val="255603072"/>
+        <c:axId val="115448832"/>
+        <c:axId val="115462912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255347328"/>
+        <c:axId val="115448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255603072"/>
+        <c:crossAx val="115462912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255603072"/>
+        <c:axId val="115462912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3584,7 +3846,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255347328"/>
+        <c:crossAx val="115448832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3597,7 +3859,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3655,9 +3917,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3671,18 +3933,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3690,10 +3949,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$60:$M$60</c:f>
+              <c:f>'1000'!$E$60:$L$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2493</c:v>
                 </c:pt>
@@ -3707,18 +3966,15 @@
                   <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1649</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>892</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>369</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1803</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
@@ -3741,9 +3997,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3757,18 +4013,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3776,10 +4029,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$59:$M$59</c:f>
+              <c:f>'1000'!$E$59:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3445</c:v>
                 </c:pt>
@@ -3793,18 +4046,15 @@
                   <c:v>3410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1988</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1043</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>564</c:v>
+                  <c:v>2447</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2447</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
@@ -3827,9 +4077,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3843,18 +4093,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3862,10 +4109,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$58:$M$58</c:f>
+              <c:f>'1000'!$E$58:$L$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4494</c:v>
                 </c:pt>
@@ -3879,18 +4126,15 @@
                   <c:v>5051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2312</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1175</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>726</c:v>
+                  <c:v>3130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3130</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
@@ -3913,9 +4157,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -3929,18 +4173,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -3948,10 +4189,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$57:$M$57</c:f>
+              <c:f>'1000'!$E$57:$L$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5009</c:v>
                 </c:pt>
@@ -3965,18 +4206,15 @@
                   <c:v>6199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2107</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1105</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>907</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3458</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
@@ -3985,25 +4223,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="100905344"/>
-        <c:axId val="100906880"/>
+        <c:axId val="115900416"/>
+        <c:axId val="115901952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100905344"/>
+        <c:axId val="115900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100906880"/>
+        <c:crossAx val="115901952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100906880"/>
+        <c:axId val="115901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +4250,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100905344"/>
+        <c:crossAx val="115900416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,7 +4273,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4093,9 +4331,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -4109,18 +4347,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -4128,10 +4363,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$49:$M$49</c:f>
+              <c:f>'1000'!$E$49:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6997</c:v>
                 </c:pt>
@@ -4145,18 +4380,15 @@
                   <c:v>24729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7880</c:v>
+                  <c:v>19538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19538</c:v>
+                  <c:v>18623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18623</c:v>
+                  <c:v>14579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14579</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4167</c:v>
                 </c:pt>
               </c:numCache>
@@ -4179,9 +4411,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -4195,18 +4427,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -4214,10 +4443,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$48:$M$48</c:f>
+              <c:f>'1000'!$E$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9365</c:v>
                 </c:pt>
@@ -4231,18 +4460,15 @@
                   <c:v>42499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12084</c:v>
+                  <c:v>26199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26199</c:v>
+                  <c:v>18551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18551</c:v>
+                  <c:v>24022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24022</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4472</c:v>
                 </c:pt>
               </c:numCache>
@@ -4265,9 +4491,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -4281,18 +4507,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -4300,10 +4523,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$47:$M$47</c:f>
+              <c:f>'1000'!$E$47:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6199</c:v>
                 </c:pt>
@@ -4317,18 +4540,15 @@
                   <c:v>33320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8808</c:v>
+                  <c:v>27537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27537</c:v>
+                  <c:v>17259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17259</c:v>
+                  <c:v>15497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15497</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4154</c:v>
                 </c:pt>
               </c:numCache>
@@ -4351,9 +4571,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'1000'!$E$4:$M$4</c:f>
+              <c:f>'1000'!$E$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Entity Framework</c:v>
                 </c:pt>
@@ -4367,18 +4587,15 @@
                   <c:v>DataObjects.Net</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>EntitySpaces</c:v>
+                  <c:v>Lightspeed</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Lightspeed</c:v>
+                  <c:v>NHibernate</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NHibernate</c:v>
+                  <c:v>OpenAccess</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>OpenAccess</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Subsonic</c:v>
                 </c:pt>
               </c:strCache>
@@ -4386,10 +4603,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1000'!$E$46:$M$46</c:f>
+              <c:f>'1000'!$E$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7915</c:v>
                 </c:pt>
@@ -4403,18 +4620,15 @@
                   <c:v>14988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5463</c:v>
+                  <c:v>12649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12649</c:v>
+                  <c:v>20587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20587</c:v>
+                  <c:v>10197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10197</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4010</c:v>
                 </c:pt>
               </c:numCache>
@@ -4423,25 +4637,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="101121024"/>
-        <c:axId val="101122816"/>
+        <c:axId val="115927680"/>
+        <c:axId val="115945856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101121024"/>
+        <c:axId val="115927680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101122816"/>
+        <c:crossAx val="115945856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101122816"/>
+        <c:axId val="115945856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4451,7 +4665,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101121024"/>
+        <c:crossAx val="115927680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4464,7 +4678,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4475,13 +4689,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
+      <xdr:colOff>23130</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635955</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636930</xdr:colOff>
       <xdr:row>154</xdr:row>
       <xdr:rowOff>167651</xdr:rowOff>
     </xdr:to>
@@ -4510,8 +4724,8 @@
       <xdr:rowOff>3183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547125</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>175981</xdr:rowOff>
     </xdr:to>
@@ -4540,8 +4754,8 @@
       <xdr:rowOff>186880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547125</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>169178</xdr:rowOff>
     </xdr:to>
@@ -4565,13 +4779,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
+      <xdr:colOff>23130</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635955</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636930</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>173722</xdr:rowOff>
     </xdr:to>
@@ -4600,8 +4814,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547125</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>91156</xdr:rowOff>
     </xdr:to>
@@ -4625,13 +4839,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>489855</xdr:colOff>
+      <xdr:colOff>23130</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>2040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635955</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636930</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>173040</xdr:rowOff>
     </xdr:to>
@@ -4660,8 +4874,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547125</xdr:colOff>
       <xdr:row>154</xdr:row>
       <xdr:rowOff>170594</xdr:rowOff>
     </xdr:to>
@@ -4686,32 +4900,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:N76" totalsRowShown="0" headerRowDxfId="74">
-  <autoFilter ref="A4:N76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:M76" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A4:M76">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="12"/>
+    <filterColumn colId="11"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Test name" dataDxfId="73"/>
-    <tableColumn id="14" name="Minimum" dataDxfId="72"/>
-    <tableColumn id="13" name="Maximum" dataDxfId="71"/>
-    <tableColumn id="10" name="SqlClient" dataDxfId="70"/>
-    <tableColumn id="3" name="Entity Framework" dataDxfId="69"/>
-    <tableColumn id="9" name="LINQ to SQL" dataDxfId="68"/>
-    <tableColumn id="2" name="BLToolkit" dataDxfId="67"/>
-    <tableColumn id="15" name="DataObjects.Net" dataDxfId="66"/>
-    <tableColumn id="12" name="EntitySpaces" dataDxfId="65"/>
-    <tableColumn id="4" name="Lightspeed" dataDxfId="64"/>
-    <tableColumn id="6" name="NHibernate" dataDxfId="63"/>
-    <tableColumn id="7" name="OpenAccess" dataDxfId="62"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Test name" dataDxfId="11"/>
+    <tableColumn id="14" name="Minimum" dataDxfId="10"/>
+    <tableColumn id="13" name="Maximum" dataDxfId="9"/>
+    <tableColumn id="10" name="SqlClient" dataDxfId="8"/>
+    <tableColumn id="3" name="Entity Framework" dataDxfId="7"/>
+    <tableColumn id="9" name="LINQ to SQL" dataDxfId="6"/>
+    <tableColumn id="2" name="BLToolkit" dataDxfId="5"/>
+    <tableColumn id="15" name="DataObjects.Net" dataDxfId="4"/>
+    <tableColumn id="4" name="Lightspeed" dataDxfId="3"/>
+    <tableColumn id="6" name="NHibernate" dataDxfId="2"/>
+    <tableColumn id="7" name="OpenAccess" dataDxfId="1"/>
     <tableColumn id="11" name="Subsonic"/>
-    <tableColumn id="8" name="Unit" dataDxfId="61"/>
+    <tableColumn id="8" name="Unit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5003,9 +5215,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5014,25 +5228,25 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" style="32" customWidth="1"/>
-    <col min="10" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="32" customWidth="1"/>
+    <col min="9" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1">
+    <row r="3" spans="1:13" s="12" customFormat="1">
       <c r="A3" s="30"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5041,62 +5255,58 @@
       <c r="F3" s="35"/>
       <c r="G3" s="31"/>
       <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37" t="s">
-        <v>87</v>
+      <c r="M3" s="71" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="87.75">
+    <row r="4" spans="1:13" ht="87.75">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5108,21 +5318,20 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="23"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:14" s="32" customFormat="1">
+    <row r="6" spans="1:13" s="32" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="49">
+        <v>20</v>
+      </c>
+      <c r="B6" s="48">
         <v>0</v>
       </c>
       <c r="C6" s="32">
         <v>5</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="32">
@@ -5137,36 +5346,33 @@
       <c r="H6" s="32">
         <v>0</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>12</v>
+      <c r="I6" s="32">
+        <v>3</v>
       </c>
       <c r="J6" s="32">
         <v>3</v>
       </c>
       <c r="K6" s="32">
-        <v>3</v>
-      </c>
-      <c r="L6" s="32">
         <v>2</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="M6" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="32" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="32" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>0</v>
       </c>
       <c r="C7" s="32">
         <v>6</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="32">
@@ -5181,36 +5387,33 @@
       <c r="H7" s="32">
         <v>0</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="32">
+        <v>6</v>
+      </c>
+      <c r="J7" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="K7" s="32">
+        <v>4</v>
+      </c>
+      <c r="L7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="32">
-        <v>6</v>
-      </c>
-      <c r="K7" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="L7" s="32">
-        <v>4</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>22</v>
+      <c r="M7" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="32" customFormat="1">
+    <row r="8" spans="1:13" s="32" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="49">
+        <v>23</v>
+      </c>
+      <c r="B8" s="48">
         <v>0</v>
       </c>
       <c r="C8" s="32">
         <v>6</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="32">
@@ -5225,36 +5428,33 @@
       <c r="H8" s="32">
         <v>0</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>12</v>
+      <c r="I8" s="32">
+        <v>6</v>
       </c>
       <c r="J8" s="32">
         <v>6</v>
       </c>
       <c r="K8" s="32">
-        <v>6</v>
-      </c>
-      <c r="L8" s="32">
         <v>5</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="44" t="s">
-        <v>22</v>
+      <c r="M8" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="32" customFormat="1">
+    <row r="9" spans="1:13" s="32" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="49">
+        <v>24</v>
+      </c>
+      <c r="B9" s="48">
         <v>0</v>
       </c>
       <c r="C9" s="32">
         <v>9</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="32">
@@ -5269,36 +5469,33 @@
       <c r="H9" s="32">
         <v>0</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>12</v>
+      <c r="I9" s="32">
+        <v>6</v>
       </c>
       <c r="J9" s="32">
         <v>6</v>
       </c>
       <c r="K9" s="32">
-        <v>6</v>
-      </c>
-      <c r="L9" s="32">
         <v>5</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="L9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="44" t="s">
-        <v>22</v>
+      <c r="M9" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="32" customFormat="1">
+    <row r="10" spans="1:13" s="32" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="49">
+        <v>25</v>
+      </c>
+      <c r="B10" s="48">
         <v>0</v>
       </c>
       <c r="C10" s="32">
         <v>12</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="32">
@@ -5313,36 +5510,33 @@
       <c r="H10" s="32">
         <v>0</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="J10" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="K10" s="32">
+        <v>2</v>
+      </c>
+      <c r="L10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="K10" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="L10" s="32">
-        <v>2</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>22</v>
+      <c r="M10" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="32" customFormat="1">
+    <row r="11" spans="1:13" s="32" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="49">
+        <v>26</v>
+      </c>
+      <c r="B11" s="48">
         <v>0</v>
       </c>
       <c r="C11" s="32">
         <v>10</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="32">
@@ -5357,36 +5551,33 @@
       <c r="H11" s="32">
         <v>0</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="32">
+        <v>10</v>
+      </c>
+      <c r="J11" s="32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K11" s="32">
+        <v>5</v>
+      </c>
+      <c r="L11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="32">
-        <v>10</v>
-      </c>
-      <c r="K11" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="L11" s="32">
-        <v>5</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>22</v>
+      <c r="M11" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="32" customFormat="1">
+    <row r="12" spans="1:13" s="32" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="49">
+        <v>27</v>
+      </c>
+      <c r="B12" s="48">
         <v>0</v>
       </c>
       <c r="C12" s="32">
         <v>4</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="32">
@@ -5401,36 +5592,33 @@
       <c r="H12" s="32">
         <v>0</v>
       </c>
-      <c r="I12" s="58" t="s">
-        <v>12</v>
+      <c r="I12" s="32">
+        <v>4</v>
       </c>
       <c r="J12" s="32">
         <v>4</v>
       </c>
       <c r="K12" s="32">
-        <v>4</v>
-      </c>
-      <c r="L12" s="32">
         <v>2</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="44" t="s">
-        <v>22</v>
+      <c r="M12" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="32" customFormat="1">
+    <row r="13" spans="1:13" s="32" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="49">
+        <v>28</v>
+      </c>
+      <c r="B13" s="48">
         <v>0</v>
       </c>
       <c r="C13" s="32">
         <v>8</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="32">
@@ -5445,36 +5633,33 @@
       <c r="H13" s="32">
         <v>0</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J13" s="32">
+        <v>6</v>
+      </c>
+      <c r="K13" s="32">
+        <v>3</v>
+      </c>
+      <c r="L13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K13" s="32">
-        <v>6</v>
-      </c>
-      <c r="L13" s="32">
-        <v>3</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>22</v>
+      <c r="M13" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="32" customFormat="1">
+    <row r="14" spans="1:13" s="32" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="49">
+        <v>29</v>
+      </c>
+      <c r="B14" s="48">
         <v>0</v>
       </c>
       <c r="C14" s="32">
         <v>13</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="32">
@@ -5489,36 +5674,33 @@
       <c r="H14" s="32">
         <v>0</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J14" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="K14" s="32">
+        <v>3</v>
+      </c>
+      <c r="L14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K14" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="L14" s="32">
-        <v>3</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>22</v>
+      <c r="M14" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="32" customFormat="1">
+    <row r="15" spans="1:13" s="32" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="49">
+        <v>30</v>
+      </c>
+      <c r="B15" s="48">
         <v>0</v>
       </c>
       <c r="C15" s="32">
         <v>4</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="32">
@@ -5533,36 +5715,33 @@
       <c r="H15" s="32">
         <v>0</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="32">
+        <v>4</v>
+      </c>
+      <c r="J15" s="32">
+        <v>3</v>
+      </c>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32">
-        <v>4</v>
-      </c>
-      <c r="K15" s="32">
-        <v>3</v>
-      </c>
-      <c r="L15" s="32">
-        <v>1</v>
-      </c>
-      <c r="M15" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>22</v>
+      <c r="M15" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="32" customFormat="1">
+    <row r="16" spans="1:13" s="32" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="49">
+        <v>31</v>
+      </c>
+      <c r="B16" s="48">
         <v>0</v>
       </c>
       <c r="C16" s="32">
         <v>9</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="32">
@@ -5577,36 +5756,33 @@
       <c r="H16" s="32">
         <v>0</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J16" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="K16" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K16" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="L16" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>22</v>
+      <c r="M16" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="32" customFormat="1">
+    <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="49">
+        <v>32</v>
+      </c>
+      <c r="B17" s="48">
         <v>0</v>
       </c>
       <c r="C17" s="32">
         <v>21</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="32">
@@ -5621,36 +5797,33 @@
       <c r="H17" s="32">
         <v>0</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="32">
+        <v>8</v>
+      </c>
+      <c r="J17" s="32">
+        <v>16</v>
+      </c>
+      <c r="K17" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="L17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="32">
-        <v>8</v>
-      </c>
-      <c r="K17" s="32">
-        <v>16</v>
-      </c>
-      <c r="L17" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>22</v>
+      <c r="M17" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="32" customFormat="1">
+    <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="49">
+        <v>33</v>
+      </c>
+      <c r="B18" s="48">
         <v>0</v>
       </c>
       <c r="C18" s="32">
         <v>5</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="32">
@@ -5665,36 +5838,33 @@
       <c r="H18" s="32">
         <v>0</v>
       </c>
-      <c r="I18" s="58" t="s">
-        <v>12</v>
+      <c r="I18" s="32">
+        <v>2.1</v>
       </c>
       <c r="J18" s="32">
         <v>2.1</v>
       </c>
       <c r="K18" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="L18" s="32">
         <v>2</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="L18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="44" t="s">
-        <v>22</v>
+      <c r="M18" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="32" customFormat="1">
+    <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="49">
+        <v>34</v>
+      </c>
+      <c r="B19" s="48">
         <v>0</v>
       </c>
       <c r="C19" s="32">
         <v>5</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="32">
@@ -5709,93 +5879,98 @@
       <c r="H19" s="32">
         <v>0</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>4</v>
+      </c>
+      <c r="K19" s="32">
+        <v>2</v>
+      </c>
+      <c r="L19" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="K19" s="32">
-        <v>4</v>
-      </c>
-      <c r="L19" s="32">
-        <v>2</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>22</v>
+      <c r="M19" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="32" customFormat="1">
+    <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="1:14" s="32" customFormat="1">
+    <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:14" s="32" customFormat="1">
+    <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="57">
+        <v>35</v>
+      </c>
+      <c r="B22" s="56">
         <v>0</v>
       </c>
       <c r="C22" s="32">
         <v>117</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="55">
         <v>117</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="55">
         <v>117</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="55">
         <v>117</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="55">
         <v>117</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="55">
+        <v>117</v>
+      </c>
+      <c r="J22" s="55">
+        <v>117</v>
+      </c>
+      <c r="K22" s="55">
+        <v>117</v>
+      </c>
+      <c r="L22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="56">
-        <v>117</v>
-      </c>
-      <c r="K22" s="56">
-        <v>117</v>
-      </c>
-      <c r="L22" s="56">
-        <v>117</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="44" t="s">
+      <c r="M22" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="32" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="32" customFormat="1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="57">
+      <c r="B23" s="56">
         <v>0</v>
       </c>
       <c r="C23" s="32">
         <v>117</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="32">
@@ -5810,36 +5985,33 @@
       <c r="H23" s="32">
         <v>117</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="32">
+        <v>41</v>
+      </c>
+      <c r="J23" s="32">
+        <v>35</v>
+      </c>
+      <c r="K23" s="32">
+        <v>71</v>
+      </c>
+      <c r="L23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="32">
-        <v>41</v>
-      </c>
-      <c r="K23" s="32">
-        <v>35</v>
-      </c>
-      <c r="L23" s="32">
-        <v>71</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>37</v>
+      <c r="M23" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="32" customFormat="1">
+    <row r="24" spans="1:13" s="32" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="49">
+        <v>38</v>
+      </c>
+      <c r="B24" s="48">
         <v>0</v>
       </c>
       <c r="C24" s="32">
         <v>117</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="32">
@@ -5854,36 +6026,33 @@
       <c r="H24" s="32">
         <v>0</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="32">
+        <v>76</v>
+      </c>
+      <c r="J24" s="32">
+        <v>82</v>
+      </c>
+      <c r="K24" s="32">
+        <v>46</v>
+      </c>
+      <c r="L24" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="32">
-        <v>76</v>
-      </c>
-      <c r="K24" s="32">
-        <v>82</v>
-      </c>
-      <c r="L24" s="32">
-        <v>46</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>37</v>
+      <c r="M24" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="32" customFormat="1">
+    <row r="25" spans="1:13" s="32" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="49">
+        <v>39</v>
+      </c>
+      <c r="B25" s="48">
         <v>0</v>
       </c>
       <c r="C25" s="32">
         <v>117</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="32">
@@ -5898,36 +6067,33 @@
       <c r="H25" s="32">
         <v>0</v>
       </c>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="32">
+        <v>65</v>
+      </c>
+      <c r="J25" s="32">
+        <v>73</v>
+      </c>
+      <c r="K25" s="32">
+        <v>44</v>
+      </c>
+      <c r="L25" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="32">
-        <v>65</v>
-      </c>
-      <c r="K25" s="32">
-        <v>73</v>
-      </c>
-      <c r="L25" s="32">
-        <v>44</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>37</v>
+      <c r="M25" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="32" customFormat="1">
+    <row r="26" spans="1:13" s="32" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="49">
+        <v>40</v>
+      </c>
+      <c r="B26" s="48">
         <v>0</v>
       </c>
       <c r="C26" s="32">
         <v>117</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="66" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="32">
@@ -5942,36 +6108,33 @@
       <c r="H26" s="32">
         <v>0</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="32">
+        <v>11</v>
+      </c>
+      <c r="J26" s="32">
+        <v>9</v>
+      </c>
+      <c r="K26" s="32">
+        <v>2</v>
+      </c>
+      <c r="L26" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="32">
-        <v>11</v>
-      </c>
-      <c r="K26" s="32">
-        <v>9</v>
-      </c>
-      <c r="L26" s="32">
-        <v>2</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="44" t="s">
-        <v>37</v>
+      <c r="M26" s="43" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="32" customFormat="1">
-      <c r="A27" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="41">
+    <row r="27" spans="1:13" s="32" customFormat="1">
+      <c r="A27" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="40">
         <v>0</v>
       </c>
       <c r="C27" s="32">
         <v>100</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="32">
@@ -5986,26 +6149,23 @@
       <c r="H27" s="32">
         <v>100</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="32">
+        <v>35</v>
+      </c>
+      <c r="J27" s="32">
+        <v>29.9</v>
+      </c>
+      <c r="K27" s="32">
+        <v>60.7</v>
+      </c>
+      <c r="L27" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="32">
-        <v>35</v>
-      </c>
-      <c r="K27" s="32">
-        <v>29.9</v>
-      </c>
-      <c r="L27" s="32">
-        <v>60.7</v>
-      </c>
-      <c r="M27" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="44" t="s">
-        <v>43</v>
+      <c r="M27" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="32" customFormat="1">
+    <row r="28" spans="1:13" s="32" customFormat="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6019,9 +6179,8 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" s="32" customFormat="1">
+    <row r="29" spans="1:13" s="32" customFormat="1">
       <c r="A29" s="15" t="s">
         <v>2</v>
       </c>
@@ -6032,18 +6191,15 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="34" t="s">
+      <c r="I29" s="33"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="32" customFormat="1">
+    <row r="30" spans="1:13" s="32" customFormat="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -6057,11 +6213,10 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" s="32" customFormat="1">
+    <row r="31" spans="1:13" s="32" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6075,142 +6230,134 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" s="32" customFormat="1">
+    <row r="32" spans="1:13" s="32" customFormat="1">
       <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" s="32" customFormat="1">
+      <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="N32" s="42"/>
+      <c r="B33" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="M33" s="41"/>
     </row>
-    <row r="33" spans="1:14" s="32" customFormat="1">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:13" s="32" customFormat="1">
+      <c r="A34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="N33" s="42"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="M34" s="41"/>
     </row>
-    <row r="34" spans="1:14" s="32" customFormat="1">
-      <c r="A34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="N34" s="42"/>
+    <row r="35" spans="1:13" s="32" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="18"/>
     </row>
-    <row r="35" spans="1:14" s="32" customFormat="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" s="36" customFormat="1">
+    <row r="36" spans="1:13" s="36" customFormat="1">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
-      <c r="K36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37" t="s">
+      <c r="M36" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="32" customFormat="1" ht="87.75">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:13" s="32" customFormat="1" ht="87.75">
+      <c r="A37" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="D37" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="32" customFormat="1">
+      <c r="A38" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="M37" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="N37" s="62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="32" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6224,17 +6371,16 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" s="32" customFormat="1">
+    <row r="39" spans="1:13" s="32" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="41">
+        <v>46</v>
+      </c>
+      <c r="B39" s="40">
         <v>0</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="71">
+      <c r="C39" s="40"/>
+      <c r="D39" s="69">
         <v>18738</v>
       </c>
       <c r="E39" s="32">
@@ -6250,42 +6396,39 @@
         <v>9433</v>
       </c>
       <c r="I39" s="32">
-        <v>7952</v>
+        <v>10444</v>
       </c>
       <c r="J39" s="32">
-        <v>10444</v>
+        <v>7289</v>
       </c>
       <c r="K39" s="32">
-        <v>7289</v>
+        <v>6611</v>
       </c>
       <c r="L39" s="32">
-        <v>6611</v>
-      </c>
-      <c r="M39" s="32">
         <v>8765</v>
       </c>
-      <c r="N39" s="44" t="s">
+      <c r="M39" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="32" customFormat="1">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="63"/>
+      <c r="M40" s="43"/>
     </row>
-    <row r="40" spans="1:14" s="32" customFormat="1">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:13" s="32" customFormat="1">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="64"/>
-      <c r="N40" s="44"/>
-    </row>
-    <row r="41" spans="1:14" s="32" customFormat="1">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="41">
+      <c r="B41" s="40">
         <v>0</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="71">
+      <c r="C41" s="40"/>
+      <c r="D41" s="69">
         <v>10688</v>
       </c>
       <c r="E41" s="32">
@@ -6301,33 +6444,30 @@
         <v>7441</v>
       </c>
       <c r="I41" s="32">
-        <v>2292</v>
+        <v>4851</v>
       </c>
       <c r="J41" s="32">
-        <v>4851</v>
+        <v>3741</v>
       </c>
       <c r="K41" s="32">
-        <v>3741</v>
+        <v>9848</v>
       </c>
       <c r="L41" s="32">
-        <v>9848</v>
-      </c>
-      <c r="M41" s="32">
         <v>4167</v>
       </c>
-      <c r="N41" s="44" t="s">
-        <v>48</v>
+      <c r="M41" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="32" customFormat="1">
+    <row r="42" spans="1:13" s="32" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="41">
+        <v>50</v>
+      </c>
+      <c r="B42" s="40">
         <v>0</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="71">
+      <c r="C42" s="40"/>
+      <c r="D42" s="69">
         <v>15379</v>
       </c>
       <c r="E42" s="32">
@@ -6343,33 +6483,30 @@
         <v>9948</v>
       </c>
       <c r="I42" s="32">
-        <v>1681</v>
+        <v>4955</v>
       </c>
       <c r="J42" s="32">
-        <v>4955</v>
+        <v>871</v>
       </c>
       <c r="K42" s="32">
-        <v>871</v>
+        <v>9609</v>
       </c>
       <c r="L42" s="32">
-        <v>9609</v>
-      </c>
-      <c r="M42" s="32">
         <v>4099</v>
       </c>
-      <c r="N42" s="44" t="s">
-        <v>48</v>
+      <c r="M42" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="32" customFormat="1">
+    <row r="43" spans="1:13" s="32" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="41">
+        <v>51</v>
+      </c>
+      <c r="B43" s="40">
         <v>0</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="71">
+      <c r="C43" s="40"/>
+      <c r="D43" s="69">
         <v>16281</v>
       </c>
       <c r="E43" s="32">
@@ -6385,33 +6522,30 @@
         <v>10785</v>
       </c>
       <c r="I43" s="32">
-        <v>2646</v>
+        <v>4776</v>
       </c>
       <c r="J43" s="32">
-        <v>4776</v>
+        <v>1440</v>
       </c>
       <c r="K43" s="32">
-        <v>1440</v>
+        <v>10936</v>
       </c>
       <c r="L43" s="32">
-        <v>10936</v>
-      </c>
-      <c r="M43" s="32">
         <v>4354</v>
       </c>
-      <c r="N43" s="44" t="s">
-        <v>48</v>
+      <c r="M43" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="32" customFormat="1">
+    <row r="44" spans="1:13" s="32" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="41">
+        <v>52</v>
+      </c>
+      <c r="B44" s="40">
         <v>0</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="71">
+      <c r="C44" s="40"/>
+      <c r="D44" s="69">
         <v>13635</v>
       </c>
       <c r="E44" s="32">
@@ -6427,42 +6561,39 @@
         <v>9147</v>
       </c>
       <c r="I44" s="32">
-        <v>2128</v>
+        <v>4859</v>
       </c>
       <c r="J44" s="32">
-        <v>4859</v>
+        <v>1421</v>
       </c>
       <c r="K44" s="32">
-        <v>1421</v>
+        <v>9959</v>
       </c>
       <c r="L44" s="32">
-        <v>9959</v>
-      </c>
-      <c r="M44" s="32">
         <v>4105</v>
       </c>
-      <c r="N44" s="44" t="s">
-        <v>48</v>
+      <c r="M44" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="32" customFormat="1">
+    <row r="45" spans="1:13" s="32" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="64"/>
-      <c r="N45" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="63"/>
+      <c r="M45" s="43"/>
     </row>
-    <row r="46" spans="1:14" s="32" customFormat="1">
+    <row r="46" spans="1:13" s="32" customFormat="1">
       <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="41">
+        <v>49</v>
+      </c>
+      <c r="B46" s="40">
         <v>0</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="71">
+      <c r="C46" s="40"/>
+      <c r="D46" s="69">
         <v>21779</v>
       </c>
       <c r="E46" s="32">
@@ -6471,40 +6602,37 @@
       <c r="F46" s="32">
         <v>4879</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="72">
         <v>22748</v>
       </c>
       <c r="H46" s="32">
         <v>14988</v>
       </c>
       <c r="I46" s="32">
-        <v>5463</v>
-      </c>
-      <c r="J46" s="32">
         <v>12649</v>
       </c>
+      <c r="J46" s="72">
+        <v>20587</v>
+      </c>
       <c r="K46" s="32">
-        <v>20587</v>
+        <v>10197</v>
       </c>
       <c r="L46" s="32">
-        <v>10197</v>
-      </c>
-      <c r="M46" s="32">
         <v>4010</v>
       </c>
-      <c r="N46" s="44" t="s">
-        <v>48</v>
+      <c r="M46" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="32" customFormat="1">
+    <row r="47" spans="1:13" s="32" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="41">
+        <v>50</v>
+      </c>
+      <c r="B47" s="40">
         <v>0</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="71">
+      <c r="C47" s="40"/>
+      <c r="D47" s="69">
         <v>64662</v>
       </c>
       <c r="E47" s="32">
@@ -6513,40 +6641,37 @@
       <c r="F47" s="32">
         <v>1687</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="72">
         <v>64451</v>
       </c>
       <c r="H47" s="32">
         <v>33320</v>
       </c>
       <c r="I47" s="32">
-        <v>8808</v>
-      </c>
-      <c r="J47" s="32">
         <v>27537</v>
       </c>
+      <c r="J47" s="72">
+        <v>17259</v>
+      </c>
       <c r="K47" s="32">
-        <v>17259</v>
+        <v>15497</v>
       </c>
       <c r="L47" s="32">
-        <v>15497</v>
-      </c>
-      <c r="M47" s="32">
         <v>4154</v>
       </c>
-      <c r="N47" s="44" t="s">
-        <v>48</v>
+      <c r="M47" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="32" customFormat="1">
+    <row r="48" spans="1:13" s="32" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="41">
+        <v>51</v>
+      </c>
+      <c r="B48" s="40">
         <v>0</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="71">
+      <c r="C48" s="40"/>
+      <c r="D48" s="69">
         <v>24219</v>
       </c>
       <c r="E48" s="32">
@@ -6555,40 +6680,37 @@
       <c r="F48" s="32">
         <v>1841</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="73">
         <v>79514</v>
       </c>
       <c r="H48" s="32">
         <v>42499</v>
       </c>
       <c r="I48" s="32">
-        <v>12084</v>
-      </c>
-      <c r="J48" s="32">
         <v>26199</v>
       </c>
+      <c r="J48" s="73">
+        <v>18551</v>
+      </c>
       <c r="K48" s="32">
-        <v>18551</v>
+        <v>24022</v>
       </c>
       <c r="L48" s="32">
-        <v>24022</v>
-      </c>
-      <c r="M48" s="32">
         <v>4472</v>
       </c>
-      <c r="N48" s="44" t="s">
-        <v>48</v>
+      <c r="M48" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="32" customFormat="1">
+    <row r="49" spans="1:13" s="32" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="41">
+        <v>52</v>
+      </c>
+      <c r="B49" s="40">
         <v>0</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="71">
+      <c r="C49" s="40"/>
+      <c r="D49" s="69">
         <v>29219</v>
       </c>
       <c r="E49" s="32">
@@ -6597,41 +6719,38 @@
       <c r="F49" s="32">
         <v>2232</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="72">
         <v>41583</v>
       </c>
       <c r="H49" s="32">
         <v>24729</v>
       </c>
       <c r="I49" s="32">
-        <v>7880</v>
-      </c>
-      <c r="J49" s="32">
         <v>19538</v>
       </c>
+      <c r="J49" s="72">
+        <v>18623</v>
+      </c>
       <c r="K49" s="32">
-        <v>18623</v>
+        <v>14579</v>
       </c>
       <c r="L49" s="32">
-        <v>14579</v>
-      </c>
-      <c r="M49" s="32">
         <v>4167</v>
       </c>
-      <c r="N49" s="44" t="s">
-        <v>48</v>
+      <c r="M49" s="43" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="32" customFormat="1">
+    <row r="50" spans="1:13" s="32" customFormat="1">
       <c r="A50" s="5"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="N50" s="5"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:14" s="32" customFormat="1">
+    <row r="51" spans="1:13" s="32" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6645,26 +6764,25 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" s="32" customFormat="1">
+    <row r="52" spans="1:13" s="32" customFormat="1">
       <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="64"/>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="1:13" s="32" customFormat="1">
+      <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="65"/>
-      <c r="N52" s="44"/>
-    </row>
-    <row r="53" spans="1:14" s="32" customFormat="1">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="41">
+      <c r="B53" s="40">
         <v>0</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="47" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="32">
@@ -6680,33 +6798,30 @@
         <v>1559</v>
       </c>
       <c r="I53" s="32">
-        <v>933</v>
+        <v>1290</v>
       </c>
       <c r="J53" s="32">
-        <v>1290</v>
+        <v>1156</v>
       </c>
       <c r="K53" s="32">
-        <v>1156</v>
+        <v>4168</v>
       </c>
       <c r="L53" s="32">
-        <v>4168</v>
-      </c>
-      <c r="M53" s="32">
         <v>351</v>
       </c>
-      <c r="N53" s="44" t="s">
+      <c r="M53" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="32" customFormat="1">
+      <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="32" customFormat="1">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="41">
+      <c r="B54" s="40">
         <v>0</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="47" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="32">
@@ -6721,40 +6836,37 @@
       <c r="H54" s="32">
         <v>8046</v>
       </c>
-      <c r="I54" s="32">
-        <v>2395</v>
-      </c>
-      <c r="J54" s="32">
+      <c r="I54" s="74">
         <v>1290</v>
       </c>
+      <c r="J54" s="74">
+        <v>1156</v>
+      </c>
       <c r="K54" s="32">
-        <v>1156</v>
-      </c>
-      <c r="L54" s="32">
         <v>4269</v>
       </c>
-      <c r="M54" s="32">
+      <c r="L54" s="74">
         <v>351</v>
       </c>
-      <c r="N54" s="44" t="s">
-        <v>58</v>
+      <c r="M54" s="43" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="32" customFormat="1">
+    <row r="55" spans="1:13" s="32" customFormat="1">
       <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="41">
+        <v>59</v>
+      </c>
+      <c r="B55" s="40">
         <v>0</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="70">
+      <c r="C55" s="40"/>
+      <c r="D55" s="69">
         <v>18745</v>
       </c>
       <c r="E55" s="32">
         <v>9728</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="74">
         <v>9114</v>
       </c>
       <c r="G55" s="32">
@@ -6764,42 +6876,39 @@
         <v>10335</v>
       </c>
       <c r="I55" s="32">
-        <v>8465</v>
+        <v>10424</v>
       </c>
       <c r="J55" s="32">
-        <v>10424</v>
+        <v>5494</v>
       </c>
       <c r="K55" s="32">
-        <v>5494</v>
+        <v>6590</v>
       </c>
       <c r="L55" s="32">
-        <v>6590</v>
-      </c>
-      <c r="M55" s="32">
         <v>7312</v>
       </c>
-      <c r="N55" s="44" t="s">
-        <v>58</v>
+      <c r="M55" s="43" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="32" customFormat="1">
+    <row r="56" spans="1:13" s="32" customFormat="1">
       <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="64"/>
+      <c r="M56" s="43"/>
+    </row>
+    <row r="57" spans="1:13" s="32" customFormat="1">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="65"/>
-      <c r="N56" s="44"/>
-    </row>
-    <row r="57" spans="1:14" s="32" customFormat="1">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="41">
+      <c r="B57" s="40">
         <v>0</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="47" t="s">
+      <c r="C57" s="40"/>
+      <c r="D57" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="32">
@@ -6815,33 +6924,30 @@
         <v>6199</v>
       </c>
       <c r="I57" s="32">
-        <v>2107</v>
+        <v>1105</v>
       </c>
       <c r="J57" s="32">
-        <v>1105</v>
+        <v>907</v>
       </c>
       <c r="K57" s="32">
-        <v>907</v>
+        <v>3458</v>
       </c>
       <c r="L57" s="32">
-        <v>3458</v>
-      </c>
-      <c r="M57" s="32">
         <v>322</v>
       </c>
-      <c r="N57" s="44" t="s">
+      <c r="M57" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="32" customFormat="1">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" s="32" customFormat="1">
-      <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="41">
+      <c r="B58" s="40">
         <v>0</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="47" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="32">
@@ -6857,33 +6963,30 @@
         <v>5051</v>
       </c>
       <c r="I58" s="32">
-        <v>2312</v>
+        <v>1175</v>
       </c>
       <c r="J58" s="32">
-        <v>1175</v>
+        <v>726</v>
       </c>
       <c r="K58" s="32">
-        <v>726</v>
+        <v>3130</v>
       </c>
       <c r="L58" s="32">
-        <v>3130</v>
-      </c>
-      <c r="M58" s="32">
         <v>298</v>
       </c>
-      <c r="N58" s="44" t="s">
-        <v>63</v>
+      <c r="M58" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="41">
+        <v>64</v>
+      </c>
+      <c r="B59" s="40">
         <v>0</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="47" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="32">
@@ -6899,33 +7002,30 @@
         <v>3410</v>
       </c>
       <c r="I59" s="32">
-        <v>1988</v>
+        <v>1043</v>
       </c>
       <c r="J59" s="32">
-        <v>1043</v>
+        <v>564</v>
       </c>
       <c r="K59" s="32">
-        <v>564</v>
+        <v>2447</v>
       </c>
       <c r="L59" s="32">
-        <v>2447</v>
-      </c>
-      <c r="M59" s="32">
         <v>262</v>
       </c>
-      <c r="N59" s="44" t="s">
-        <v>63</v>
+      <c r="M59" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="41">
+        <v>65</v>
+      </c>
+      <c r="B60" s="40">
         <v>0</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="47" t="s">
+      <c r="C60" s="40"/>
+      <c r="D60" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="32">
@@ -6941,46 +7041,43 @@
         <v>2236</v>
       </c>
       <c r="I60" s="32">
-        <v>1649</v>
+        <v>892</v>
       </c>
       <c r="J60" s="32">
-        <v>892</v>
+        <v>369</v>
       </c>
       <c r="K60" s="32">
-        <v>369</v>
+        <v>1803</v>
       </c>
       <c r="L60" s="32">
-        <v>1803</v>
-      </c>
-      <c r="M60" s="32">
         <v>208</v>
       </c>
-      <c r="N60" s="44" t="s">
-        <v>63</v>
+      <c r="M60" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="65"/>
+        <v>66</v>
+      </c>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="64"/>
       <c r="G61" s="32"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="N61" s="44"/>
+      <c r="M61" s="43"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="41">
+        <v>67</v>
+      </c>
+      <c r="B62" s="40">
         <v>0</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="47" t="s">
+      <c r="C62" s="40"/>
+      <c r="D62" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="32">
@@ -6996,39 +7093,36 @@
         <v>276556</v>
       </c>
       <c r="I62" s="32">
-        <v>105362</v>
+        <v>390747</v>
       </c>
       <c r="J62" s="32">
-        <v>390747</v>
+        <v>41555</v>
       </c>
       <c r="K62" s="32">
-        <v>41555</v>
+        <v>279126</v>
       </c>
       <c r="L62" s="32">
-        <v>279126</v>
-      </c>
-      <c r="M62" s="32">
         <v>47665</v>
       </c>
-      <c r="N62" s="44" t="s">
+      <c r="M62" s="43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="57">
+      <c r="B63" s="56">
         <v>0</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="67">
+      <c r="C63" s="56"/>
+      <c r="D63" s="69">
         <v>1276161</v>
       </c>
       <c r="E63" s="32">
         <v>476553</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="72">
         <v>462149</v>
       </c>
       <c r="G63" s="32">
@@ -7038,41 +7132,37 @@
         <v>350029</v>
       </c>
       <c r="I63" s="32">
-        <v>231577</v>
+        <v>437196</v>
       </c>
       <c r="J63" s="32">
-        <v>437196</v>
+        <v>55515</v>
       </c>
       <c r="K63" s="32">
-        <v>55515</v>
+        <v>343666</v>
       </c>
       <c r="L63" s="32">
-        <v>343666</v>
-      </c>
-      <c r="M63" s="32">
         <v>56430</v>
       </c>
-      <c r="N63" s="44" t="s">
-        <v>69</v>
+      <c r="M63" s="43" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:13">
       <c r="A64" s="5"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:15">
       <c r="A65" s="8" t="s">
         <v>11</v>
       </c>
@@ -7088,15 +7178,14 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="24"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="66" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="65" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="13">
@@ -7111,35 +7200,32 @@
       <c r="H66" s="13">
         <v>8275</v>
       </c>
-      <c r="I66" s="56" t="s">
-        <v>12</v>
+      <c r="I66" s="13">
+        <v>14762</v>
       </c>
       <c r="J66" s="13">
-        <v>14762</v>
-      </c>
-      <c r="K66" s="13">
         <f>16483+15525</f>
         <v>32008</v>
       </c>
-      <c r="L66" s="13">
+      <c r="K66" s="13">
         <f>22118+39503</f>
         <v>61621</v>
       </c>
-      <c r="M66" s="56" t="s">
+      <c r="L66" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N66" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P66" s="32"/>
+      <c r="M66" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="O66" s="32"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:15">
       <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="66" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="65" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="19">
@@ -7154,33 +7240,30 @@
       <c r="H67" s="22">
         <v>0</v>
       </c>
-      <c r="I67" s="56" t="s">
+      <c r="I67" s="22">
+        <v>32121</v>
+      </c>
+      <c r="J67" s="22">
+        <v>0</v>
+      </c>
+      <c r="K67" s="22">
+        <v>31190</v>
+      </c>
+      <c r="L67" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="22">
-        <v>32121</v>
-      </c>
-      <c r="K67" s="22">
-        <v>0</v>
-      </c>
-      <c r="L67" s="22">
-        <v>31190</v>
-      </c>
-      <c r="M67" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P67" s="32"/>
+      <c r="M67" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="O67" s="32"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:15">
       <c r="A68" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="24"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="66" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="65" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="19">
@@ -7196,26 +7279,23 @@
         <v>3126272</v>
       </c>
       <c r="I68" s="19">
-        <v>301056</v>
+        <v>354304</v>
       </c>
       <c r="J68" s="19">
-        <v>354304</v>
+        <v>2210816</v>
       </c>
       <c r="K68" s="19">
-        <v>2210816</v>
-      </c>
-      <c r="L68" s="19">
         <v>3999232</v>
       </c>
-      <c r="M68" s="20">
+      <c r="L68" s="20">
         <v>280064</v>
       </c>
-      <c r="N68" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P68" s="32"/>
+      <c r="M68" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="O68" s="32"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:15">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -7229,9 +7309,8 @@
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:15">
       <c r="A70" s="15" t="s">
         <v>2</v>
       </c>
@@ -7242,18 +7321,15 @@
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
-      <c r="I70" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="34" t="s">
+      <c r="I70" s="33"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="32" customFormat="1">
+    <row r="71" spans="1:15" s="32" customFormat="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -7267,11 +7343,10 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:15">
       <c r="A72" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7285,103 +7360,97 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:16" s="32" customFormat="1">
+    <row r="73" spans="1:15" s="32" customFormat="1">
       <c r="A73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="M73" s="41"/>
+    </row>
+    <row r="74" spans="1:15" s="32" customFormat="1">
+      <c r="A74" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B74" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="M74" s="41"/>
     </row>
-    <row r="74" spans="1:16" s="32" customFormat="1">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:15" s="32" customFormat="1">
+      <c r="A75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B75" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="M75" s="41"/>
     </row>
-    <row r="75" spans="1:16" s="32" customFormat="1">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:15" s="32" customFormat="1">
+      <c r="A76" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B76" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="58"/>
     </row>
-    <row r="76" spans="1:16" s="32" customFormat="1">
-      <c r="A76" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="59"/>
-    </row>
-    <row r="77" spans="1:16" s="29" customFormat="1">
+    <row r="77" spans="1:15" s="29" customFormat="1">
       <c r="A77" s="28"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="M77" s="36"/>
+      <c r="L77" s="36"/>
     </row>
-    <row r="78" spans="1:16" s="36" customFormat="1">
+    <row r="78" spans="1:15" s="36" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -7391,32 +7460,32 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="88" spans="1:13" ht="36">
-      <c r="J88" s="9" t="s">
+    <row r="88" spans="1:12" ht="36">
+      <c r="I88" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K88" s="9"/>
+      <c r="J88" s="9"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:12">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="M95"/>
+      <c r="L95"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:12">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="M115"/>
+      <c r="L115"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N59">
+  <conditionalFormatting sqref="M59">
     <cfRule type="colorScale" priority="2000">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7428,7 +7497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59">
+  <conditionalFormatting sqref="M59">
     <cfRule type="colorScale" priority="1996">
       <colorScale>
         <cfvo type="percentile" val="10"/>
@@ -7437,11 +7506,11 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="60" priority="1997" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="59" priority="1998" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="58" priority="1999" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+    <cfRule type="top10" dxfId="73" priority="1997" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="72" priority="1998" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="71" priority="1999" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60">
     <cfRule type="colorScale" priority="1473">
       <colorScale>
         <cfvo type="percentile" val="10"/>
@@ -7450,14 +7519,14 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="57" priority="1474" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="56" priority="1475" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="55" priority="1476" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
-    <cfRule type="top10" dxfId="54" priority="1472" percent="1" rank="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
+    <cfRule type="top10" dxfId="70" priority="1474" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="69" priority="1475" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="68" priority="1476" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61">
+    <cfRule type="top10" dxfId="67" priority="1472" percent="1" rank="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M61">
     <cfRule type="colorScale" priority="1465">
       <colorScale>
         <cfvo type="percentile" val="10"/>
@@ -7466,11 +7535,11 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="53" priority="1466" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="52" priority="1467" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="51" priority="1468" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+    <cfRule type="top10" dxfId="66" priority="1466" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="65" priority="1467" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="64" priority="1468" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60">
     <cfRule type="colorScale" priority="1452">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7482,7 +7551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
+  <conditionalFormatting sqref="M61">
     <cfRule type="colorScale" priority="1451">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7494,7 +7563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
+  <conditionalFormatting sqref="M62">
     <cfRule type="colorScale" priority="1441">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7506,7 +7575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:N70">
+  <conditionalFormatting sqref="I70:M70">
     <cfRule type="colorScale" priority="3286">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7518,8 +7587,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:N69">
-    <cfRule type="colorScale" priority="3638">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="colorScale" priority="3862">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7530,8 +7599,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="colorScale" priority="3862">
+  <conditionalFormatting sqref="J70">
+    <cfRule type="colorScale" priority="882">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="63" priority="883" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="62" priority="884" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="61" priority="885" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="colorScale" priority="881">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7542,8 +7624,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="colorScale" priority="882">
+  <conditionalFormatting sqref="C65">
+    <cfRule type="colorScale" priority="852">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7551,12 +7633,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="50" priority="883" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="49" priority="884" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="48" priority="885" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="colorScale" priority="881">
+    <cfRule type="top10" dxfId="60" priority="853" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="59" priority="854" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="58" priority="855" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="colorScale" priority="851">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7567,8 +7649,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:I70">
-    <cfRule type="colorScale" priority="877">
+  <conditionalFormatting sqref="C70">
+    <cfRule type="colorScale" priority="846">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7576,12 +7658,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="47" priority="878" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="46" priority="879" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="45" priority="880" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70:I70">
-    <cfRule type="colorScale" priority="876">
+    <cfRule type="top10" dxfId="57" priority="847" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="56" priority="848" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="55" priority="849" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="colorScale" priority="845">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7592,21 +7674,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="852">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="44" priority="853" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="43" priority="854" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="42" priority="855" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="851">
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="colorScale" priority="4777">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7617,21 +7686,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="846">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="41" priority="847" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="40" priority="848" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="39" priority="849" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="845">
+  <conditionalFormatting sqref="E70:F70">
+    <cfRule type="colorScale" priority="4790">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7642,8 +7698,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="colorScale" priority="4777">
+  <conditionalFormatting sqref="M52:M59 M6:M19 M39:M49 M22:M30 M35">
+    <cfRule type="colorScale" priority="5128">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7654,8 +7710,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:J70">
-    <cfRule type="colorScale" priority="4785">
+  <conditionalFormatting sqref="M52:M59">
+    <cfRule type="colorScale" priority="5133">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7666,8 +7722,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
-    <cfRule type="colorScale" priority="4790">
+  <conditionalFormatting sqref="M62:M63">
+    <cfRule type="colorScale" priority="5155">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7678,8 +7734,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N59 N6:N19 N39:N49 N22:N30 N35">
-    <cfRule type="colorScale" priority="5128">
+  <conditionalFormatting sqref="M6:M19 M35 M39:M49 M52:M59 M22:M30">
+    <cfRule type="colorScale" priority="5233">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7690,8 +7746,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N59">
-    <cfRule type="colorScale" priority="5133">
+  <conditionalFormatting sqref="M52:M59 M6:M19 M39:M49 M35 M22:M30">
+    <cfRule type="colorScale" priority="5303">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7702,8 +7758,426 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:M18">
-    <cfRule type="colorScale" priority="137">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="colorScale" priority="5334">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="54" priority="83" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="53" priority="84" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="52" priority="85" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:M29">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="51" priority="79" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="50" priority="80" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="49" priority="81" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:M29">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="48" priority="69" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="47" priority="70" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="46" priority="71" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="45" priority="59" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="44" priority="60" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="43" priority="61" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="42" priority="49" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="41" priority="50" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="40" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L23 B22:D22">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L23">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="39" priority="32" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="38" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="37" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="36" priority="27" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="35" priority="28" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="34" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="33" priority="12" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="32" priority="13" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="31" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="30" priority="7" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="29" priority="8" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="28" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69:M69">
+    <cfRule type="colorScale" priority="5335">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:H70">
+    <cfRule type="colorScale" priority="5337">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="27" priority="5338" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="26" priority="5339" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="25" priority="5340" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:H70">
+    <cfRule type="colorScale" priority="5341">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:I70">
+    <cfRule type="colorScale" priority="5353">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:L18">
+    <cfRule type="colorScale" priority="5360">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7714,8 +8188,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:M19">
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="B19:L19">
+    <cfRule type="colorScale" priority="5362">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7726,8 +8200,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:M25">
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="B25:L25">
+    <cfRule type="colorScale" priority="5364">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7738,8 +8212,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:M26">
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="B26:L26">
+    <cfRule type="colorScale" priority="5366">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7750,8 +8224,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:M6">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="B6:L6">
+    <cfRule type="colorScale" priority="5368">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7762,8 +8236,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:M7">
-    <cfRule type="colorScale" priority="126">
+  <conditionalFormatting sqref="B7:L7">
+    <cfRule type="colorScale" priority="5370">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7774,8 +8248,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:M8">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="B8:L8">
+    <cfRule type="colorScale" priority="5372">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7786,8 +8260,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:M9">
-    <cfRule type="colorScale" priority="128">
+  <conditionalFormatting sqref="B9:L9">
+    <cfRule type="colorScale" priority="5374">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7798,8 +8272,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:M10">
-    <cfRule type="colorScale" priority="129">
+  <conditionalFormatting sqref="B10:L10">
+    <cfRule type="colorScale" priority="5376">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7810,8 +8284,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:M11">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="B11:L11">
+    <cfRule type="colorScale" priority="5378">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7822,8 +8296,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:M12">
-    <cfRule type="colorScale" priority="131">
+  <conditionalFormatting sqref="B12:L12">
+    <cfRule type="colorScale" priority="5380">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7834,8 +8308,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:M13">
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="B13:L13">
+    <cfRule type="colorScale" priority="5382">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7846,8 +8320,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:M14">
-    <cfRule type="colorScale" priority="133">
+  <conditionalFormatting sqref="B14:L14">
+    <cfRule type="colorScale" priority="5384">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7858,8 +8332,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:M15">
-    <cfRule type="colorScale" priority="134">
+  <conditionalFormatting sqref="B15:L15">
+    <cfRule type="colorScale" priority="5386">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7870,8 +8344,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:M16">
-    <cfRule type="colorScale" priority="135">
+  <conditionalFormatting sqref="B16:L16">
+    <cfRule type="colorScale" priority="5388">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7882,8 +8356,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:M17">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="B17:L17">
+    <cfRule type="colorScale" priority="5390">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7894,8 +8368,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:M23">
-    <cfRule type="colorScale" priority="139">
+  <conditionalFormatting sqref="B23:L23">
+    <cfRule type="colorScale" priority="5392">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7906,8 +8380,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:M24">
-    <cfRule type="colorScale" priority="140">
+  <conditionalFormatting sqref="B24:L24">
+    <cfRule type="colorScale" priority="5394">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7918,8 +8392,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:M27">
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="B27:L27">
+    <cfRule type="colorScale" priority="5396">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7930,8 +8404,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:C39 E39:M39">
-    <cfRule type="colorScale" priority="155">
+  <conditionalFormatting sqref="B39:C39 E39:L39">
+    <cfRule type="colorScale" priority="5398">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7942,8 +8416,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C41 E41:M41">
-    <cfRule type="colorScale" priority="157">
+  <conditionalFormatting sqref="B41:C41 E41:L41">
+    <cfRule type="colorScale" priority="5401">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7954,8 +8428,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C42 E42:M42">
-    <cfRule type="colorScale" priority="158">
+  <conditionalFormatting sqref="B42:C42 E42:L42">
+    <cfRule type="colorScale" priority="5404">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7966,8 +8440,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43 E43:M43">
-    <cfRule type="colorScale" priority="159">
+  <conditionalFormatting sqref="B43:C43 E43:L43">
+    <cfRule type="colorScale" priority="5407">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7978,8 +8452,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44 E44:M44">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="B44:C44 E44:L44">
+    <cfRule type="colorScale" priority="5410">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7990,8 +8464,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46 E46:M46">
-    <cfRule type="colorScale" priority="162">
+  <conditionalFormatting sqref="B46:C46 E46:L46">
+    <cfRule type="colorScale" priority="5413">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8002,8 +8476,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47 E47:M47">
-    <cfRule type="colorScale" priority="163">
+  <conditionalFormatting sqref="B47:C47 E47:L47">
+    <cfRule type="colorScale" priority="5416">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8014,8 +8488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48 E48:M48">
-    <cfRule type="colorScale" priority="164">
+  <conditionalFormatting sqref="B48:C48 E48:L48">
+    <cfRule type="colorScale" priority="5419">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8026,8 +8500,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49 E49:M49">
-    <cfRule type="colorScale" priority="165">
+  <conditionalFormatting sqref="B49:C49 E49:L49">
+    <cfRule type="colorScale" priority="5422">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8038,8 +8512,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:C53 E53:M53">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B53:C53 E53:L53">
+    <cfRule type="colorScale" priority="5425">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8050,8 +8524,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:C54 E54:M54">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B54:C54 E54:L54">
+    <cfRule type="colorScale" priority="5428">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8062,8 +8536,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:C55 E55:M55">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B55:C55 E55:L55">
+    <cfRule type="colorScale" priority="5431">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8074,8 +8548,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:C57 E57:M57">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B57:C57 E57:L57">
+    <cfRule type="colorScale" priority="5434">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8086,8 +8560,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:C58 E58:M58">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B58:C58 E58:L58">
+    <cfRule type="colorScale" priority="5437">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8098,8 +8572,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:C59 E59:M59">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B59:C59 E59:L59">
+    <cfRule type="colorScale" priority="5440">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8110,8 +8584,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:C60 E60:M60">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B60:C60 E60:L60">
+    <cfRule type="colorScale" priority="5443">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8122,8 +8596,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62 E62:M62">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="B62:C62 E62:L62">
+    <cfRule type="colorScale" priority="5446">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8134,8 +8608,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62:N63">
-    <cfRule type="colorScale" priority="5155">
+  <conditionalFormatting sqref="B63:C63 E63:L63">
+    <cfRule type="colorScale" priority="5457">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8146,8 +8620,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N19 N35 N39:N49 N52:N59 N22:N30">
-    <cfRule type="colorScale" priority="5233">
+  <conditionalFormatting sqref="G71:M71">
+    <cfRule type="colorScale" priority="5466">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8158,8 +8632,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N59 N6:N19 N39:N49 N35 N22:N30">
-    <cfRule type="colorScale" priority="5303">
+  <conditionalFormatting sqref="G71:M71">
+    <cfRule type="colorScale" priority="5468">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="24" priority="5469" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="23" priority="5470" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="22" priority="5471" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:M28">
+    <cfRule type="colorScale" priority="5476">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8170,8 +8657,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:C63 E63:M63">
-    <cfRule type="colorScale" priority="132">
+  <conditionalFormatting sqref="G28:M28">
+    <cfRule type="colorScale" priority="5478">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="21" priority="5479" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="20" priority="5480" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="19" priority="5481" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="colorScale" priority="5486">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="18" priority="5487" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="17" priority="5488" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="16" priority="5489" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="colorScale" priority="5490">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8182,8 +8695,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="colorScale" priority="301">
+  <conditionalFormatting sqref="E29:I29">
+    <cfRule type="colorScale" priority="5496">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="15" priority="5497" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="14" priority="5498" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="13" priority="5499" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:I29">
+    <cfRule type="colorScale" priority="5504">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8194,8 +8720,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="colorScale" priority="300">
+  <conditionalFormatting sqref="G30:M30">
+    <cfRule type="colorScale" priority="5511">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8206,504 +8732,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="colorScale" priority="299">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="colorScale" priority="5334">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:N71">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:N71">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="38" priority="87" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="37" priority="88" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="36" priority="89" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="35" priority="83" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="34" priority="84" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="33" priority="85" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:N29">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="32" priority="79" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="31" priority="80" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="30" priority="81" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:N29">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:N28">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:N28">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="29" priority="73" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="28" priority="74" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="27" priority="75" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="26" priority="69" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="25" priority="70" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="24" priority="71" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I29">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="23" priority="64" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="22" priority="65" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="21" priority="66" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I29">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="20" priority="59" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="19" priority="60" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="18" priority="61" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:J29">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="17" priority="54" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="16" priority="55" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="15" priority="56" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:J29">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="14" priority="49" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="13" priority="50" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="12" priority="51" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:N30">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23 B22:D22 I23">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M23">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="11" priority="32" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="10" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="9" priority="34" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="8" priority="27" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="7" priority="28" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="6" priority="29" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="5" priority="12" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="4" priority="13" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="3" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val="90"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="2" priority="7" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="1" priority="8" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="0" priority="9" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N59" r:id="rId1" display="Description"/>
+    <hyperlink ref="M59" r:id="rId1" display="Description"/>
   </hyperlinks>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" cellComments="atEnd" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="77" max="16383" man="1"/>
   </rowBreaks>
@@ -8711,8 +8744,9 @@
     <ignoredError sqref="D50 D56:D62 D52:D54" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SqlClient</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2627,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2953,25 +2955,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115203456"/>
-        <c:axId val="115500160"/>
+        <c:axId val="114810240"/>
+        <c:axId val="115106944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115203456"/>
+        <c:axId val="114810240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115500160"/>
+        <c:crossAx val="115106944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115500160"/>
+        <c:axId val="115106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2981,20 +2983,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115203456"/>
+        <c:crossAx val="114810240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3029,7 +3030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3198,25 +3198,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115533696"/>
-        <c:axId val="115535232"/>
+        <c:axId val="115140480"/>
+        <c:axId val="115142016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115533696"/>
+        <c:axId val="115140480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115535232"/>
+        <c:crossAx val="115142016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115535232"/>
+        <c:axId val="115142016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3225,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115533696"/>
+        <c:crossAx val="115140480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="150000"/>
@@ -3233,13 +3233,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3273,7 +3272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3490,25 +3488,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115794688"/>
-        <c:axId val="115796224"/>
+        <c:axId val="115397376"/>
+        <c:axId val="115398912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115794688"/>
+        <c:axId val="115397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115796224"/>
+        <c:crossAx val="115398912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115796224"/>
+        <c:axId val="115398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,20 +3515,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115794688"/>
+        <c:crossAx val="115397376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3565,7 +3562,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3654,25 +3650,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115419008"/>
-        <c:axId val="115420544"/>
+        <c:axId val="115021696"/>
+        <c:axId val="115023232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115419008"/>
+        <c:axId val="115021696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115420544"/>
+        <c:crossAx val="115023232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115420544"/>
+        <c:axId val="115023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,20 +3677,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115419008"/>
+        <c:crossAx val="115021696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000644" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000644" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3817,25 +3812,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115448832"/>
-        <c:axId val="115462912"/>
+        <c:axId val="115055616"/>
+        <c:axId val="115069696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115448832"/>
+        <c:axId val="115055616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115462912"/>
+        <c:crossAx val="115069696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115462912"/>
+        <c:axId val="115069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3846,7 +3841,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115448832"/>
+        <c:crossAx val="115055616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3859,7 +3854,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3894,7 +3889,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4223,25 +4217,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115900416"/>
-        <c:axId val="115901952"/>
+        <c:axId val="115507200"/>
+        <c:axId val="115508736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115900416"/>
+        <c:axId val="115507200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115901952"/>
+        <c:crossAx val="115508736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115901952"/>
+        <c:axId val="115508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,14 +4244,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115900416"/>
+        <c:crossAx val="115507200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4273,7 +4266,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000666" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000666" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4308,7 +4301,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4637,25 +4629,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115927680"/>
-        <c:axId val="115945856"/>
+        <c:axId val="115534464"/>
+        <c:axId val="115552640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115927680"/>
+        <c:axId val="115534464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115945856"/>
+        <c:crossAx val="115552640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115945856"/>
+        <c:axId val="115552640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4665,20 +4657,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115927680"/>
+        <c:crossAx val="115534464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5217,8 +5208,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6381,7 +6372,7 @@
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="69">
-        <v>18738</v>
+        <v>21854</v>
       </c>
       <c r="E39" s="32">
         <v>4634</v>
@@ -6417,7 +6408,9 @@
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
-      <c r="D40" s="63"/>
+      <c r="D40" s="63" t="s">
+        <v>91</v>
+      </c>
       <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" s="32" customFormat="1">
@@ -6429,7 +6422,7 @@
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="69">
-        <v>10688</v>
+        <v>19043</v>
       </c>
       <c r="E41" s="32">
         <v>4566</v>
@@ -6468,7 +6461,7 @@
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="69">
-        <v>15379</v>
+        <v>18749</v>
       </c>
       <c r="E42" s="32">
         <v>3898</v>
@@ -6507,7 +6500,7 @@
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="69">
-        <v>16281</v>
+        <v>19334</v>
       </c>
       <c r="E43" s="32">
         <v>5955</v>
@@ -6546,7 +6539,7 @@
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="69">
-        <v>13635</v>
+        <v>18655</v>
       </c>
       <c r="E44" s="32">
         <v>4641</v>
@@ -6582,7 +6575,9 @@
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="63"/>
+      <c r="D45" s="63" t="s">
+        <v>91</v>
+      </c>
       <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:13" s="32" customFormat="1">
@@ -6594,7 +6589,7 @@
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="69">
-        <v>21779</v>
+        <v>61981</v>
       </c>
       <c r="E46" s="32">
         <v>7915</v>
@@ -6633,7 +6628,7 @@
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="69">
-        <v>64662</v>
+        <v>68567</v>
       </c>
       <c r="E47" s="32">
         <v>6199</v>
@@ -6672,7 +6667,7 @@
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="69">
-        <v>24219</v>
+        <v>82155</v>
       </c>
       <c r="E48" s="32">
         <v>9365</v>
@@ -6711,7 +6706,7 @@
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="69">
-        <v>29219</v>
+        <v>69274</v>
       </c>
       <c r="E49" s="32">
         <v>6997</v>
@@ -6861,7 +6856,7 @@
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="69">
-        <v>18745</v>
+        <v>18645</v>
       </c>
       <c r="E55" s="32">
         <v>9728</v>

--- a/_Documents/ORMBattle.NET Test Results.xlsx
+++ b/_Documents/ORMBattle.NET Test Results.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1000'!$A$1:$M$156</definedName>
     <definedName name="SmallPageSize">'1000'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>SqlClient</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Worst result</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,6 +1135,16 @@
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFF8696B"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFA9072"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="19">
@@ -1409,7 +1422,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1561,6 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1607,7 +1621,295 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="98">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2955,25 +3257,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="114810240"/>
-        <c:axId val="115106944"/>
+        <c:axId val="101926016"/>
+        <c:axId val="101927552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114810240"/>
+        <c:axId val="101926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115106944"/>
+        <c:crossAx val="101927552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115106944"/>
+        <c:axId val="101927552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2983,7 +3285,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114810240"/>
+        <c:crossAx val="101926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2995,7 +3297,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3198,25 +3500,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115140480"/>
-        <c:axId val="115142016"/>
+        <c:axId val="101944320"/>
+        <c:axId val="101958400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115140480"/>
+        <c:axId val="101944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115142016"/>
+        <c:crossAx val="101958400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115142016"/>
+        <c:axId val="101958400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3527,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115140480"/>
+        <c:crossAx val="101944320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="150000"/>
@@ -3238,7 +3540,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3488,25 +3790,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115397376"/>
-        <c:axId val="115398912"/>
+        <c:axId val="101881728"/>
+        <c:axId val="101883264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115397376"/>
+        <c:axId val="101881728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115398912"/>
+        <c:crossAx val="101883264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115398912"/>
+        <c:axId val="101883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3817,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115397376"/>
+        <c:crossAx val="101881728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,7 +3829,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3650,25 +3952,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115021696"/>
-        <c:axId val="115023232"/>
+        <c:axId val="101305344"/>
+        <c:axId val="101892864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115021696"/>
+        <c:axId val="101305344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115023232"/>
+        <c:crossAx val="101892864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115023232"/>
+        <c:axId val="101892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3979,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115021696"/>
+        <c:crossAx val="101305344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3689,7 +3991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000644" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000644" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3723,7 +4025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3812,25 +4113,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115055616"/>
-        <c:axId val="115069696"/>
+        <c:axId val="101978496"/>
+        <c:axId val="101980032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115055616"/>
+        <c:axId val="101978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115069696"/>
+        <c:crossAx val="101980032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115069696"/>
+        <c:axId val="101980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3841,20 +4142,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115055616"/>
+        <c:crossAx val="101978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4217,25 +4517,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115507200"/>
-        <c:axId val="115508736"/>
+        <c:axId val="102007936"/>
+        <c:axId val="102009472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115507200"/>
+        <c:axId val="102007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115508736"/>
+        <c:crossAx val="102009472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115508736"/>
+        <c:axId val="102009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4544,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115507200"/>
+        <c:crossAx val="102007936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,7 +4566,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000666" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000666" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000677" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000677" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4629,25 +4929,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115534464"/>
-        <c:axId val="115552640"/>
+        <c:axId val="226246656"/>
+        <c:axId val="226248192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115534464"/>
+        <c:axId val="226246656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115552640"/>
+        <c:crossAx val="226248192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115552640"/>
+        <c:axId val="226248192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4657,7 +4957,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115534464"/>
+        <c:crossAx val="226246656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4669,7 +4969,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4891,7 +5191,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:M76" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:M76" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A4:M76">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4902,19 +5202,19 @@
     <filterColumn colId="11"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Test name" dataDxfId="11"/>
-    <tableColumn id="14" name="Minimum" dataDxfId="10"/>
-    <tableColumn id="13" name="Maximum" dataDxfId="9"/>
-    <tableColumn id="10" name="SqlClient" dataDxfId="8"/>
-    <tableColumn id="3" name="Entity Framework" dataDxfId="7"/>
-    <tableColumn id="9" name="LINQ to SQL" dataDxfId="6"/>
-    <tableColumn id="2" name="BLToolkit" dataDxfId="5"/>
-    <tableColumn id="15" name="DataObjects.Net" dataDxfId="4"/>
-    <tableColumn id="4" name="Lightspeed" dataDxfId="3"/>
-    <tableColumn id="6" name="NHibernate" dataDxfId="2"/>
-    <tableColumn id="7" name="OpenAccess" dataDxfId="1"/>
+    <tableColumn id="1" name="Test name" dataDxfId="35"/>
+    <tableColumn id="14" name="Minimum" dataDxfId="34"/>
+    <tableColumn id="13" name="Maximum" dataDxfId="33"/>
+    <tableColumn id="10" name="SqlClient" dataDxfId="32"/>
+    <tableColumn id="3" name="Entity Framework" dataDxfId="31"/>
+    <tableColumn id="9" name="LINQ to SQL" dataDxfId="30"/>
+    <tableColumn id="2" name="BLToolkit" dataDxfId="29"/>
+    <tableColumn id="15" name="DataObjects.Net" dataDxfId="28"/>
+    <tableColumn id="4" name="Lightspeed" dataDxfId="27"/>
+    <tableColumn id="6" name="NHibernate" dataDxfId="26"/>
+    <tableColumn id="7" name="OpenAccess" dataDxfId="25"/>
     <tableColumn id="11" name="Subsonic"/>
-    <tableColumn id="8" name="Unit" dataDxfId="0"/>
+    <tableColumn id="8" name="Unit" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5208,8 +5508,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6181,7 +6481,9 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="75" t="s">
+        <v>92</v>
+      </c>
       <c r="I29" s="33"/>
       <c r="J29" s="25"/>
       <c r="K29" s="27"/>
@@ -7315,7 +7617,9 @@
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
+      <c r="H70" s="75" t="s">
+        <v>92</v>
+      </c>
       <c r="I70" s="33"/>
       <c r="J70" s="25"/>
       <c r="K70" s="27"/>
@@ -7481,7 +7785,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M59">
-    <cfRule type="colorScale" priority="2000">
+    <cfRule type="colorScale" priority="2020">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7493,7 +7797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="colorScale" priority="1996">
+    <cfRule type="colorScale" priority="2016">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7501,12 +7805,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="73" priority="1997" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="72" priority="1998" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="71" priority="1999" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="2017" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="96" priority="2018" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="95" priority="2019" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="colorScale" priority="1473">
+    <cfRule type="colorScale" priority="1493">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7514,15 +7818,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="70" priority="1474" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="69" priority="1475" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="68" priority="1476" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="1494" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="93" priority="1495" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="92" priority="1496" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61">
-    <cfRule type="top10" dxfId="67" priority="1472" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="91" priority="1492" percent="1" rank="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61">
-    <cfRule type="colorScale" priority="1465">
+    <cfRule type="colorScale" priority="1485">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7530,12 +7834,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="66" priority="1466" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="65" priority="1467" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="64" priority="1468" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="1486" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="89" priority="1487" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="88" priority="1488" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="colorScale" priority="1452">
+    <cfRule type="colorScale" priority="1472">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7547,7 +7851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61">
-    <cfRule type="colorScale" priority="1451">
+    <cfRule type="colorScale" priority="1471">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7559,7 +7863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62">
-    <cfRule type="colorScale" priority="1441">
+    <cfRule type="colorScale" priority="1461">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7571,7 +7875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:M70">
-    <cfRule type="colorScale" priority="3286">
+    <cfRule type="colorScale" priority="3306">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7583,7 +7887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="3862">
+    <cfRule type="colorScale" priority="3882">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7595,7 +7899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="colorScale" priority="882">
+    <cfRule type="colorScale" priority="902">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7603,12 +7907,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="63" priority="883" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="62" priority="884" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="61" priority="885" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="903" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="86" priority="904" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="85" priority="905" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="colorScale" priority="881">
+    <cfRule type="colorScale" priority="901">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7620,7 +7924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="852">
+    <cfRule type="colorScale" priority="872">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7628,12 +7932,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="60" priority="853" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="59" priority="854" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="58" priority="855" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="873" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="83" priority="874" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="82" priority="875" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="colorScale" priority="851">
+    <cfRule type="colorScale" priority="871">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7645,7 +7949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="846">
+    <cfRule type="colorScale" priority="866">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7653,12 +7957,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="57" priority="847" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="56" priority="848" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="55" priority="849" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="867" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="80" priority="868" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="79" priority="869" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="colorScale" priority="845">
+    <cfRule type="colorScale" priority="865">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7670,7 +7974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:F65">
-    <cfRule type="colorScale" priority="4777">
+    <cfRule type="colorScale" priority="4797">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7682,7 +7986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:F70">
-    <cfRule type="colorScale" priority="4790">
+    <cfRule type="colorScale" priority="4810">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7694,7 +7998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:M59 M6:M19 M39:M49 M22:M30 M35">
-    <cfRule type="colorScale" priority="5128">
+    <cfRule type="colorScale" priority="5148">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7706,7 +8010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:M59">
-    <cfRule type="colorScale" priority="5133">
+    <cfRule type="colorScale" priority="5153">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7718,7 +8022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62:M63">
-    <cfRule type="colorScale" priority="5155">
+    <cfRule type="colorScale" priority="5175">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7730,7 +8034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M19 M35 M39:M49 M52:M59 M22:M30">
-    <cfRule type="colorScale" priority="5233">
+    <cfRule type="colorScale" priority="5253">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7742,7 +8046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52:M59 M6:M19 M39:M49 M35 M22:M30">
-    <cfRule type="colorScale" priority="5303">
+    <cfRule type="colorScale" priority="5323">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7754,7 +8058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="colorScale" priority="301">
+    <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7766,7 +8070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="colorScale" priority="300">
+    <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7778,7 +8082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="colorScale" priority="299">
+    <cfRule type="colorScale" priority="319">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7790,7 +8094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="colorScale" priority="298">
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7802,7 +8106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="colorScale" priority="297">
+    <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7814,7 +8118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="colorScale" priority="296">
+    <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7826,7 +8130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="colorScale" priority="5334">
+    <cfRule type="colorScale" priority="5354">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7838,7 +8142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7846,12 +8150,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="54" priority="83" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="53" priority="84" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="52" priority="85" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="103" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="77" priority="104" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="76" priority="105" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M29">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7859,12 +8163,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="51" priority="79" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="50" priority="80" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="49" priority="81" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="99" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="74" priority="100" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="73" priority="101" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M29">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7876,7 +8180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7884,12 +8188,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="48" priority="69" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="47" priority="70" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="46" priority="71" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="89" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="71" priority="90" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="70" priority="91" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7901,7 +8205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7909,12 +8213,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="45" priority="59" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="44" priority="60" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="43" priority="61" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="79" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="68" priority="80" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="67" priority="81" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7926,7 +8230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -7934,12 +8238,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="42" priority="49" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="41" priority="50" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="40" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="69" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="65" priority="70" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="64" priority="71" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7951,7 +8255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7963,7 +8267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23 B22:D22">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7975,7 +8279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L23">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7987,7 +8291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7999,7 +8303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8007,12 +8311,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="39" priority="32" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="38" priority="33" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="37" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="52" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="62" priority="53" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="61" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8024,7 +8328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8032,12 +8336,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="36" priority="27" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="35" priority="28" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="34" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="47" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="59" priority="48" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="58" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8049,7 +8353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8057,12 +8361,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="33" priority="12" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="32" priority="13" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="31" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="32" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="56" priority="33" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="55" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8074,7 +8378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8082,12 +8386,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="30" priority="7" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="29" priority="8" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="28" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="27" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="53" priority="28" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="52" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8099,7 +8403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8111,7 +8415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8123,7 +8427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:M69">
-    <cfRule type="colorScale" priority="5335">
+    <cfRule type="colorScale" priority="5355">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8135,7 +8439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:H70">
-    <cfRule type="colorScale" priority="5337">
+    <cfRule type="colorScale" priority="5357">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8143,12 +8447,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="27" priority="5338" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="26" priority="5339" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="25" priority="5340" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="5358" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="50" priority="5359" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="49" priority="5360" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:H70">
-    <cfRule type="colorScale" priority="5341">
+    <cfRule type="colorScale" priority="5361">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8160,7 +8464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:I70">
-    <cfRule type="colorScale" priority="5353">
+    <cfRule type="colorScale" priority="5373">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8172,7 +8476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L18">
-    <cfRule type="colorScale" priority="5360">
+    <cfRule type="colorScale" priority="5380">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8184,7 +8488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L19">
-    <cfRule type="colorScale" priority="5362">
+    <cfRule type="colorScale" priority="5382">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8196,7 +8500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="colorScale" priority="5364">
+    <cfRule type="colorScale" priority="5384">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8208,7 +8512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:L26">
-    <cfRule type="colorScale" priority="5366">
+    <cfRule type="colorScale" priority="5386">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8220,7 +8524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L6">
-    <cfRule type="colorScale" priority="5368">
+    <cfRule type="colorScale" priority="5388">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8232,7 +8536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:L7">
-    <cfRule type="colorScale" priority="5370">
+    <cfRule type="colorScale" priority="5390">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8244,7 +8548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
-    <cfRule type="colorScale" priority="5372">
+    <cfRule type="colorScale" priority="5392">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8256,7 +8560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="colorScale" priority="5374">
+    <cfRule type="colorScale" priority="5394">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8268,7 +8572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L10">
-    <cfRule type="colorScale" priority="5376">
+    <cfRule type="colorScale" priority="5396">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8280,7 +8584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:L11">
-    <cfRule type="colorScale" priority="5378">
+    <cfRule type="colorScale" priority="5398">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8292,7 +8596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L12">
-    <cfRule type="colorScale" priority="5380">
+    <cfRule type="colorScale" priority="5400">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8304,7 +8608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:L13">
-    <cfRule type="colorScale" priority="5382">
+    <cfRule type="colorScale" priority="5402">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8316,7 +8620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:L14">
-    <cfRule type="colorScale" priority="5384">
+    <cfRule type="colorScale" priority="5404">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8328,7 +8632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:L15">
-    <cfRule type="colorScale" priority="5386">
+    <cfRule type="colorScale" priority="5406">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8340,7 +8644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L16">
-    <cfRule type="colorScale" priority="5388">
+    <cfRule type="colorScale" priority="5408">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8352,7 +8656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:L17">
-    <cfRule type="colorScale" priority="5390">
+    <cfRule type="colorScale" priority="5410">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8364,7 +8668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:L23">
-    <cfRule type="colorScale" priority="5392">
+    <cfRule type="colorScale" priority="5412">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8376,7 +8680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="colorScale" priority="5394">
+    <cfRule type="colorScale" priority="5414">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8388,7 +8692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:L27">
-    <cfRule type="colorScale" priority="5396">
+    <cfRule type="colorScale" priority="5416">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8400,7 +8704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:C39 E39:L39">
-    <cfRule type="colorScale" priority="5398">
+    <cfRule type="colorScale" priority="5418">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8412,7 +8716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41 E41:L41">
-    <cfRule type="colorScale" priority="5401">
+    <cfRule type="colorScale" priority="5421">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8424,7 +8728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42 E42:L42">
-    <cfRule type="colorScale" priority="5404">
+    <cfRule type="colorScale" priority="5424">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8436,7 +8740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43 E43:L43">
-    <cfRule type="colorScale" priority="5407">
+    <cfRule type="colorScale" priority="5427">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8448,7 +8752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44 E44:L44">
-    <cfRule type="colorScale" priority="5410">
+    <cfRule type="colorScale" priority="5430">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8460,7 +8764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46 E46:L46">
-    <cfRule type="colorScale" priority="5413">
+    <cfRule type="colorScale" priority="5433">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8472,7 +8776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47 E47:L47">
-    <cfRule type="colorScale" priority="5416">
+    <cfRule type="colorScale" priority="5436">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8484,7 +8788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48 E48:L48">
-    <cfRule type="colorScale" priority="5419">
+    <cfRule type="colorScale" priority="5439">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8496,7 +8800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49 E49:L49">
-    <cfRule type="colorScale" priority="5422">
+    <cfRule type="colorScale" priority="5442">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8508,7 +8812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:C53 E53:L53">
-    <cfRule type="colorScale" priority="5425">
+    <cfRule type="colorScale" priority="5445">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8520,7 +8824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54 E54:L54">
-    <cfRule type="colorScale" priority="5428">
+    <cfRule type="colorScale" priority="5448">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8532,7 +8836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:C55 E55:L55">
-    <cfRule type="colorScale" priority="5431">
+    <cfRule type="colorScale" priority="5451">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8544,7 +8848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57 E57:L57">
-    <cfRule type="colorScale" priority="5434">
+    <cfRule type="colorScale" priority="5454">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8556,7 +8860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C58 E58:L58">
-    <cfRule type="colorScale" priority="5437">
+    <cfRule type="colorScale" priority="5457">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8568,7 +8872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:C59 E59:L59">
-    <cfRule type="colorScale" priority="5440">
+    <cfRule type="colorScale" priority="5460">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8580,7 +8884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:C60 E60:L60">
-    <cfRule type="colorScale" priority="5443">
+    <cfRule type="colorScale" priority="5463">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8592,7 +8896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:C62 E62:L62">
-    <cfRule type="colorScale" priority="5446">
+    <cfRule type="colorScale" priority="5466">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8604,7 +8908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:C63 E63:L63">
-    <cfRule type="colorScale" priority="5457">
+    <cfRule type="colorScale" priority="5477">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8616,7 +8920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:M71">
-    <cfRule type="colorScale" priority="5466">
+    <cfRule type="colorScale" priority="5486">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8628,7 +8932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:M71">
-    <cfRule type="colorScale" priority="5468">
+    <cfRule type="colorScale" priority="5488">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8636,12 +8940,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="24" priority="5469" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="23" priority="5470" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="22" priority="5471" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="5489" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="47" priority="5490" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="46" priority="5491" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:M28">
-    <cfRule type="colorScale" priority="5476">
+    <cfRule type="colorScale" priority="5496">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8653,7 +8957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:M28">
-    <cfRule type="colorScale" priority="5478">
+    <cfRule type="colorScale" priority="5498">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8661,12 +8965,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="21" priority="5479" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="20" priority="5480" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="19" priority="5481" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="5499" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="44" priority="5500" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="43" priority="5501" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="colorScale" priority="5486">
+    <cfRule type="colorScale" priority="5506">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8674,12 +8978,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="18" priority="5487" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="17" priority="5488" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="16" priority="5489" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="5507" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="41" priority="5508" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="40" priority="5509" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="colorScale" priority="5490">
+    <cfRule type="colorScale" priority="5510">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8691,7 +8995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:I29">
-    <cfRule type="colorScale" priority="5496">
+    <cfRule type="colorScale" priority="5516">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -8699,12 +9003,12 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="15" priority="5497" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="14" priority="5498" percent="1" rank="33"/>
-    <cfRule type="top10" dxfId="13" priority="5499" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="5517" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="38" priority="5518" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="37" priority="5519" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:I29">
-    <cfRule type="colorScale" priority="5504">
+    <cfRule type="colorScale" priority="5524">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -8716,7 +9020,107 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:M30">
-    <cfRule type="colorScale" priority="5511">
+    <cfRule type="colorScale" priority="5531">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="23" priority="18" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="22" priority="19" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="21" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="17" priority="13" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="16" priority="14" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="15" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="10" priority="9" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="5" priority="3" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="4" priority="4" percent="1" rank="33"/>
+    <cfRule type="top10" dxfId="3" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
